--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="468" windowWidth="23256" windowHeight="11856" activeTab="1"/>
+    <workbookView xWindow="276" yWindow="588" windowWidth="23256" windowHeight="11736"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="103">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,14 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文本框#角色编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框#角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色名称-自动测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,6 +320,115 @@
   </si>
   <si>
     <t>输入框#角色名称</t>
+  </si>
+  <si>
+    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号modul-1-自动测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称-自动测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备位号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>pub_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备增加技术参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>文本输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#保存成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#报废年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>输入框#设备状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -471,6 +572,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -782,24 +889,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="7.21875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="15" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" customWidth="1"/>
     <col min="10" max="10" width="27.5546875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
@@ -859,7 +966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -877,7 +984,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -933,7 +1040,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>29</v>
@@ -1013,277 +1120,482 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H9" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D11" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D12" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D13" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>57</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D14" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>64</v>
+        <v>48</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D15" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>65</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D16" s="10">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="10">
         <v>8</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D17" s="10">
+      <c r="E17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="10">
         <v>9</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D20" s="10">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D21" s="10">
+        <v>12</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D22" s="10">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D23" s="10">
+        <v>14</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D24" s="10">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D25" s="10">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D26" s="10">
+        <v>17</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D27" s="10">
+        <v>18</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D28" s="10">
+        <v>19</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="4:7" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="G28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D30" s="11">
+        <v>2</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D31" s="10">
+        <v>3</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D32" s="11">
+        <v>4</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D33" s="10">
+        <v>5</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D34" s="11">
+        <v>6</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D35" s="10">
+        <v>7</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E40" s="10"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E41" s="10"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E42" s="10"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E43" s="10"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E44" s="10"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E45" s="10"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E46" s="10"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E47" s="10"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E48" s="10"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E49" s="10"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E50" s="10"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -1343,20 +1655,54 @@
     <row r="83" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E83" s="2"/>
     </row>
+    <row r="84" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E94" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E46">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E31 E36:E57">
       <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8">
-      <formula1>"BASE,SETUP,SNIPPET,MAIN,SUB,SKIP"</formula1>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E58:E1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G35">
+      <formula1>"菜单#,按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G5:G6"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E47:E1048576"/>
-    <dataValidation showInputMessage="1" sqref="G2:G4"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E17">
-      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E35 E2:E28">
+      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36">
+      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1368,10 +1714,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1729,7 @@
     <col min="5" max="5" width="7.21875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="15" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" customWidth="1"/>
     <col min="10" max="10" width="27.5546875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
@@ -1605,6 +1951,7 @@
       <c r="G7" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
@@ -1616,7 +1963,7 @@
       <c r="G8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1636,6 +1983,7 @@
       <c r="G9" s="10" t="s">
         <v>41</v>
       </c>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D10" s="10">
@@ -1647,6 +1995,7 @@
       <c r="G10" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D11" s="10">
@@ -1658,6 +2007,7 @@
       <c r="G11" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D12" s="10">
@@ -1669,6 +2019,7 @@
       <c r="G12" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D13" s="10">
@@ -1678,8 +2029,9 @@
         <v>24</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>70</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D14" s="10">
@@ -1691,7 +2043,7 @@
       <c r="G14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1703,8 +2055,9 @@
         <v>24</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>71</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D16" s="10">
@@ -1716,7 +2069,7 @@
       <c r="G16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1730,6 +2083,7 @@
       <c r="G17" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="10">
@@ -1741,6 +2095,7 @@
       <c r="G18" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
@@ -1758,6 +2113,7 @@
       <c r="G19" s="10" t="s">
         <v>41</v>
       </c>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D20" s="10">
@@ -1769,6 +2125,7 @@
       <c r="G20" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="10">
@@ -1780,6 +2137,7 @@
       <c r="G21" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="10">
@@ -1789,8 +2147,9 @@
         <v>24</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>71</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D23" s="10">
@@ -1802,6 +2161,7 @@
       <c r="G23" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D24" s="10">
@@ -1811,8 +2171,9 @@
         <v>24</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D25" s="10">
@@ -1824,7 +2185,7 @@
       <c r="G25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1836,8 +2197,9 @@
         <v>24</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D27" s="10">
@@ -1849,7 +2211,7 @@
       <c r="G27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1861,8 +2223,9 @@
         <v>24</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>74</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D29" s="10">
@@ -1874,7 +2237,7 @@
       <c r="G29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1888,6 +2251,7 @@
       <c r="G30" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D31" s="10">
@@ -1899,6 +2263,7 @@
       <c r="G31" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
@@ -1916,6 +2281,7 @@
       <c r="G32" s="10" t="s">
         <v>41</v>
       </c>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D33" s="10">
@@ -1927,6 +2293,7 @@
       <c r="G33" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D34" s="10">
@@ -1938,6 +2305,7 @@
       <c r="G34" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D35" s="10">
@@ -1947,8 +2315,9 @@
         <v>24</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>75</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D36" s="10">
@@ -1960,7 +2329,7 @@
       <c r="G36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1972,8 +2341,9 @@
         <v>24</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D38" s="10">
@@ -1985,8 +2355,8 @@
       <c r="G38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>65</v>
+      <c r="H38" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1999,6 +2369,7 @@
       <c r="G39" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D40" s="10">
@@ -2010,77 +2381,91 @@
       <c r="G40" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E41" s="10"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E42" s="10"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E43" s="10"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E44" s="10"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E45" s="10"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E46" s="10"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E47" s="10"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -2184,21 +2569,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="6">
     <dataValidation showInputMessage="1" sqref="G2:G4"/>
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E61:E1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="G5:G6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"SETUP,SNIPPET"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8">
-      <formula1>"BASE,SETUP,SNIPPET,MAIN,SUB,SKIP"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E60">
       <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E40">
-      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到"</formula1>
+      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41">
+      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2213,7 +2595,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2225,7 +2607,7 @@
     <col min="5" max="5" width="7.21875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="15" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" customWidth="1"/>
     <col min="10" max="10" width="27.5546875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
@@ -2447,6 +2829,7 @@
       <c r="G7" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
@@ -2458,7 +2841,7 @@
       <c r="G8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2466,108 +2849,184 @@
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="17" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="18" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="19" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="20" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="21" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="22" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="23" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="24" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="25" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="26" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="27" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="28" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="29" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="30" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="31" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="32" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="5:5" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="5:5" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="5:5" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="5:5" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="5:5" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="5:5" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="5:5" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="5:5" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="5:5" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="588" windowWidth="23256" windowHeight="11736"/>
+    <workbookView xWindow="276" yWindow="588" windowWidth="23256" windowHeight="11736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,6 +428,14 @@
   </si>
   <si>
     <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#保存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,10 +899,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1048,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>29</v>
@@ -1479,7 +1487,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H34" s="14"/>
     </row>
@@ -1695,14 +1703,14 @@
       <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
     </dataValidation>
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E58:E1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G35">
-      <formula1>"菜单#,按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E35 E2:E28">
       <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G35">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1714,10 +1722,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2569,10 +2577,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation showInputMessage="1" sqref="G2:G4"/>
+  <dataValidations count="5">
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E61:E1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G5:G6"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E60">
       <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
     </dataValidation>
@@ -2581,6 +2587,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G44">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="588" windowWidth="23256" windowHeight="11736" activeTab="1"/>
+    <workbookView xWindow="276" yWindow="648" windowWidth="23256" windowHeight="11676"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="141">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <t>SETUP</t>
   </si>
   <si>
-    <t>logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菜单#系统管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,7 +241,245 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自动测试</t>
+    <t>&lt;_人员手机号&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#基础配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#设备台帐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#组织编码</t>
+  </si>
+  <si>
+    <t>输入框#组织名称</t>
+  </si>
+  <si>
+    <t>输入框#员工编号</t>
+  </si>
+  <si>
+    <t>输入框#姓名</t>
+  </si>
+  <si>
+    <t>输入框#人员手机号</t>
+  </si>
+  <si>
+    <t>输入框#角色编码</t>
+  </si>
+  <si>
+    <t>输入框#角色名称</t>
+  </si>
+  <si>
+    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备位号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>pub_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>子表按钮#添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#报废年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>输入框#设备状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类别新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#设备类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业岗位新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#工业岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#岗位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#岗位权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项值#本部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能位置新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#功能位置(区域)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#所属模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能位置子表新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选按钮#是否启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业岗位子表新增人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#批量添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#位置编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#位置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;位置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#所属单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备子页签技术参数新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表条目统计#全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;岗位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,185 +487,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;_普通编码&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;_人员手机号&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称-自动测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#基础配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#设备台帐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#组织编码</t>
-  </si>
-  <si>
-    <t>输入框#组织名称</t>
-  </si>
-  <si>
-    <t>输入框#员工编号</t>
-  </si>
-  <si>
-    <t>输入框#姓名</t>
-  </si>
-  <si>
-    <t>输入框#人员手机号</t>
-  </si>
-  <si>
-    <t>输入框#角色编码</t>
-  </si>
-  <si>
-    <t>输入框#角色名称</t>
-  </si>
-  <si>
-    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号modul-1-自动测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名称-自动测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#设备位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#设备类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN</t>
-  </si>
-  <si>
-    <t>pub_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备增加技术参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUB</t>
-  </si>
-  <si>
-    <t>文本输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#保存成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表按钮#添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#参数名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#参数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#报废年限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新</t>
-  </si>
-  <si>
-    <t>输入框#设备状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表按钮#保存</t>
+    <t>&lt;_普通编码&gt;设备类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表字段值#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#成功上传更新9条数据!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,12 +1040,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P94"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -911,9 +1054,9 @@
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
     <col min="8" max="8" width="47.33203125" style="15" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" customWidth="1"/>
     <col min="10" max="10" width="27.5546875" customWidth="1"/>
@@ -982,7 +1125,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -992,7 +1135,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -1048,7 +1191,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>29</v>
@@ -1100,7 +1243,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>30</v>
@@ -1116,7 +1259,7 @@
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
@@ -1128,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H7" s="13"/>
     </row>
@@ -1140,10 +1283,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -1155,7 +1298,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>30</v>
@@ -1163,13 +1306,10 @@
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -1178,7 +1318,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H10" s="12"/>
     </row>
@@ -1190,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -1199,518 +1339,205 @@
         <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D13" s="10">
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D14" s="10">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D15" s="10">
-        <v>6</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>80</v>
-      </c>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D16" s="10">
-        <v>7</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D17" s="10">
-        <v>8</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>81</v>
-      </c>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D18" s="10">
-        <v>9</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D19" s="10">
-        <v>10</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D20" s="10">
-        <v>11</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D21" s="10">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D22" s="10">
-        <v>13</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D23" s="10">
-        <v>14</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D24" s="10">
-        <v>15</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D25" s="10">
-        <v>16</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D26" s="10">
-        <v>17</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D27" s="10">
-        <v>18</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D28" s="10">
-        <v>19</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D30" s="11">
-        <v>2</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D31" s="10">
-        <v>3</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D32" s="11">
-        <v>4</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D33" s="10">
-        <v>5</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D34" s="11">
-        <v>6</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D35" s="10">
-        <v>7</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E36" s="10"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E37" s="10"/>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E38" s="10"/>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E39" s="10"/>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E40" s="10"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E41" s="10"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E42" s="10"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E43" s="10"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E44" s="10"/>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E45" s="10"/>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E46" s="10"/>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E47" s="10"/>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E48" s="10"/>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E49" s="10"/>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E50" s="10"/>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E94" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E31 E36:E57">
-      <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E58:E1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E35 E2:E28">
-      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G21">
       <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1720,12 +1547,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1805,7 +1632,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1815,7 +1642,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -1923,7 +1750,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>30</v>
@@ -1939,7 +1766,7 @@
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
@@ -1951,13 +1778,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="H7" s="13"/>
     </row>
@@ -1966,460 +1787,471 @@
         <v>2</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="G9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="B10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
       <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D11" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D12" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D13" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D14" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>56</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D15" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D16" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>55</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D17" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="10">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="10">
         <v>10</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="G19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="10">
         <v>1</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
       <c r="E20" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D23" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D24" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D25" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>57</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D26" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="27" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D27" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>55</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D28" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D29" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>58</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D30" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D31" s="10">
+        <v>12</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D32" s="10">
         <v>13</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D35" s="10">
+        <v>3</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D36" s="10">
+        <v>4</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D37" s="10">
+        <v>5</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D33" s="10">
-        <v>2</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D34" s="10">
-        <v>3</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="H37" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D38" s="10">
+        <v>6</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D39" s="10">
+        <v>7</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D40" s="10">
+        <v>8</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D41" s="10">
+        <v>9</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D35" s="10">
-        <v>4</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D36" s="10">
-        <v>5</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D37" s="10">
-        <v>6</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D38" s="10">
-        <v>7</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D39" s="10">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D40" s="10">
-        <v>9</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E41" s="10"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E42" s="10"/>
       <c r="H42" s="14"/>
     </row>
-    <row r="43" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E43" s="10"/>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E44" s="10"/>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E45" s="10"/>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E46" s="10"/>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E47" s="10"/>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E48" s="10"/>
       <c r="H48" s="14"/>
     </row>
@@ -2443,8 +2275,9 @@
       <c r="E53" s="10"/>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E54" s="2"/>
+    <row r="54" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E54" s="10"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
@@ -2574,21 +2407,24 @@
     </row>
     <row r="97" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E98" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E61:E1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E60">
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E62:E1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E61">
       <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E41">
       <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C42">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G45">
       <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2599,12 +2435,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2684,7 +2520,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -2694,7 +2530,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -2802,7 +2638,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>30</v>
@@ -2818,7 +2654,7 @@
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
@@ -2830,13 +2666,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="H7" s="13"/>
     </row>
@@ -2845,245 +2675,941 @@
         <v>2</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="G9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="H14" s="12"/>
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="10">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D16" s="10">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="10">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="10">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D22" s="10">
+        <v>4</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D23" s="10">
+        <v>5</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D24" s="10">
+        <v>6</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D25" s="10">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D26" s="10">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D27" s="10">
+        <v>9</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D28" s="10">
+        <v>10</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D29" s="10">
+        <v>11</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D30" s="10">
+        <v>12</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D31" s="10">
+        <v>13</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D32" s="10">
+        <v>14</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D33" s="10">
+        <v>15</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D34" s="10">
+        <v>16</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D35" s="10">
+        <v>17</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D36" s="10">
+        <v>18</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D37" s="10">
+        <v>19</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="5:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E41" s="10"/>
+    <row r="39" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D39" s="11">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D40" s="10">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D41" s="11">
+        <v>4</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E42" s="10"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E43" s="10"/>
+    <row r="42" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D42" s="10">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D43" s="11">
+        <v>6</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E44" s="10"/>
+    <row r="44" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D44" s="10">
+        <v>7</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E45" s="10"/>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E46" s="10"/>
+    <row r="45" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A45" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D46" s="11">
+        <v>2</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E47" s="10"/>
+    <row r="47" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D47" s="10">
+        <v>3</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E48" s="10"/>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E49" s="10"/>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E50" s="10"/>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E51" s="10"/>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E52" s="10"/>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E53" s="10"/>
+    <row r="48" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D48" s="11">
+        <v>4</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D49" s="10">
+        <v>5</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D50" s="11">
+        <v>6</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D51" s="10">
+        <v>7</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D52" s="11">
+        <v>8</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D53" s="10">
+        <v>9</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D54" s="11">
+        <v>10</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A55" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="D56" s="10">
+        <v>2</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="D57" s="10">
+        <v>3</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A58" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D59" s="11">
+        <v>2</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D60" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D61" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D62" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D63" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D64" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D65" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D66" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A67" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="11">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D68" s="11">
+        <v>2</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D69" s="11">
+        <v>3</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D70" s="11">
+        <v>4</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D71" s="11">
+        <v>5</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D72" s="11">
+        <v>6</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D73" s="11">
+        <v>7</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D74" s="11">
+        <v>8</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D75" s="11">
+        <v>9</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -3137,24 +3663,60 @@
     <row r="97" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E97" s="2"/>
     </row>
+    <row r="98" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E107" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E40">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38:E40">
       <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
       <formula1>"BASE,SETUP,SNIPPET,MAIN,SUB,SKIP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"SETUP,SNIPPET"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G5:G6"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E76:E1048576"/>
+    <dataValidation showInputMessage="1" sqref="G2:G4"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G7:G75">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G5:G6"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E61:E1048576"/>
-    <dataValidation showInputMessage="1" sqref="G2:G4"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C67">
+      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E75 E7:E37">
+      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -1045,7 +1045,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="648" windowWidth="23256" windowHeight="11676"/>
+    <workbookView xWindow="276" yWindow="768" windowWidth="23256" windowHeight="11556" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
-    <sheet name="sy" sheetId="9" r:id="rId2"/>
-    <sheet name="pub" sheetId="12" r:id="rId3"/>
+    <sheet name="hap-sy" sheetId="9" r:id="rId2"/>
+    <sheet name="hap-pub" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="百度搜索页面" localSheetId="2">#REF!</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="147">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -578,7 +578,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>部门导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>org.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
+  </si>
+  <si>
+    <t>魏永优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,10 +1065,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1168,9 @@
       <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -1274,6 +1299,9 @@
         <v>84</v>
       </c>
       <c r="H7" s="13"/>
+      <c r="L7" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
@@ -1305,59 +1333,15 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D12" s="10">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>140</v>
-      </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D13" s="10">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1547,12 +1531,976 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD19"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="36.88671875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="101" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="L7" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="L10" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="10">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D16" s="10">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="10">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="10">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="L20" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D22" s="10">
+        <v>3</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="L24" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D26" s="10">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D27" s="10">
+        <v>4</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D28" s="10">
+        <v>5</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D29" s="10">
+        <v>6</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D30" s="10">
+        <v>7</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D31" s="10">
+        <v>8</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D32" s="10">
+        <v>9</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D33" s="10">
+        <v>10</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D34" s="10">
+        <v>11</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D35" s="10">
+        <v>12</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D36" s="10">
+        <v>13</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="L37" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D39" s="10">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D40" s="10">
+        <v>4</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D41" s="10">
+        <v>5</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D42" s="10">
+        <v>6</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D43" s="10">
+        <v>7</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D44" s="10">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D45" s="10">
+        <v>9</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E46" s="10"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E47" s="10"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E48" s="10"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E49" s="10"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E50" s="10"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E51" s="10"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E52" s="10"/>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E53" s="10"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E54" s="10"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E55" s="10"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E56" s="10"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E57" s="10"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E58" s="10"/>
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E102" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E66:E1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E46:E65">
+      <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19 E24:E45">
+      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C46">
+      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G49">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E23">
+      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1564,9 +2512,9 @@
     <col min="5" max="5" width="7.21875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" customWidth="1"/>
+    <col min="8" max="8" width="33.21875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" customWidth="1"/>
     <col min="13" max="13" width="13.21875" customWidth="1"/>
@@ -1652,7 +2600,9 @@
       <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -1706,7 +2656,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1781,6 +2731,9 @@
         <v>84</v>
       </c>
       <c r="H7" s="13"/>
+      <c r="L7" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
@@ -1813,10 +2766,10 @@
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -1825,9 +2778,12 @@
         <v>24</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H10" s="12"/>
+      <c r="L10" s="10" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D11" s="10">
@@ -1837,7 +2793,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -1849,7 +2805,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -1861,7 +2817,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -1870,946 +2826,58 @@
         <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D15" s="10">
         <v>6</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>116</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D16" s="10">
         <v>7</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D17" s="10">
         <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="10">
         <v>9</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D19" s="10">
-        <v>10</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D21" s="10">
-        <v>2</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D22" s="10">
-        <v>3</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D23" s="10">
-        <v>4</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D24" s="10">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D25" s="10">
-        <v>6</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D26" s="10">
-        <v>7</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D27" s="10">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D28" s="10">
-        <v>9</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D29" s="10">
-        <v>10</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D30" s="10">
-        <v>11</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D31" s="10">
-        <v>12</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D32" s="10">
-        <v>13</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D34" s="10">
-        <v>2</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D35" s="10">
-        <v>3</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D36" s="10">
-        <v>4</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D37" s="10">
-        <v>5</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D38" s="10">
-        <v>6</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D39" s="10">
-        <v>7</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D40" s="10">
-        <v>8</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D41" s="10">
-        <v>9</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E42" s="10"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E43" s="10"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E44" s="10"/>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E45" s="10"/>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E46" s="10"/>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E47" s="10"/>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E48" s="10"/>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E49" s="10"/>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E50" s="10"/>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E51" s="10"/>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E52" s="10"/>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E53" s="10"/>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E54" s="10"/>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E98" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E62:E1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E61">
-      <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E41">
-      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C42">
-      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G45">
-      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P107"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" customWidth="1"/>
-    <col min="16" max="16" width="101" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D8" s="9">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D12" s="10">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D13" s="10">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D14" s="10">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D15" s="10">
-        <v>6</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D16" s="10">
-        <v>7</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D17" s="10">
-        <v>8</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D18" s="10">
-        <v>9</v>
-      </c>
-      <c r="E18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="10" t="s">
@@ -2817,7 +2885,7 @@
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +2905,11 @@
         <v>60</v>
       </c>
       <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="L19" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D20" s="10">
         <v>2</v>
       </c>
@@ -2850,7 +2921,7 @@
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="10">
         <v>3</v>
       </c>
@@ -2862,7 +2933,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="10">
         <v>4</v>
       </c>
@@ -2874,7 +2945,7 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D23" s="10">
         <v>5</v>
       </c>
@@ -2888,7 +2959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D24" s="10">
         <v>6</v>
       </c>
@@ -2900,7 +2971,7 @@
       </c>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D25" s="10">
         <v>7</v>
       </c>
@@ -2914,7 +2985,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D26" s="10">
         <v>8</v>
       </c>
@@ -2926,7 +2997,7 @@
       </c>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D27" s="10">
         <v>9</v>
       </c>
@@ -2940,7 +3011,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D28" s="10">
         <v>10</v>
       </c>
@@ -2952,7 +3023,7 @@
       </c>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D29" s="10">
         <v>11</v>
       </c>
@@ -2964,7 +3035,7 @@
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D30" s="10">
         <v>12</v>
       </c>
@@ -2976,7 +3047,7 @@
       </c>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D31" s="10">
         <v>13</v>
       </c>
@@ -2988,7 +3059,7 @@
       </c>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D32" s="10">
         <v>14</v>
       </c>
@@ -3000,7 +3071,7 @@
       </c>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D33" s="10">
         <v>15</v>
       </c>
@@ -3014,7 +3085,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D34" s="10">
         <v>16</v>
       </c>
@@ -3026,7 +3097,7 @@
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D35" s="10">
         <v>17</v>
       </c>
@@ -3038,7 +3109,7 @@
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D36" s="10">
         <v>18</v>
       </c>
@@ -3050,7 +3121,7 @@
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D37" s="10">
         <v>19</v>
       </c>
@@ -3062,7 +3133,7 @@
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>102</v>
       </c>
@@ -3082,8 +3153,11 @@
         <v>80</v>
       </c>
       <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="L38" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D39" s="11">
         <v>2</v>
       </c>
@@ -3095,7 +3169,7 @@
       </c>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D40" s="10">
         <v>3</v>
       </c>
@@ -3107,7 +3181,7 @@
       </c>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D41" s="11">
         <v>4</v>
       </c>
@@ -3120,7 +3194,7 @@
       </c>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D42" s="10">
         <v>5</v>
       </c>
@@ -3135,7 +3209,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D43" s="11">
         <v>6</v>
       </c>
@@ -3147,7 +3221,7 @@
       </c>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D44" s="10">
         <v>7</v>
       </c>
@@ -3160,7 +3234,7 @@
       </c>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>124</v>
       </c>
@@ -3180,8 +3254,11 @@
         <v>60</v>
       </c>
       <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="L45" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D46" s="11">
         <v>2</v>
       </c>
@@ -3194,7 +3271,7 @@
       </c>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D47" s="10">
         <v>3</v>
       </c>
@@ -3207,7 +3284,7 @@
       </c>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D48" s="11">
         <v>4</v>
       </c>
@@ -3219,7 +3296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D49" s="10">
         <v>5</v>
       </c>
@@ -3234,7 +3311,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D50" s="11">
         <v>6</v>
       </c>
@@ -3247,7 +3324,7 @@
       </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D51" s="10">
         <v>7</v>
       </c>
@@ -3260,7 +3337,7 @@
       </c>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D52" s="11">
         <v>8</v>
       </c>
@@ -3273,7 +3350,7 @@
       </c>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D53" s="10">
         <v>9</v>
       </c>
@@ -3285,7 +3362,7 @@
       </c>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D54" s="11">
         <v>10</v>
       </c>
@@ -3298,7 +3375,7 @@
       </c>
       <c r="H54" s="14"/>
     </row>
-    <row r="55" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
         <v>125</v>
       </c>
@@ -3319,8 +3396,11 @@
         <v>106</v>
       </c>
       <c r="H55" s="14"/>
-    </row>
-    <row r="56" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="L55" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="D56" s="10">
@@ -3335,7 +3415,7 @@
       </c>
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="D57" s="10">
@@ -3350,7 +3430,7 @@
       </c>
       <c r="H57" s="14"/>
     </row>
-    <row r="58" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
         <v>135</v>
       </c>
@@ -3371,8 +3451,11 @@
         <v>60</v>
       </c>
       <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="L58" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D59" s="11">
         <v>2</v>
       </c>
@@ -3385,7 +3468,7 @@
       </c>
       <c r="H59" s="14"/>
     </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D60" s="11" t="s">
         <v>127</v>
       </c>
@@ -3398,7 +3481,7 @@
       </c>
       <c r="H60" s="14"/>
     </row>
-    <row r="61" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D61" s="11" t="s">
         <v>132</v>
       </c>
@@ -3411,7 +3494,7 @@
       </c>
       <c r="H61" s="14"/>
     </row>
-    <row r="62" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D62" s="11" t="s">
         <v>133</v>
       </c>
@@ -3424,7 +3507,7 @@
       </c>
       <c r="H62" s="14"/>
     </row>
-    <row r="63" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D63" s="10" t="s">
         <v>128</v>
       </c>
@@ -3437,7 +3520,7 @@
       </c>
       <c r="H63" s="14"/>
     </row>
-    <row r="64" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D64" s="10" t="s">
         <v>129</v>
       </c>
@@ -3449,7 +3532,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D65" s="11" t="s">
         <v>130</v>
       </c>
@@ -3461,7 +3544,7 @@
       </c>
       <c r="H65" s="14"/>
     </row>
-    <row r="66" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D66" s="10" t="s">
         <v>131</v>
       </c>
@@ -3474,7 +3557,7 @@
       </c>
       <c r="H66" s="14"/>
     </row>
-    <row r="67" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="10" t="s">
         <v>136</v>
       </c>
@@ -3495,8 +3578,11 @@
         <v>80</v>
       </c>
       <c r="H67" s="14"/>
-    </row>
-    <row r="68" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="L67" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D68" s="11">
         <v>2</v>
       </c>
@@ -3508,7 +3594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D69" s="11">
         <v>3</v>
       </c>
@@ -3523,7 +3609,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D70" s="11">
         <v>4</v>
       </c>
@@ -3535,7 +3621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D71" s="11">
         <v>5</v>
       </c>
@@ -3550,7 +3636,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D72" s="11">
         <v>6</v>
       </c>
@@ -3562,7 +3648,7 @@
       </c>
       <c r="H72" s="14"/>
     </row>
-    <row r="73" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D73" s="11">
         <v>7</v>
       </c>
@@ -3573,7 +3659,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D74" s="11">
         <v>8</v>
       </c>
@@ -3585,7 +3671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D75" s="11">
         <v>9</v>
       </c>
@@ -3597,19 +3683,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="768" windowWidth="23256" windowHeight="11556" activeTab="2"/>
+    <workbookView xWindow="276" yWindow="828" windowWidth="23256" windowHeight="11496" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="170">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <t>SETUP</t>
   </si>
   <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BASE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,10 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列表字段值#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>^3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,6 +594,102 @@
   </si>
   <si>
     <t>魏永优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPPET</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>用例片段</t>
+  </si>
+  <si>
+    <t>列表数据#设备</t>
+  </si>
+  <si>
+    <t>列表字段值#&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表数据#&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表条目统计#全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门查询-按组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按组织名称查询数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snt_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按组织名称查询数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snt_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snt_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1063,18 +1151,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -1148,7 +1236,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1158,7 +1246,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -1169,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1216,7 +1304,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>29</v>
@@ -1268,7 +1356,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>30</v>
@@ -1284,7 +1372,7 @@
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
@@ -1296,11 +1384,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1310,11 +1398,8 @@
       <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -1326,100 +1411,335 @@
         <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H10" s="12"/>
+      <c r="L10" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D21" s="11"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
+    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="10">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D16" s="10">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="10">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="10">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="L20" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D22" s="10">
+        <v>3</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D24" s="10">
+        <v>5</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D27" s="10">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="L28" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D30" s="10">
+        <v>3</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D31" s="10">
+        <v>4</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D32" s="10">
+        <v>5</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
@@ -1511,17 +1831,44 @@
     <row r="62" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
     </row>
+    <row r="63" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E9 E33:E1048576">
+      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C32">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G21">
-      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E32">
+      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F1048576">
+      <formula1>"通用,列表页,卡片页,用例片段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G1048576">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,对话框#"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1531,12 +1878,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1963,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1626,7 +1973,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -1637,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1736,7 +2083,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>30</v>
@@ -1752,7 +2099,7 @@
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
@@ -1764,11 +2111,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1778,11 +2125,8 @@
       <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -1794,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>30</v>
@@ -1805,7 +2149,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -1814,11 +2158,11 @@
         <v>24</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="12"/>
       <c r="L10" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1829,7 +2173,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -1841,7 +2185,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -1853,7 +2197,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -1865,7 +2209,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -1877,10 +2221,10 @@
         <v>20</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1891,7 +2235,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="12"/>
     </row>
@@ -1903,10 +2247,10 @@
         <v>20</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1917,7 +2261,7 @@
         <v>24</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="12"/>
     </row>
@@ -1929,16 +2273,16 @@
         <v>26</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -1947,11 +2291,11 @@
         <v>24</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="12"/>
       <c r="L20" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1962,7 +2306,7 @@
         <v>24</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -1971,13 +2315,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1988,16 +2332,19 @@
         <v>26</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>51</v>
+        <v>164</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
@@ -2006,11 +2353,11 @@
         <v>24</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="12"/>
       <c r="L24" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2021,7 +2368,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H25" s="12"/>
     </row>
@@ -2033,7 +2380,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="H26" s="12"/>
     </row>
@@ -2042,133 +2389,150 @@
         <v>4</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D28" s="10">
         <v>5</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B29" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="D29" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>24</v>
+        <v>149</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D30" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>114</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D31" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="D32" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>20</v>
+        <v>149</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>118</v>
+        <v>166</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="L32" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D33" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D34" s="10">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D35" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D36" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
@@ -2177,11 +2541,11 @@
         <v>24</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="12"/>
       <c r="L37" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2192,7 +2556,7 @@
         <v>24</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H38" s="12"/>
     </row>
@@ -2204,7 +2568,7 @@
         <v>24</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="12"/>
     </row>
@@ -2216,7 +2580,7 @@
         <v>24</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H40" s="12"/>
     </row>
@@ -2228,10 +2592,10 @@
         <v>20</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2242,7 +2606,7 @@
         <v>24</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H42" s="12"/>
     </row>
@@ -2254,10 +2618,10 @@
         <v>20</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2268,7 +2632,7 @@
         <v>24</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H44" s="12"/>
     </row>
@@ -2277,129 +2641,261 @@
         <v>9</v>
       </c>
       <c r="E45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D46" s="10">
+        <v>10</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D47" s="10">
+        <v>11</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D48" s="10">
+        <v>12</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D49" s="10">
+        <v>13</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E46" s="10"/>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E47" s="10"/>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E48" s="10"/>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E49" s="10"/>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E50" s="10"/>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E51" s="10"/>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E52" s="10"/>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E53" s="10"/>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E54" s="10"/>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E55" s="10"/>
-      <c r="H55" s="14"/>
-    </row>
-    <row r="56" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E56" s="10"/>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E57" s="10"/>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E58" s="10"/>
-      <c r="H58" s="14"/>
-    </row>
-    <row r="59" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="G49" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A50" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="L50" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D51" s="10">
+        <v>2</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D53" s="10">
+        <v>4</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D54" s="10">
+        <v>5</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D55" s="10">
+        <v>6</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D56" s="10">
+        <v>7</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D57" s="10">
+        <v>8</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D58" s="10">
+        <v>9</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E59" s="10"/>
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E60" s="10"/>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E61" s="10"/>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E62" s="10"/>
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E63" s="10"/>
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E64" s="10"/>
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E65" s="10"/>
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E66" s="10"/>
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E67" s="10"/>
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E68" s="10"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E69" s="10"/>
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E70" s="10"/>
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E71" s="10"/>
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -2468,24 +2964,69 @@
     <row r="102" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E102" s="2"/>
     </row>
+    <row r="103" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E115" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E66:E1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E46:E65">
+  <dataValidations count="8">
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E79:E1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59:E78">
       <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19 E24:E45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19 E24:E58">
       <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C46">
-      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G49">
-      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E23">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C59">
+      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G23 G37:G62">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G24:G36">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,对话框#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F24:F36">
+      <formula1>"通用,列表页,卡片页,用例片段"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2498,9 +3039,9 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2522,7 +3063,7 @@
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -2580,7 +3121,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -2590,7 +3131,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -2601,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2700,7 +3241,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>30</v>
@@ -2716,7 +3257,7 @@
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
@@ -2728,11 +3269,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2742,11 +3283,8 @@
       <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -2758,7 +3296,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>30</v>
@@ -2766,10 +3304,10 @@
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2778,11 +3316,11 @@
         <v>24</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="12"/>
       <c r="L10" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2793,7 +3331,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -2805,7 +3343,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -2817,7 +3355,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -2829,10 +3367,10 @@
         <v>20</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2843,7 +3381,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -2855,10 +3393,10 @@
         <v>20</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2869,7 +3407,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="12"/>
     </row>
@@ -2881,19 +3419,19 @@
         <v>26</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -2902,11 +3440,11 @@
         <v>24</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="12"/>
       <c r="L19" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2917,7 +3455,7 @@
         <v>24</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -2929,7 +3467,7 @@
         <v>24</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -2941,7 +3479,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -2953,10 +3491,10 @@
         <v>20</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2967,7 +3505,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="12"/>
     </row>
@@ -2979,10 +3517,10 @@
         <v>20</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2993,7 +3531,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" s="12"/>
     </row>
@@ -3005,10 +3543,10 @@
         <v>20</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3019,7 +3557,7 @@
         <v>24</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" s="12"/>
     </row>
@@ -3031,7 +3569,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="12"/>
     </row>
@@ -3043,7 +3581,7 @@
         <v>24</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="12"/>
     </row>
@@ -3052,10 +3590,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31" s="12"/>
     </row>
@@ -3067,7 +3605,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" s="12"/>
     </row>
@@ -3079,10 +3617,10 @@
         <v>20</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3093,7 +3631,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="12"/>
     </row>
@@ -3105,7 +3643,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" s="12"/>
     </row>
@@ -3117,7 +3655,7 @@
         <v>24</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36" s="12"/>
     </row>
@@ -3129,19 +3667,19 @@
         <v>26</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="10">
         <v>1</v>
@@ -3150,11 +3688,11 @@
         <v>24</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H38" s="12"/>
       <c r="L38" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3165,7 +3703,7 @@
         <v>24</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="14"/>
     </row>
@@ -3177,7 +3715,7 @@
         <v>24</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H40" s="14"/>
     </row>
@@ -3190,7 +3728,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" s="14"/>
     </row>
@@ -3203,10 +3741,10 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3217,7 +3755,7 @@
         <v>24</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H43" s="14"/>
     </row>
@@ -3230,19 +3768,19 @@
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="10">
         <v>1</v>
@@ -3251,11 +3789,11 @@
         <v>24</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="12"/>
       <c r="L45" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3267,7 +3805,7 @@
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H46" s="14"/>
     </row>
@@ -3280,7 +3818,7 @@
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H47" s="14"/>
     </row>
@@ -3293,7 +3831,7 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3305,10 +3843,10 @@
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3320,7 +3858,7 @@
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H50" s="12"/>
     </row>
@@ -3333,7 +3871,7 @@
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H51" s="12"/>
     </row>
@@ -3346,7 +3884,7 @@
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H52" s="12"/>
     </row>
@@ -3358,7 +3896,7 @@
         <v>24</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H53" s="14"/>
     </row>
@@ -3371,19 +3909,19 @@
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="10">
         <v>1</v>
@@ -3393,11 +3931,11 @@
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H55" s="14"/>
       <c r="L55" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3407,11 +3945,11 @@
         <v>2</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H56" s="14"/>
     </row>
@@ -3424,21 +3962,23 @@
       <c r="E57" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="G57" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" s="10">
         <v>1</v>
@@ -3448,11 +3988,11 @@
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H58" s="12"/>
       <c r="L58" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3464,108 +4004,108 @@
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D60" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D61" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D62" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D63" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D64" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D65" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D66" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H66" s="14"/>
     </row>
     <row r="67" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -3575,11 +4115,11 @@
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H67" s="14"/>
       <c r="L67" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3591,7 +4131,7 @@
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3603,10 +4143,10 @@
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3618,7 +4158,7 @@
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3630,10 +4170,10 @@
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3644,7 +4184,7 @@
         <v>24</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H72" s="14"/>
     </row>
@@ -3653,10 +4193,10 @@
         <v>7</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3668,7 +4208,7 @@
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3680,7 +4220,7 @@
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="828" windowWidth="23256" windowHeight="11496" activeTab="2"/>
+    <workbookView xWindow="276" yWindow="828" windowWidth="23256" windowHeight="11496"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="172">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,6 +690,14 @@
   </si>
   <si>
     <t>sy_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000&lt;_组织编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000&lt;_组织编码&gt;组织名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1153,10 +1161,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1505,7 @@
         <v>45</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1523,7 +1531,7 @@
         <v>46</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1881,9 +1889,9 @@
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3038,10 +3046,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="828" windowWidth="23256" windowHeight="11496"/>
+    <workbookView xWindow="276" yWindow="888" windowWidth="23256" windowHeight="11436" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="176">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,245 +225,399 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>员工新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#员工管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_人员手机号&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#基础配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#设备台帐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#组织编码</t>
+  </si>
+  <si>
+    <t>输入框#组织名称</t>
+  </si>
+  <si>
+    <t>输入框#员工编号</t>
+  </si>
+  <si>
+    <t>输入框#姓名</t>
+  </si>
+  <si>
+    <t>输入框#人员手机号</t>
+  </si>
+  <si>
+    <t>输入框#角色编码</t>
+  </si>
+  <si>
+    <t>输入框#角色名称</t>
+  </si>
+  <si>
+    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备位号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>pub_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>子表按钮#添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#报废年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>输入框#设备状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类别新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#设备类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业岗位新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#工业岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#岗位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#岗位权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项值#本部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能位置新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#功能位置(区域)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能位置子表新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业岗位子表新增人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#批量添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#位置编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#位置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;位置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#所属单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备子页签技术参数新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表条目统计#全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;岗位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_组织编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;设备类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#成功上传更新9条数据!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sy_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>员工新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#员工管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_人员手机号&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#基础配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#设备台帐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#组织编码</t>
-  </si>
-  <si>
-    <t>输入框#组织名称</t>
-  </si>
-  <si>
-    <t>输入框#员工编号</t>
-  </si>
-  <si>
-    <t>输入框#姓名</t>
-  </si>
-  <si>
-    <t>输入框#人员手机号</t>
-  </si>
-  <si>
-    <t>输入框#角色编码</t>
-  </si>
-  <si>
-    <t>输入框#角色名称</t>
-  </si>
-  <si>
-    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#设备位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#设备类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN</t>
-  </si>
-  <si>
-    <t>pub_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUB</t>
-  </si>
-  <si>
-    <t>子表按钮#添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#参数名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#参数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#报废年限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新</t>
-  </si>
-  <si>
-    <t>输入框#设备状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表按钮#保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类别新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#设备类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业岗位新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#工业岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#岗位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#岗位权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项值#本部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能位置新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#功能位置(区域)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选按钮#所属模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能位置子表新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选按钮#是否启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业岗位子表新增人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表按钮#批量添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#位置编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#位置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;位置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#所属单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备子页签技术参数新增</t>
+    <t>org.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
+  </si>
+  <si>
+    <t>魏永优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPPET</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>用例片段</t>
+  </si>
+  <si>
+    <t>列表数据#设备</t>
+  </si>
+  <si>
+    <t>列表字段值#&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表数据#&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,63 +625,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;_普通编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;岗位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_组织编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;设备类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;5</t>
+    <t>部门查询-按组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按组织名称查询数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snt_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snt_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -539,165 +661,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#保存返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传文件</t>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#成功上传更新9条数据!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏永优</t>
-  </si>
-  <si>
-    <t>魏永优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏永优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏永优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPPET</t>
-  </si>
-  <si>
-    <t>执行</t>
-  </si>
-  <si>
-    <t>用例片段</t>
-  </si>
-  <si>
-    <t>列表数据#设备</t>
-  </si>
-  <si>
-    <t>列表字段值#&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表数据#&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话框#是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#删除成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询输入框#组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表条目统计#全部 1 条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门查询-按组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按组织名称查询数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snt_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按组织名称查询数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snt_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snt_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000&lt;_组织编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000&lt;_组织编码&gt;组织名称</t>
+    <t>&lt;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选按钮#是否启用#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#所属模块#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端权限配置保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#PC端权限配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限配置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色树#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#保存权限成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,12 +1175,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1176,8 +1192,8 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
     <col min="10" max="10" width="27.5546875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" customWidth="1"/>
@@ -1254,7 +1270,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -1265,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1312,7 +1328,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>29</v>
@@ -1392,11 +1408,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1407,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -1425,329 +1441,178 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>48</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="10">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="L10" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D11" s="10">
+      <c r="L10" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="11">
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D12" s="10">
         <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D13" s="10">
+        <v>168</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="11">
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F13" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="G13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D14" s="10">
         <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F14" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="G14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D15" s="10">
+        <v>173</v>
+      </c>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="11">
         <v>6</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D16" s="10">
         <v>7</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D17" s="10">
+        <v>174</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="11">
         <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="10">
         <v>9</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D19" s="10">
-        <v>10</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="L20" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D21" s="10">
-        <v>2</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D22" s="10">
-        <v>3</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D23" s="10">
-        <v>4</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D24" s="10">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D26" s="10">
-        <v>2</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D27" s="10">
-        <v>3</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="L28" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D29" s="10">
-        <v>2</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D30" s="10">
-        <v>3</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D31" s="10">
-        <v>4</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D32" s="10">
-        <v>5</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" s="12"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
@@ -1794,89 +1659,26 @@
     <row r="47" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E69" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E9 E33:E1048576">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E9 E19:E1048576">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F9 F19:F1048576">
+      <formula1>"通用,列表页,卡片页,用例片段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G9 G19:G1048576">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,对话框#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G10:G18">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E18">
       <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F1048576">
-      <formula1>"通用,列表页,卡片页,用例片段"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G1048576">
-      <formula1>"菜单#,按钮#,子表按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,对话框#"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1888,10 +1690,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1992,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2119,11 +1921,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2170,7 +1972,7 @@
       </c>
       <c r="H10" s="12"/>
       <c r="L10" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2217,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -2232,7 +2034,7 @@
         <v>45</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2243,7 +2045,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="12"/>
     </row>
@@ -2258,7 +2060,7 @@
         <v>46</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2287,10 +2089,10 @@
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -2303,7 +2105,7 @@
       </c>
       <c r="H20" s="12"/>
       <c r="L20" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2323,13 +2125,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2340,19 +2142,19 @@
         <v>26</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
@@ -2365,7 +2167,7 @@
       </c>
       <c r="H24" s="12"/>
       <c r="L24" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2388,7 +2190,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H26" s="12"/>
     </row>
@@ -2403,7 +2205,7 @@
         <v>45</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2414,28 +2216,28 @@
         <v>24</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H29" s="12"/>
     </row>
@@ -2447,7 +2249,7 @@
         <v>26</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H30" s="12"/>
     </row>
@@ -2459,32 +2261,32 @@
         <v>26</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H32" s="12"/>
       <c r="L32" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2495,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H33" s="12"/>
     </row>
@@ -2507,7 +2309,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H34" s="12"/>
     </row>
@@ -2519,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H35" s="12"/>
     </row>
@@ -2531,16 +2333,16 @@
         <v>26</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
@@ -2553,7 +2355,7 @@
       </c>
       <c r="H37" s="12"/>
       <c r="L37" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2564,7 +2366,7 @@
         <v>24</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" s="12"/>
     </row>
@@ -2588,7 +2390,7 @@
         <v>24</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H40" s="12"/>
     </row>
@@ -2603,7 +2405,7 @@
         <v>45</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2614,7 +2416,7 @@
         <v>24</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H42" s="12"/>
     </row>
@@ -2629,7 +2431,7 @@
         <v>45</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2640,7 +2442,7 @@
         <v>24</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H44" s="12"/>
     </row>
@@ -2652,7 +2454,7 @@
         <v>44</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="12"/>
     </row>
@@ -2664,7 +2466,7 @@
         <v>24</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H46" s="12"/>
     </row>
@@ -2679,7 +2481,7 @@
         <v>45</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2708,10 +2510,10 @@
     </row>
     <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="10">
         <v>1</v>
@@ -2724,7 +2526,7 @@
       </c>
       <c r="H50" s="12"/>
       <c r="L50" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2735,7 +2537,7 @@
         <v>24</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="12"/>
     </row>
@@ -2759,7 +2561,7 @@
         <v>24</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H53" s="12"/>
     </row>
@@ -2774,7 +2576,7 @@
         <v>45</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2785,7 +2587,7 @@
         <v>24</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H55" s="12"/>
     </row>
@@ -2800,7 +2602,7 @@
         <v>45</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2828,82 +2630,177 @@
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E59" s="10"/>
-      <c r="H59" s="14"/>
+      <c r="A59" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="L59" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="60" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E60" s="10"/>
+      <c r="D60" s="11">
+        <v>2</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E61" s="10"/>
+      <c r="D61" s="10">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E62" s="10"/>
+      <c r="D62" s="11">
+        <v>4</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E63" s="10"/>
+      <c r="D63" s="10">
+        <v>5</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E64" s="10"/>
+      <c r="D64" s="11">
+        <v>6</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E65" s="10"/>
+    <row r="65" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D65" s="10">
+        <v>7</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10" t="s">
+        <v>174</v>
+      </c>
       <c r="H65" s="14"/>
     </row>
-    <row r="66" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E66" s="10"/>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E67" s="10"/>
-      <c r="H67" s="14"/>
-    </row>
-    <row r="68" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D66" s="11">
+        <v>8</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D67" s="10">
+        <v>9</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E68" s="10"/>
       <c r="H68" s="14"/>
     </row>
-    <row r="69" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E69" s="10"/>
       <c r="H69" s="14"/>
     </row>
-    <row r="70" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E70" s="10"/>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="5:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E71" s="10"/>
       <c r="H71" s="14"/>
     </row>
-    <row r="72" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="5:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -3015,19 +2912,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E79:E1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59:E78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E68:E78">
       <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19 E24:E58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19 E24:E67">
       <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E23">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C65">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G23 G37:G62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G23 G37:G67">
       <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G24:G36">
@@ -3047,9 +2944,9 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3150,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -3277,11 +3174,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3312,10 +3209,10 @@
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -3324,11 +3221,11 @@
         <v>24</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="12"/>
       <c r="L10" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3339,7 +3236,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -3363,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -3378,7 +3275,7 @@
         <v>45</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3389,7 +3286,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -3404,7 +3301,7 @@
         <v>45</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3433,13 +3330,13 @@
     </row>
     <row r="19" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -3448,11 +3345,11 @@
         <v>24</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="12"/>
       <c r="L19" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3463,7 +3360,7 @@
         <v>24</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -3487,7 +3384,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -3502,7 +3399,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3513,7 +3410,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="12"/>
     </row>
@@ -3528,7 +3425,7 @@
         <v>45</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3539,7 +3436,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H26" s="12"/>
     </row>
@@ -3554,7 +3451,7 @@
         <v>45</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3565,7 +3462,7 @@
         <v>24</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" s="12"/>
     </row>
@@ -3577,7 +3474,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" s="12"/>
     </row>
@@ -3589,7 +3486,7 @@
         <v>24</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" s="12"/>
     </row>
@@ -3601,7 +3498,7 @@
         <v>44</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="12"/>
     </row>
@@ -3613,7 +3510,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="12"/>
     </row>
@@ -3628,7 +3525,7 @@
         <v>45</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3639,7 +3536,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="12"/>
     </row>
@@ -3651,7 +3548,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H35" s="12"/>
     </row>
@@ -3681,13 +3578,13 @@
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="10">
         <v>1</v>
@@ -3696,11 +3593,11 @@
         <v>24</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H38" s="12"/>
       <c r="L38" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3711,7 +3608,7 @@
         <v>24</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" s="14"/>
     </row>
@@ -3723,7 +3620,7 @@
         <v>24</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="14"/>
     </row>
@@ -3736,7 +3633,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="14"/>
     </row>
@@ -3752,7 +3649,7 @@
         <v>45</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3763,7 +3660,7 @@
         <v>24</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H43" s="14"/>
     </row>
@@ -3782,13 +3679,13 @@
     </row>
     <row r="45" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="10">
         <v>1</v>
@@ -3797,11 +3694,11 @@
         <v>24</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H45" s="12"/>
       <c r="L45" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3813,7 +3710,7 @@
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H46" s="14"/>
     </row>
@@ -3839,7 +3736,7 @@
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3854,7 +3751,7 @@
         <v>45</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3866,7 +3763,7 @@
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H50" s="12"/>
     </row>
@@ -3879,7 +3776,7 @@
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H51" s="12"/>
     </row>
@@ -3892,7 +3789,7 @@
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="H52" s="12"/>
     </row>
@@ -3923,13 +3820,13 @@
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="10">
         <v>1</v>
@@ -3939,11 +3836,11 @@
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H55" s="14"/>
       <c r="L55" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3957,7 +3854,7 @@
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H56" s="14"/>
     </row>
@@ -3971,22 +3868,22 @@
         <v>26</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="10">
         <v>1</v>
@@ -3996,11 +3893,11 @@
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H58" s="12"/>
       <c r="L58" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -4012,52 +3909,52 @@
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D60" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D61" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D62" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D63" s="10" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>24</v>
@@ -4070,19 +3967,19 @@
     </row>
     <row r="64" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D64" s="10" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D65" s="11" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>24</v>
@@ -4094,7 +3991,7 @@
     </row>
     <row r="66" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D66" s="10" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>26</v>
@@ -4107,13 +4004,13 @@
     </row>
     <row r="67" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -4123,11 +4020,11 @@
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H67" s="14"/>
       <c r="L67" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -4139,7 +4036,7 @@
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -4154,7 +4051,7 @@
         <v>45</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -4166,7 +4063,7 @@
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -4181,7 +4078,7 @@
         <v>45</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -4192,7 +4089,7 @@
         <v>24</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H72" s="14"/>
     </row>
@@ -4204,7 +4101,7 @@
         <v>44</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -4216,7 +4113,7 @@
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -4342,15 +4239,15 @@
     <dataValidation allowBlank="1" showInputMessage="1" sqref="G5:G6"/>
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E76:E1048576"/>
     <dataValidation showInputMessage="1" sqref="G2:G4"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E37 E41:E75">
+      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G7:G75">
       <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C67">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E75 E7:E37">
-      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="888" windowWidth="23256" windowHeight="11436" activeTab="1"/>
+    <workbookView xWindow="276" yWindow="1008" windowWidth="23256" windowHeight="11316"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
-    <sheet name="hap-sy" sheetId="9" r:id="rId2"/>
-    <sheet name="hap-pub" sheetId="12" r:id="rId3"/>
+    <sheet name="pre" sheetId="9" r:id="rId2"/>
+    <sheet name="prod" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="百度搜索页面" localSheetId="2">#REF!</definedName>
@@ -29,11 +30,12 @@
     <definedName name="页面">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="226">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,220 +292,615 @@
     <t>输入框#角色名称</t>
   </si>
   <si>
+    <t>输入框#设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备位号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#设备类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>pub_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>子表按钮#添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#报废年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>输入框#设备状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类别新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#设备类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业岗位新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#工业岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#岗位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#岗位权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项值#本部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能位置新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#功能位置(区域)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能位置子表新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业岗位子表新增人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表按钮#批量添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#位置编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#位置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;位置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#所属单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备子页签技术参数新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表条目统计#全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;岗位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;设备类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#成功上传更新9条数据!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
+  </si>
+  <si>
+    <t>魏永优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPPET</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>用例片段</t>
+  </si>
+  <si>
+    <t>列表数据#设备</t>
+  </si>
+  <si>
+    <t>列表字段值#&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表数据#&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表条目统计#全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门查询-按组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按组织名称查询数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选按钮#是否启用#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#所属模块#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端权限配置保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#PC端权限配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限配置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色树#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#保存权限成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框按钮#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000&lt;_组织编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phd_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐患任务新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#隐患</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#隐患图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件导入</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#隐患所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项值#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#所属区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#隐患描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;隐患描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#发现时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+  </si>
+  <si>
+    <t>小时加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#保存成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phd_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐患任务审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#送交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批控件</t>
+  </si>
+  <si>
+    <t>按钮#确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#隐患确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项值#13671060124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13671060124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_sn_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_sn_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_sn_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#&lt;查询字段&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;查询内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表字段值#&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>url#http://v3-yfb-portal.hd-cloud.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#设备位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#设备类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN</t>
-  </si>
-  <si>
-    <t>pub_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUB</t>
-  </si>
-  <si>
-    <t>子表按钮#添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#参数名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#参数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#报废年限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新</t>
-  </si>
-  <si>
-    <t>输入框#设备状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表按钮#保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类别新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#设备类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业岗位新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#工业岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#岗位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#岗位权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项值#本部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能位置新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#功能位置(区域)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能位置子表新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业岗位子表新增人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表按钮#批量添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#位置编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#位置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;位置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#所属单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备子页签技术参数新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表条目统计#全部 1 条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;岗位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_组织编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;设备类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_005</t>
+    <t>url#http://p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,209 +908,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#保存返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传文件</t>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#成功上传更新9条数据!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏永优</t>
-  </si>
-  <si>
-    <t>魏永优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏永优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏永优</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPPET</t>
-  </si>
-  <si>
-    <t>执行</t>
-  </si>
-  <si>
-    <t>用例片段</t>
-  </si>
-  <si>
-    <t>列表数据#设备</t>
-  </si>
-  <si>
-    <t>列表字段值#&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表数据#&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话框#是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#删除成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询输入框#组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表条目统计#全部 1 条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门查询-按组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按组织名称查询数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snt_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snt_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选按钮#是否启用#是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选按钮#所属模块#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端权限配置保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#PC端权限配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限配置页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色树#2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#系统管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#保存权限成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_007</t>
+    <t>&lt;类型&gt;=文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;类型&gt;=文本框实际，查询字段=组织名称，查询内容=&lt;_组织编码&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +924,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +965,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -793,7 +1006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -827,11 +1040,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -864,6 +1090,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1175,30 +1408,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD18"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="35.6640625" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1252,7 +1485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -1270,7 +1503,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -1281,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1305,7 +1538,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1328,10 +1561,10 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1383,7 +1616,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1408,11 +1641,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1423,7 +1656,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -1438,247 +1671,210 @@
         <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="21">
+        <v>4</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="21">
+        <v>5</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="21">
+        <v>6</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="21">
         <v>1</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="L10" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D11" s="11">
+      <c r="E14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="21">
         <v>2</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D12" s="10">
+      <c r="E15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D16" s="21">
         <v>3</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D13" s="11">
+      <c r="E16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="21">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D14" s="10">
+      <c r="E17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="21">
         <v>5</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D15" s="11">
-        <v>6</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D16" s="10">
-        <v>7</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D17" s="11">
-        <v>8</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D18" s="10">
-        <v>9</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="4:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E9 E19:E1048576">
-      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F9 F19:F1048576">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F9 F19:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F18">
       <formula1>"通用,列表页,卡片页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G9 G19:G1048576">
-      <formula1>"菜单#,按钮#,子表按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,对话框#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C18">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G10:G18">
-      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G1048576">
+      <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E18">
-      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
+      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1688,12 +1884,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1979,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -1794,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1921,11 +2117,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1954,269 +2150,269 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="L10" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="21">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="21">
+        <v>3</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="21">
+        <v>4</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="21">
+        <v>5</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D15" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="E15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="L10" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D12" s="10">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D13" s="10">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D14" s="10">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D15" s="10">
-        <v>6</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>112</v>
+      <c r="H15" s="12"/>
+      <c r="L15" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D16" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D17" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>113</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D19" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="D20" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="L20" s="10" t="s">
-        <v>134</v>
+        <v>45</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D23" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D24" s="10">
+        <v>10</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="L25" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="L24" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D25" s="10">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D26" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D27" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D28" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H28" s="12"/>
     </row>
@@ -2225,19 +2421,19 @@
         <v>53</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="H29" s="12"/>
     </row>
@@ -2249,7 +2445,7 @@
         <v>26</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H30" s="12"/>
     </row>
@@ -2261,32 +2457,32 @@
         <v>26</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="H32" s="12"/>
       <c r="L32" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2297,7 +2493,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H33" s="12"/>
     </row>
@@ -2309,7 +2505,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H34" s="12"/>
     </row>
@@ -2321,7 +2517,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H35" s="12"/>
     </row>
@@ -2333,13 +2529,13 @@
         <v>26</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>49</v>
@@ -2355,7 +2551,7 @@
       </c>
       <c r="H37" s="12"/>
       <c r="L37" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2405,7 +2601,7 @@
         <v>45</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2431,7 +2627,7 @@
         <v>45</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2510,7 +2706,7 @@
     </row>
     <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>54</v>
@@ -2526,7 +2722,7 @@
       </c>
       <c r="H50" s="12"/>
       <c r="L50" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2576,7 +2772,7 @@
         <v>45</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2602,7 +2798,7 @@
         <v>45</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2631,10 +2827,10 @@
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -2645,11 +2841,11 @@
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H59" s="12"/>
       <c r="L59" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2661,7 +2857,7 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H60" s="14"/>
     </row>
@@ -2674,7 +2870,7 @@
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H61" s="14"/>
     </row>
@@ -2686,10 +2882,10 @@
         <v>24</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H62" s="14"/>
     </row>
@@ -2701,10 +2897,10 @@
         <v>24</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H63" s="14"/>
     </row>
@@ -2717,11 +2913,11 @@
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D65" s="10">
         <v>7</v>
       </c>
@@ -2730,11 +2926,11 @@
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H65" s="14"/>
     </row>
-    <row r="66" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D66" s="11">
         <v>8</v>
       </c>
@@ -2742,13 +2938,13 @@
         <v>24</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D67" s="10">
         <v>9</v>
       </c>
@@ -2757,181 +2953,944 @@
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E68" s="10"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="69" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E69" s="10"/>
-      <c r="H69" s="14"/>
-    </row>
-    <row r="70" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E70" s="10"/>
-      <c r="H70" s="14"/>
-    </row>
-    <row r="71" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E71" s="10"/>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="4:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E115" s="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A68" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="L68" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D69" s="10">
+        <v>2</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D70" s="10">
+        <v>3</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D71" s="10">
+        <v>4</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D72" s="10">
+        <v>5</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D73" s="10">
+        <v>6</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D74" s="10">
+        <v>7</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D75" s="10">
+        <v>8</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D76" s="10">
+        <v>9</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A77" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="L77" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D78" s="10">
+        <v>2</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D79" s="10">
+        <v>3</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D80" s="10">
+        <v>4</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D81" s="10">
+        <v>5</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D82" s="10">
+        <v>6</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D83" s="10">
+        <v>7</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D84" s="10">
+        <v>8</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D85" s="10">
+        <v>9</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D86" s="10">
+        <v>10</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D87" s="10">
+        <v>11</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D88" s="10">
+        <v>12</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D89" s="10">
+        <v>13</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D90" s="10">
+        <v>14</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D91" s="10">
+        <v>15</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D92" s="10">
+        <v>16</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D93" s="10">
+        <v>17</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D94" s="10">
+        <v>18</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D95" s="10">
+        <v>19</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A96" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="10">
+        <v>1</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H96" s="12"/>
+      <c r="L96" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D97" s="11">
+        <v>2</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D98" s="10">
+        <v>3</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D99" s="11">
+        <v>4</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D100" s="10">
+        <v>5</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D101" s="11">
+        <v>6</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D102" s="10">
+        <v>7</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A103" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D103" s="10">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" s="12"/>
+      <c r="L103" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D104" s="11">
+        <v>2</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H104" s="14"/>
+    </row>
+    <row r="105" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D105" s="10">
+        <v>3</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" s="14"/>
+    </row>
+    <row r="106" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D106" s="11">
+        <v>4</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D107" s="10">
+        <v>5</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D108" s="11">
+        <v>6</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D109" s="10">
+        <v>7</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H109" s="12"/>
+    </row>
+    <row r="110" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D110" s="11">
+        <v>8</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H110" s="12"/>
+    </row>
+    <row r="111" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D111" s="10">
+        <v>9</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="14"/>
+    </row>
+    <row r="112" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D112" s="11">
+        <v>10</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H112" s="14"/>
+    </row>
+    <row r="113" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A113" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" s="10">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H113" s="14"/>
+      <c r="L113" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="D114" s="10">
+        <v>2</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H114" s="14"/>
+    </row>
+    <row r="115" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="D115" s="10">
+        <v>3</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H115" s="14"/>
+    </row>
+    <row r="116" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A116" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" s="10">
+        <v>1</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H116" s="12"/>
+      <c r="L116" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D117" s="11">
+        <v>2</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H117" s="14"/>
+    </row>
+    <row r="118" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D118" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H118" s="14"/>
+    </row>
+    <row r="119" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D119" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H119" s="14"/>
+    </row>
+    <row r="120" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D120" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H120" s="14"/>
+    </row>
+    <row r="121" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D121" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H121" s="14"/>
+    </row>
+    <row r="122" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D122" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D123" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H123" s="14"/>
+    </row>
+    <row r="124" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D124" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H124" s="14"/>
+    </row>
+    <row r="125" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A125" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D125" s="11">
+        <v>1</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H125" s="14"/>
+      <c r="L125" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D126" s="11">
+        <v>2</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D127" s="11">
+        <v>3</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D128" s="11">
+        <v>4</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D129" s="11">
+        <v>5</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D130" s="11">
+        <v>6</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H130" s="14"/>
+    </row>
+    <row r="131" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D131" s="11">
+        <v>7</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D132" s="11">
+        <v>8</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="11"/>
+      <c r="G132" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D133" s="11">
+        <v>9</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="8">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E79:E1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E68:E78">
-      <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E19 E24:E67">
-      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E23">
-      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C65">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68:C125 C2:C65">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G23 G37:G67">
-      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F14 F29:F36">
+      <formula1>"通用,列表页,卡片页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G24:G36">
-      <formula1>"菜单#,按钮#,子表按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,对话框#"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G1048576">
+      <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F24:F36">
-      <formula1>"通用,列表页,卡片页,用例片段"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
+      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2941,12 +3900,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3036,7 +3995,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -3047,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -3149,7 +4108,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -3174,11 +4133,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3189,7 +4148,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -3204,15 +4163,18 @@
         <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>88</v>
+        <v>149</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -3221,11 +4183,11 @@
         <v>24</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H10" s="12"/>
       <c r="L10" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3236,7 +4198,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -3248,7 +4210,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -3257,972 +4219,1679 @@
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D14" s="10">
         <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>117</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="D15" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H15" s="12"/>
+      <c r="L15" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D16" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>116</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D17" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D19" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="L19" s="10" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D20" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D23" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>118</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D24" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="D25" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>116</v>
+        <v>38</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="L25" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D26" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D27" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D28" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="D29" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>24</v>
+        <v>138</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D30" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D31" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="D32" s="10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>24</v>
+        <v>138</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="H32" s="12"/>
+      <c r="L32" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D33" s="10">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>84</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D34" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D35" s="10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D36" s="10">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="L37" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D39" s="10">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D40" s="10">
+        <v>4</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D41" s="10">
+        <v>5</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D42" s="10">
+        <v>6</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D43" s="10">
+        <v>7</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D44" s="10">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D45" s="10">
+        <v>9</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D46" s="10">
+        <v>10</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D47" s="10">
+        <v>11</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D48" s="10">
+        <v>12</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D37" s="10">
-        <v>19</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D49" s="10">
+        <v>13</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G49" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="10" t="s">
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A50" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="L50" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D51" s="10">
+        <v>2</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D53" s="10">
+        <v>4</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D54" s="10">
+        <v>5</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="10">
+    </row>
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D55" s="10">
+        <v>6</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D56" s="10">
+        <v>7</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D57" s="10">
+        <v>8</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D58" s="10">
+        <v>9</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A59" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10">
         <v>1</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="L38" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D39" s="11">
-        <v>2</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D40" s="10">
-        <v>3</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D41" s="11">
-        <v>4</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D42" s="10">
-        <v>5</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D43" s="11">
-        <v>6</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D44" s="10">
-        <v>7</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="L45" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D46" s="11">
-        <v>2</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D47" s="10">
-        <v>3</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D48" s="11">
-        <v>4</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D49" s="10">
-        <v>5</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D50" s="11">
-        <v>6</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D51" s="10">
-        <v>7</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D52" s="11">
-        <v>8</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D53" s="10">
-        <v>9</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D54" s="11">
-        <v>10</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="10">
-        <v>1</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H55" s="14"/>
-      <c r="L55" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="D56" s="10">
-        <v>2</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="D57" s="10">
-        <v>3</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="10">
-        <v>1</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="L58" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D59" s="11">
-        <v>2</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="14"/>
+        <v>165</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="L59" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="60" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D60" s="11" t="s">
-        <v>122</v>
+      <c r="D60" s="11">
+        <v>2</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D61" s="11" t="s">
-        <v>123</v>
+      <c r="D61" s="10">
+        <v>3</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H61" s="14"/>
     </row>
     <row r="62" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D62" s="11" t="s">
-        <v>124</v>
+      <c r="D62" s="11">
+        <v>4</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="G62" s="10" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="H62" s="14"/>
     </row>
     <row r="63" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D63" s="10" t="s">
-        <v>160</v>
+      <c r="D63" s="10">
+        <v>5</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="G63" s="10" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="H63" s="14"/>
     </row>
     <row r="64" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D64" s="10" t="s">
-        <v>161</v>
+      <c r="D64" s="11">
+        <v>6</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>165</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10">
+        <v>7</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D66" s="11">
+        <v>8</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D66" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="10"/>
       <c r="G66" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="11">
-        <v>1</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D67" s="10">
+        <v>9</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A68" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="L68" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D69" s="10">
+        <v>2</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D70" s="10">
+        <v>3</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D71" s="10">
+        <v>4</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D72" s="10">
+        <v>5</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D73" s="10">
+        <v>6</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D74" s="10">
+        <v>7</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D75" s="10">
+        <v>8</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D76" s="10">
+        <v>9</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A77" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="L77" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D78" s="10">
+        <v>2</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D79" s="10">
+        <v>3</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D80" s="10">
+        <v>4</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D81" s="10">
+        <v>5</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D82" s="10">
+        <v>6</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D83" s="10">
+        <v>7</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D84" s="10">
+        <v>8</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D85" s="10">
+        <v>9</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D86" s="10">
+        <v>10</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D87" s="10">
+        <v>11</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D88" s="10">
+        <v>12</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D89" s="10">
+        <v>13</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D90" s="10">
+        <v>14</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D91" s="10">
+        <v>15</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D92" s="10">
+        <v>16</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D93" s="10">
+        <v>17</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D94" s="10">
+        <v>18</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D95" s="10">
+        <v>19</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A96" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="10">
+        <v>1</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H96" s="12"/>
+      <c r="L96" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D97" s="11">
+        <v>2</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D98" s="10">
+        <v>3</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D99" s="11">
+        <v>4</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H67" s="14"/>
-      <c r="L67" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D68" s="11">
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D100" s="10">
+        <v>5</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D101" s="11">
+        <v>6</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D102" s="10">
+        <v>7</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A103" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D103" s="10">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" s="12"/>
+      <c r="L103" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D104" s="11">
         <v>2</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10" t="s">
+      <c r="E104" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H104" s="14"/>
+    </row>
+    <row r="105" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D105" s="10">
+        <v>3</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" s="14"/>
+    </row>
+    <row r="106" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D106" s="11">
+        <v>4</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D107" s="10">
+        <v>5</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D108" s="11">
+        <v>6</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D109" s="10">
+        <v>7</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H109" s="12"/>
+    </row>
+    <row r="110" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D110" s="11">
+        <v>8</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H110" s="12"/>
+    </row>
+    <row r="111" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D111" s="10">
+        <v>9</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="14"/>
+    </row>
+    <row r="112" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D112" s="11">
+        <v>10</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H112" s="14"/>
+    </row>
+    <row r="113" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A113" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" s="10">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H113" s="14"/>
+      <c r="L113" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="D114" s="10">
+        <v>2</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H114" s="14"/>
+    </row>
+    <row r="115" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="D115" s="10">
+        <v>3</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H115" s="14"/>
+    </row>
+    <row r="116" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A116" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D116" s="10">
+        <v>1</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H116" s="12"/>
+      <c r="L116" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D117" s="11">
+        <v>2</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H117" s="14"/>
+    </row>
+    <row r="118" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D118" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H118" s="14"/>
+    </row>
+    <row r="119" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D119" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H119" s="14"/>
+    </row>
+    <row r="120" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D120" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H120" s="14"/>
+    </row>
+    <row r="121" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D121" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H121" s="14"/>
+    </row>
+    <row r="122" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D122" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D123" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H123" s="14"/>
+    </row>
+    <row r="124" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D124" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H124" s="14"/>
+    </row>
+    <row r="125" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A125" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D125" s="11">
+        <v>1</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H125" s="14"/>
+      <c r="L125" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D126" s="11">
+        <v>2</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D127" s="11">
+        <v>3</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D128" s="11">
+        <v>4</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D129" s="11">
+        <v>5</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D69" s="11">
-        <v>3</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D70" s="11">
-        <v>4</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10" t="s">
+    <row r="130" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D130" s="11">
+        <v>6</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D71" s="11">
-        <v>5</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D72" s="11">
-        <v>6</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="73" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D73" s="11">
+      <c r="H130" s="14"/>
+    </row>
+    <row r="131" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D131" s="11">
         <v>7</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E131" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D74" s="11">
+      <c r="G131" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D132" s="11">
         <v>8</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D75" s="11">
+      <c r="E132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="11"/>
+      <c r="G132" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D133" s="11">
         <v>9</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E133" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10" t="s">
+      <c r="F133" s="10"/>
+      <c r="G133" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="5:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E107" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4230,22 +5899,601 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
       <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38:E40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E96:E98">
       <formula1>"打开,检查,输入,点击,#检查,执行,移动到"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
       <formula1>"BASE,SETUP,SNIPPET,MAIN,SUB,SKIP"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G5:G6"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E76:E1048576"/>
-    <dataValidation showInputMessage="1" sqref="G2:G4"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E37 E41:E75">
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1 E134:E1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E99:E133 E7:E24 E29:E95">
       <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G7:G75">
-      <formula1>"菜单#,按钮#,子表按钮#,输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68:C125 C7:C28 C29:C65">
+      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G28 G29:G1048576">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,对话框按钮#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25:E28">
+      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F29:F36 F10:F14">
+      <formula1>"通用,列表页,卡片页,用例片段"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="L6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D8" s="9">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="L9" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="11">
+        <v>6</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="10">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D16" s="11">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="10">
+        <v>9</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="11">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="10">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D20" s="11">
+        <v>12</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D21" s="10">
+        <v>13</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="D22" s="11">
+        <v>14</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D23" s="10">
+        <v>15</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D24" s="11">
+        <v>16</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D25" s="11">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10">
+        <v>3</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11">
+        <v>4</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10">
+        <v>5</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11">
+        <v>6</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10">
+        <v>7</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F32">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E32">
+      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G32">
+      <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C15 C17 C26:C32">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
   </dataValidations>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -34,8 +34,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+传入3个参数：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+&lt;类型&gt;=文本框，
+&lt;查询字段&gt;=组织名称，&lt;查询内容&gt;=研发部</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="231">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,15 +942,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>^3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;类型&gt;=文本框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;类型&gt;=文本框实际，查询字段=组织名称，查询内容=&lt;_组织编码&gt;</t>
+    <t>^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;类型&gt;=选择框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;类型&gt;=下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;类型&gt;=日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;类型&gt;=文本框，&lt;查询字段&gt;=组织名称，&lt;查询内容&gt;=&lt;_组织编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需传入三个参数&lt;类型&gt;=文本框\选择框\下拉框\日期时间，&lt;查询字段&gt;=组织名称，&lt;查询内容&gt;=研发部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +982,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +1036,21 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1407,13 +1480,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1684,34 +1757,34 @@
       <c r="C10" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>223</v>
+      <c r="D10" s="21">
+        <v>1</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="22"/>
+      <c r="P10" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="21" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D11" s="21">
-        <v>4</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="H11" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="12" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D12" s="21">
-        <v>5</v>
+      <c r="D12" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>20</v>
@@ -1724,106 +1797,121 @@
       </c>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D13" s="21">
-        <v>6</v>
-      </c>
       <c r="E13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D16" s="21">
+        <v>4</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D17" s="21">
         <v>1</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
+      <c r="E17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D15" s="21">
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
+      <c r="E18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D16" s="21">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="21">
         <v>3</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="21">
+      <c r="H19" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="21">
         <v>4</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="21">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="21">
         <v>5</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
@@ -1857,17 +1945,26 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F9 F19:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F9 F22:F1048576">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F21">
       <formula1>"通用,列表页,卡片页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G1048576">
@@ -1879,6 +1976,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1008" windowWidth="23256" windowHeight="11316"/>
+    <workbookView xWindow="276" yWindow="1128" windowWidth="23256" windowHeight="11196" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -40,6 +40,46 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>传入三个参数：类型=文本框\下拉框，查询字段=组织名称，查询内容=研发部</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>传入三个参数：类型=文本框\下拉框，查询字段=组织名称，查询内容=研发部</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="A10" authorId="0">
       <text>
         <r>
@@ -51,20 +91,37 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
-传入3个参数：</t>
+          <t>传入三个参数：类型=文本框\下拉框，字段=组织名称，内容=研发部</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-&lt;类型&gt;=文本框，
-&lt;查询字段&gt;=组织名称，&lt;查询内容&gt;=研发部</t>
+          <t>传入三个参数：类型=文本框\下拉框，查询字段=组织名称，查询内容=研发部</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>传入三个参数：类型=文本\大文本\下拉项\选择项\附件\日期，字段=组织名称，内容=研发部</t>
         </r>
       </text>
     </comment>
@@ -73,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="264">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,119 +650,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>按钮#查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPPET</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>用例片段</t>
+  </si>
+  <si>
+    <t>列表数据#设备</t>
+  </si>
+  <si>
+    <t>列表字段值#&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表数据#&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表条目统计#全部 1 条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门查询-按组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按组织名称查询数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选按钮#是否启用#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#所属模块#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端权限配置保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#PC端权限配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限配置页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色树#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#保存权限成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框按钮#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000&lt;_组织编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;_组织编码&gt;组织名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按钮#查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPPET</t>
-  </si>
-  <si>
-    <t>执行</t>
-  </si>
-  <si>
-    <t>用例片段</t>
-  </si>
-  <si>
-    <t>列表数据#设备</t>
-  </si>
-  <si>
-    <t>列表字段值#&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表数据#&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#删除成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询输入框#组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表条目统计#全部 1 条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门查询-按组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按组织名称查询数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选按钮#是否启用#是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选按钮#所属模块#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端权限配置保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#PC端权限配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限配置页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色树#2</t>
+    <t>url#http://p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://p.51gxc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phd_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐患任务新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#隐患</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#隐患任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#隐患图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件导入</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#隐患所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项值#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#所属区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#隐患描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;_普通编码&gt;隐患描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#发现时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+  </si>
+  <si>
+    <t>小时加按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -713,31 +904,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单#系统管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#保存权限成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话框按钮#是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000&lt;_组织编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_组织编码&gt;组织名称</t>
+    <t>提示#保存成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phd_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐患任务审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#送交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批控件</t>
+  </si>
+  <si>
+    <t>按钮#确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#隐患确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项值#13671060124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13671060124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_sn_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy_sn_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -745,232 +963,196 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url#http://p.51gxc.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*p.51gxc.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#http://p.51gxc.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phd_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐患任务新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#隐患</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#隐患任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#隐患图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件导入</t>
-  </si>
-  <si>
-    <t>1.jpg</t>
+    <t>列表查询数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片页面中字段输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询输入框#&lt;字段&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项值#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#&lt;字段&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项值#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项值#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>附件控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#隐患所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项值#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#所属区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#隐患描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;_普通编码&gt;隐患描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#发现时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-  </si>
-  <si>
-    <t>小时加按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#保存成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phd_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐患任务审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#送交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批控件</t>
-  </si>
-  <si>
-    <t>按钮#确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#隐患确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择项值#13671060124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13671060124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_sn_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_sn_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy_sn_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询输入框#&lt;查询字段&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;查询内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表字段值#&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#http://p.51gxc.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*p.51gxc.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表查询数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;类型&gt;=文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;类型&gt;=选择框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;类型&gt;=下拉框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;类型&gt;=日期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;类型&gt;=文本框，&lt;查询字段&gt;=组织名称，&lt;查询内容&gt;=&lt;_组织编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需传入三个参数&lt;类型&gt;=文本框\选择框\下拉框\日期时间，&lt;查询字段&gt;=组织名称，&lt;查询内容&gt;=研发部</t>
+  </si>
+  <si>
+    <t>^8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=附件，字段=隐患图片，内容=1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本</t>
+  </si>
+  <si>
+    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
+  </si>
+  <si>
+    <t>传入三个参数：类型=文本\下拉项，字段=组织名称，内容=研发部</t>
+  </si>
+  <si>
+    <t>类型=下拉项</t>
+  </si>
+  <si>
+    <t>类型=选择项</t>
+  </si>
+  <si>
+    <t>类型=选择项，字段=所属区域，内容=&lt;_phd_所属区域&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=日期，字段=发现时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐患任务送交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=大文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文本输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=大文本，字段=隐患描述，内容=&lt;_普通编码&gt;隐患描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入三个参数：类型=文本\大文本\下拉项\选择项\附件\日期，字段=组织名称，内容=研发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>传入三个参数：类型=文本\大文本\下拉项\选择项\附件\日期，字段=组织名称，内容=研发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择项值#&lt;_审批人&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +1164,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,13 +1218,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1481,12 +1656,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1673,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" style="15" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
@@ -1576,7 +1751,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -1611,7 +1786,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1637,7 +1812,7 @@
         <v>84</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1674,297 +1849,345 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7" t="s">
+    <row r="6" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="L6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A8" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="P8" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D9" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="L7" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D8" s="9">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>219</v>
+      <c r="F9" s="10"/>
+      <c r="H9" s="22" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="P10" s="21" t="s">
-        <v>230</v>
+      <c r="D10" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D11" s="21" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>26</v>
       </c>
+      <c r="F11" s="10"/>
       <c r="H11" s="22" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D12" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>45</v>
+      <c r="F12" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="21" t="s">
+        <v>255</v>
+      </c>
       <c r="E13" s="21" t="s">
         <v>26</v>
       </c>
+      <c r="F13" s="10"/>
       <c r="H13" s="22" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="21" t="s">
+        <v>256</v>
+      </c>
       <c r="E14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D16" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E15" s="21" t="s">
+      <c r="F16" s="10"/>
+      <c r="H16" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D16" s="21">
+      <c r="F18" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D20" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="H20" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D21" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="L22" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11">
         <v>4</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="21">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D18" s="21">
-        <v>2</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D19" s="21">
-        <v>3</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="21">
-        <v>4</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="21">
-        <v>5</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F9 F22:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F26:F1048576 F1:F21">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F25">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F21">
-      <formula1>"通用,列表页,卡片页,用例片段"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G1048576">
@@ -1981,13 +2204,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1995,17 +2218,17 @@
     <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
     <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="36.88671875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2077,7 +2300,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -2250,13 +2473,13 @@
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="21" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="21">
         <v>1</v>
@@ -2265,629 +2488,661 @@
         <v>24</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="L10" s="21" t="s">
+      <c r="P10" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="21">
+        <v>6</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A16" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="L16" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D11" s="21">
-        <v>2</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D12" s="21">
-        <v>3</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D13" s="21">
-        <v>4</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="P16" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="H17" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="F18" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D14" s="21">
-        <v>5</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="L15" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D17" s="10">
-        <v>3</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D18" s="10">
-        <v>4</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D19" s="10">
-        <v>5</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D20" s="10">
-        <v>6</v>
+      <c r="H18" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="H19" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D20" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="F20" s="10" t="s">
+        <v>261</v>
+      </c>
       <c r="G20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D21" s="10">
-        <v>7</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D22" s="10">
-        <v>8</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D23" s="10">
-        <v>9</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>24</v>
+        <v>252</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D21" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="H21" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D22" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D23" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>237</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D24" s="10">
-        <v>10</v>
-      </c>
-      <c r="E24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D24" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="F24" s="10"/>
+      <c r="H24" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D25" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D26" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D27" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D28" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="H28" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D29" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="10">
         <v>1</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="E30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="L25" s="10" t="s">
+      <c r="H30" s="12"/>
+      <c r="L30" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D26" s="10">
-        <v>2</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D27" s="10">
-        <v>3</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D28" s="10">
-        <v>4</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D30" s="10">
-        <v>2</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D32" s="10">
         <v>3</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
       <c r="E32" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="H32" s="12"/>
-      <c r="L32" s="10" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D33" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D34" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D35" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D36" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="D37" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="L37" s="10" t="s">
-        <v>130</v>
+        <v>46</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D38" s="10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D39" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="D40" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H40" s="12"/>
+      <c r="L40" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="41" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D41" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>190</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D42" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="43" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D43" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>111</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="D44" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>24</v>
+        <v>137</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H44" s="12"/>
+        <v>219</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="45" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D45" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D46" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="D47" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>20</v>
+        <v>137</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>51</v>
+        <v>244</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D48" s="10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D49" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="D50" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="H50" s="12"/>
-      <c r="L50" s="10" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D51" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="D52" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H52" s="12"/>
+      <c r="L52" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="53" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D53" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D54" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>108</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D55" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D56" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>20</v>
@@ -2896,1093 +3151,1513 @@
         <v>45</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D57" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D58" s="10">
+        <v>7</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D59" s="10">
+        <v>8</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D60" s="10">
         <v>9</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E60" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D61" s="10">
+        <v>10</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D62" s="10">
+        <v>11</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D63" s="10">
+        <v>12</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D64" s="10">
+        <v>13</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G64" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10">
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A65" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="10">
         <v>1</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="L59" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D60" s="11">
+      <c r="E65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="L65" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D66" s="10">
         <v>2</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D61" s="10">
+      <c r="E66" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D67" s="10">
         <v>3</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D62" s="11">
+      <c r="E67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D68" s="10">
         <v>4</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H62" s="14"/>
-    </row>
-    <row r="63" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D63" s="10">
-        <v>5</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H63" s="14"/>
-    </row>
-    <row r="64" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D64" s="11">
-        <v>6</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="65" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D65" s="10">
-        <v>7</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D66" s="11">
-        <v>8</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D67" s="10">
-        <v>9</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
       <c r="E68" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H68" s="12"/>
-      <c r="L68" s="10" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="69" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D69" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H69" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="70" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D70" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D71" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H71" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="72" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D72" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>113</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D73" s="10">
+        <v>9</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A74" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10">
+        <v>1</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="L74" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D75" s="11">
+        <v>2</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D76" s="10">
+        <v>3</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D77" s="11">
+        <v>4</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D78" s="10">
+        <v>5</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D79" s="11">
         <v>6</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D74" s="10">
+      <c r="E79" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H79" s="14"/>
+    </row>
+    <row r="80" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D80" s="10">
         <v>7</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D75" s="10">
+      <c r="E80" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D81" s="11">
         <v>8</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H75" s="12"/>
-    </row>
-    <row r="76" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D76" s="10">
+      <c r="E81" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D82" s="10">
         <v>9</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="10">
+      <c r="E82" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A83" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="10">
         <v>1</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="10" t="s">
+      <c r="E83" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="L77" s="10" t="s">
+      <c r="H83" s="12"/>
+      <c r="L83" s="10" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D78" s="10">
-        <v>2</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H78" s="12"/>
-    </row>
-    <row r="79" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D79" s="10">
-        <v>3</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" s="12"/>
-    </row>
-    <row r="80" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D80" s="10">
-        <v>4</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H80" s="12"/>
-    </row>
-    <row r="81" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D81" s="10">
-        <v>5</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D82" s="10">
-        <v>6</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H82" s="12"/>
-    </row>
-    <row r="83" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D83" s="10">
-        <v>7</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D84" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D85" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>115</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D86" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D87" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H87" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D88" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H88" s="12"/>
     </row>
     <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D89" s="10">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H89" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D90" s="10">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H90" s="12"/>
     </row>
     <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D91" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>82</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A92" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="D92" s="10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H92" s="12"/>
+      <c r="L92" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D93" s="10">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D94" s="10">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D95" s="10">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D96" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H96" s="12"/>
-      <c r="L96" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D97" s="11">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D97" s="10">
+        <v>6</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H97" s="14"/>
-    </row>
-    <row r="98" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D98" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H98" s="14"/>
-    </row>
-    <row r="99" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D99" s="11">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D99" s="10">
+        <v>8</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F99" s="10"/>
       <c r="G99" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H99" s="14"/>
-    </row>
-    <row r="100" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="H99" s="12"/>
+    </row>
+    <row r="100" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D100" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F100" s="10"/>
       <c r="G100" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H100" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D101" s="11">
-        <v>6</v>
+      <c r="H100" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D101" s="10">
+        <v>10</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H101" s="14"/>
-    </row>
-    <row r="102" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+      <c r="H101" s="12"/>
+    </row>
+    <row r="102" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D102" s="10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E102" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H102" s="12"/>
+    </row>
+    <row r="103" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D103" s="10">
+        <v>12</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" s="12"/>
+    </row>
+    <row r="104" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D104" s="10">
+        <v>13</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H104" s="12"/>
+    </row>
+    <row r="105" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D105" s="10">
+        <v>14</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H105" s="12"/>
+    </row>
+    <row r="106" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D106" s="10">
+        <v>15</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D107" s="10">
+        <v>16</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D108" s="10">
+        <v>17</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D109" s="10">
+        <v>18</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H109" s="12"/>
+    </row>
+    <row r="110" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D110" s="10">
+        <v>19</v>
+      </c>
+      <c r="E110" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10" t="s">
+      <c r="G110" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H102" s="14"/>
-    </row>
-    <row r="103" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D103" s="10">
+      <c r="H110" s="12"/>
+    </row>
+    <row r="111" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A111" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" s="10">
         <v>1</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H103" s="12"/>
-      <c r="L103" s="10" t="s">
+      <c r="E111" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H111" s="12"/>
+      <c r="L111" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D104" s="11">
-        <v>2</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H104" s="14"/>
-    </row>
-    <row r="105" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D105" s="10">
-        <v>3</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H105" s="14"/>
-    </row>
-    <row r="106" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D106" s="11">
-        <v>4</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D107" s="10">
-        <v>5</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D108" s="11">
-        <v>6</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H108" s="12"/>
-    </row>
-    <row r="109" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D109" s="10">
-        <v>7</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H109" s="12"/>
-    </row>
-    <row r="110" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D110" s="11">
-        <v>8</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H110" s="12"/>
-    </row>
-    <row r="111" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D111" s="10">
-        <v>9</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D112" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F112" s="10"/>
+        <v>24</v>
+      </c>
       <c r="G112" s="10" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A113" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="D113" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F113" s="10"/>
       <c r="G113" s="10" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H113" s="14"/>
-      <c r="L113" s="11" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="114" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="D114" s="10">
-        <v>2</v>
+      <c r="D114" s="11">
+        <v>4</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
       <c r="D115" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D116" s="11">
+        <v>6</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D117" s="10">
+        <v>7</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H115" s="14"/>
-    </row>
-    <row r="116" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A116" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D116" s="10">
-        <v>1</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H116" s="12"/>
-      <c r="L116" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D117" s="11">
-        <v>2</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D118" s="11" t="s">
-        <v>118</v>
+    <row r="118" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A118" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D118" s="10">
+        <v>1</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" s="10"/>
+        <v>24</v>
+      </c>
       <c r="G118" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H118" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="H118" s="12"/>
+      <c r="L118" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="119" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D119" s="11" t="s">
-        <v>119</v>
+      <c r="D119" s="11">
+        <v>2</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D120" s="11" t="s">
-        <v>120</v>
+      <c r="D120" s="10">
+        <v>3</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D121" s="10" t="s">
-        <v>153</v>
+      <c r="D121" s="11">
+        <v>4</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H121" s="14"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="122" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D122" s="10" t="s">
-        <v>154</v>
+      <c r="D122" s="10">
+        <v>5</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10" t="s">
-        <v>158</v>
+        <v>45</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D123" s="11" t="s">
-        <v>155</v>
+      <c r="D123" s="11">
+        <v>6</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F123" s="10"/>
       <c r="G123" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H123" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D124" s="10" t="s">
-        <v>156</v>
+      <c r="D124" s="10">
+        <v>7</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H124" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D125" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H125" s="14"/>
-      <c r="L125" s="11" t="s">
-        <v>130</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D126" s="11">
-        <v>2</v>
+      <c r="D126" s="10">
+        <v>9</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F126" s="10"/>
       <c r="G126" s="10" t="s">
-        <v>102</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D127" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>108</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H127" s="14"/>
     </row>
     <row r="128" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D128" s="11">
-        <v>4</v>
+      <c r="A128" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D128" s="10">
+        <v>1</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="129" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D129" s="11">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="L128" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="D129" s="10">
+        <v>2</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H129" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="130" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D130" s="11">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="H129" s="14"/>
+    </row>
+    <row r="130" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="D130" s="10">
+        <v>3</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D131" s="11">
-        <v>7</v>
+    <row r="131" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A131" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" s="10">
+        <v>1</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F131" s="10"/>
       <c r="G131" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="132" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="H131" s="12"/>
+      <c r="L131" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D132" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F132" s="11"/>
+      <c r="F132" s="10"/>
       <c r="G132" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="133" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D133" s="11">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="H132" s="14"/>
+    </row>
+    <row r="133" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D133" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H133" s="14"/>
+    </row>
+    <row r="134" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D134" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H134" s="14"/>
+    </row>
+    <row r="135" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D135" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H135" s="14"/>
+    </row>
+    <row r="136" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D136" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" s="14"/>
+    </row>
+    <row r="137" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D137" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D138" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H138" s="14"/>
+    </row>
+    <row r="139" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D139" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="H139" s="14"/>
+    </row>
+    <row r="140" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A140" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D140" s="11">
+        <v>1</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H140" s="14"/>
+      <c r="L140" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D141" s="11">
+        <v>2</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D142" s="11">
+        <v>3</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D143" s="11">
+        <v>4</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D144" s="11">
+        <v>5</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D145" s="11">
+        <v>6</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H145" s="14"/>
+    </row>
+    <row r="146" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D146" s="11">
+        <v>7</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D147" s="11">
+        <v>8</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="11"/>
+      <c r="G147" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D148" s="11">
+        <v>9</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A149" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D149" s="10">
+        <v>1</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H149" s="12"/>
+      <c r="L149" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D150" s="11">
+        <v>2</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H150" s="14"/>
+    </row>
+    <row r="151" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D151" s="10">
+        <v>3</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H151" s="14"/>
+    </row>
+    <row r="152" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D152" s="11">
+        <v>4</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D153" s="10">
+        <v>5</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D154" s="11">
+        <v>6</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D155" s="10">
+        <v>7</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D156" s="11">
+        <v>8</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F156" s="20"/>
+      <c r="G156" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D157" s="10">
+        <v>9</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F157" s="20"/>
+      <c r="G157" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A158" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D158" s="10">
+        <v>1</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H158" s="12"/>
+      <c r="L158" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11">
+        <v>2</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H159" s="14"/>
+    </row>
+    <row r="160" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="10">
+        <v>3</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H160" s="14"/>
+    </row>
+    <row r="161" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11">
+        <v>4</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H161" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68:C125 C2:C65">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C83:C140 C2:C80 C155 C149:C153 C158:C161">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F14 F29:F36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F44:F51 F10:F15">
       <formula1>"通用,列表页,卡片页,用例片段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F16:F29 F149:F157">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G1048576">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
@@ -3990,9 +4665,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F158:F161">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4093,7 +4772,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -4206,7 +4885,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -4246,7 +4925,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -4261,18 +4940,18 @@
         <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -4308,7 +4987,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -4334,7 +5013,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -4418,7 +5097,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -4535,19 +5214,19 @@
         <v>53</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="G29" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H29" s="12"/>
     </row>
@@ -4559,7 +5238,7 @@
         <v>26</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="12"/>
     </row>
@@ -4577,22 +5256,22 @@
     </row>
     <row r="32" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="G32" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H32" s="12"/>
       <c r="L32" s="10" t="s">
@@ -4607,7 +5286,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H33" s="12"/>
     </row>
@@ -4619,7 +5298,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="12"/>
     </row>
@@ -4631,7 +5310,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H35" s="12"/>
     </row>
@@ -4643,13 +5322,13 @@
         <v>26</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>49</v>
@@ -4820,7 +5499,7 @@
     </row>
     <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>54</v>
@@ -4941,10 +5620,10 @@
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -4955,7 +5634,7 @@
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H59" s="12"/>
       <c r="L59" s="11" t="s">
@@ -4971,7 +5650,7 @@
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H60" s="14"/>
     </row>
@@ -4984,7 +5663,7 @@
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H61" s="14"/>
     </row>
@@ -4996,10 +5675,10 @@
         <v>24</v>
       </c>
       <c r="F62" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="H62" s="14"/>
     </row>
@@ -5011,10 +5690,10 @@
         <v>24</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H63" s="14"/>
     </row>
@@ -5027,7 +5706,7 @@
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H64" s="14"/>
     </row>
@@ -5040,7 +5719,7 @@
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H65" s="14"/>
     </row>
@@ -5052,10 +5731,10 @@
         <v>24</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -5067,7 +5746,7 @@
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -5652,7 +6331,7 @@
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H110" s="12"/>
     </row>
@@ -5731,7 +6410,7 @@
         <v>26</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>107</v>
@@ -5785,7 +6464,7 @@
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H118" s="14"/>
     </row>
@@ -5798,7 +6477,7 @@
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H119" s="14"/>
     </row>
@@ -5817,7 +6496,7 @@
     </row>
     <row r="121" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D121" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>24</v>
@@ -5830,19 +6509,19 @@
     </row>
     <row r="122" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D122" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D123" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>24</v>
@@ -5854,7 +6533,7 @@
     </row>
     <row r="124" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D124" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>26</v>
@@ -6027,10 +6706,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6053,7 +6732,7 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>25</v>
@@ -6088,7 +6767,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -6114,7 +6793,7 @@
         <v>84</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -6204,7 +6883,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H7" s="13"/>
     </row>
@@ -6222,10 +6901,10 @@
     </row>
     <row r="9" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>73</v>
@@ -6234,11 +6913,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="12"/>
       <c r="L9" s="11" t="s">
@@ -6250,11 +6929,11 @@
         <v>2</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H10" s="14"/>
     </row>
@@ -6263,11 +6942,11 @@
         <v>3</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -6276,11 +6955,11 @@
         <v>4</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H12" s="14"/>
     </row>
@@ -6289,16 +6968,16 @@
         <v>5</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -6306,13 +6985,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="H14" s="14"/>
     </row>
@@ -6321,11 +7000,11 @@
         <v>7</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H15" s="14"/>
     </row>
@@ -6334,11 +7013,11 @@
         <v>8</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -6347,11 +7026,11 @@
         <v>9</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H17" s="14"/>
     </row>
@@ -6360,11 +7039,11 @@
         <v>10</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -6373,11 +7052,11 @@
         <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -6386,11 +7065,11 @@
         <v>12</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -6399,11 +7078,11 @@
         <v>13</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H21" s="15"/>
     </row>
@@ -6412,13 +7091,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>198</v>
       </c>
       <c r="H22" s="15"/>
     </row>
@@ -6427,13 +7106,13 @@
         <v>15</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H23" s="15"/>
     </row>
@@ -6446,7 +7125,7 @@
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H24" s="15"/>
     </row>
@@ -6459,16 +7138,16 @@
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>75</v>
@@ -6477,11 +7156,11 @@
         <v>1</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H26" s="12"/>
     </row>
@@ -6493,13 +7172,13 @@
         <v>2</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H27" s="14"/>
     </row>
@@ -6515,7 +7194,7 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H28" s="14"/>
     </row>
@@ -6527,13 +7206,13 @@
         <v>4</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H29" s="14"/>
     </row>
@@ -6545,7 +7224,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -6559,7 +7238,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -6573,26 +7252,73 @@
         <v>7</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="14"/>
     </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D35" s="21"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="40" spans="1:8" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H41" s="22"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F32">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E37 E40:E41">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G37 G40:G41">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C15 C17 C26:C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C15 C17 C26:C37 C40:C41">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F33:F37 F40:F41">
+      <formula1>"通用,列表页,卡片页,用例片段"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1248" windowWidth="23256" windowHeight="11076"/>
+    <workbookView xWindow="280" yWindow="1250" windowWidth="23260" windowHeight="11080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0">
+    <comment ref="A27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="284">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -827,176 +827,373 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉选择项值#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件控件</t>
+  </si>
+  <si>
+    <t>字段输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=附件，字段=隐患图片，内容=1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本</t>
+  </si>
+  <si>
+    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
+  </si>
+  <si>
+    <t>传入三个参数：类型=文本\下拉项，字段=组织名称，内容=研发部</t>
+  </si>
+  <si>
+    <t>类型=下拉项</t>
+  </si>
+  <si>
+    <t>类型=选择项</t>
+  </si>
+  <si>
+    <t>类型=选择项，字段=所属区域，内容=&lt;_phd_所属区域&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=日期，字段=发现时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐患任务送交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=大文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文本输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=大文本，字段=隐患描述，内容=&lt;_普通编码&gt;隐患描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>url#http://192.168.6.105:7050/hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*7050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*7050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://192.168.6.105:7050/hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_org.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#成功上传更新9条数据!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#&lt;字段&gt;#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项值#&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=日期</t>
+    <t>&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选按钮#&lt;字段&gt;#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#&lt;_审批人&gt;</t>
+  </si>
+  <si>
+    <t>列表项索引#1</t>
+  </si>
+  <si>
+    <t>弹出选择页面</t>
+  </si>
+  <si>
+    <t>弹出选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#&lt;_组织编码&gt;组织名称</t>
+  </si>
+  <si>
+    <t>列表项勾选#&lt;_组织编码&gt;组织名称</t>
+  </si>
+  <si>
+    <t>弹出选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=组织编码，内容=000&lt;_组织编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=员工编号，内容=&lt;_普通编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=姓名，内容=&lt;_普通编码&gt;姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项索引#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=人员手机号，内容=&lt;_人员手机号&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入</t>
+  </si>
+  <si>
+    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phd_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal_setup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#送交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项包含#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hse_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#作业许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#作业任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=下拉项，字段=项目类型，内容=日常检修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=作业任务名称，内容=&lt;_普通编码&gt;作业任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=作业地点，内容=作业地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=选择项，字段=作业单位，内容=生产运行三车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=选择项，字段=作业位置，内容=gl-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全选按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#确定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件控件</t>
-  </si>
-  <si>
-    <t>字段输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=附件，字段=隐患图片，内容=1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本</t>
-  </si>
-  <si>
-    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
-  </si>
-  <si>
-    <t>传入三个参数：类型=文本\下拉项，字段=组织名称，内容=研发部</t>
-  </si>
-  <si>
-    <t>类型=下拉项</t>
-  </si>
-  <si>
-    <t>类型=选择项</t>
-  </si>
-  <si>
-    <t>类型=选择项，字段=所属区域，内容=&lt;_phd_所属区域&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=日期，字段=发现时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐患任务送交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=大文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大文本输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=大文本，字段=隐患描述，内容=&lt;_普通编码&gt;隐患描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
+  </si>
+  <si>
+    <t>输入框#计划开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时减按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时减1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#计划结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期减*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#保存成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>url#http://192.168.6.105:7050/hd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*7050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*7050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#http://192.168.6.105:7050/hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod3_org.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#成功上传更新9条数据!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传入三个参数：类型=文本\大文本\下拉项\选择项\附件\日期\单选\多选，字段=组织名称，内容=研发部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=多选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选按钮#&lt;字段&gt;#&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=单选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选按钮#&lt;字段&gt;#&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;5</t>
+    <t>类型=多选，字段=储罐及特殊作业分类，内容=储罐浮舱内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=单选，字段=是否承包商，内容=是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选按钮#是否承包商#是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1004,224 +1201,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列表项#&lt;_审批人&gt;</t>
-  </si>
-  <si>
-    <t>列表项索引#1</t>
-  </si>
-  <si>
-    <t>弹出选择页面</t>
-  </si>
-  <si>
-    <t>弹出选择页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项#&lt;_组织编码&gt;组织名称</t>
-  </si>
-  <si>
-    <t>列表项勾选#&lt;_组织编码&gt;组织名称</t>
-  </si>
-  <si>
-    <t>弹出选择页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项#&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传入三个参数：类型=文本\大文本\下拉项\选择项\附件\日期\单选\多选，字段=组织名称，内容=研发部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=组织编码，内容=000&lt;_组织编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=员工编号，内容=&lt;_普通编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=姓名，内容=&lt;_普通编码&gt;姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项索引#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=人员手机号，内容=&lt;_人员手机号&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板导入</t>
-  </si>
-  <si>
-    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phd_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal_setup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#送交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项包含#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hse_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#作业许可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#作业任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=下拉项，字段=项目类型，内容=日常检修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=作业任务名称，内容=&lt;_普通编码&gt;作业任务名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=作业地点，内容=作业地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=选择项，字段=作业单位，内容=生产运行三车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=选择项，字段=作业位置，内容=gl-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全选按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-  </si>
-  <si>
-    <t>输入框#计划开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时加按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时减按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时减1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#计划结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期减*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#保存成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#http://192.168.6.105:7050/hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=多选，字段=储罐及特殊作业分类，内容=储罐浮舱内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=单选，字段=是否承包商，内容=是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选按钮#是否承包商#是</t>
+    <t>&gt;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1411,12 +1431,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1458,7 +1481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1493,7 +1516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1704,32 +1727,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.44140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="35.6328125" customWidth="1"/>
+    <col min="8" max="8" width="35.453125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1779,7 +1802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -1797,7 +1820,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -1815,7 +1838,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1843,7 +1866,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1871,7 +1894,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1895,7 +1918,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1916,7 +1939,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D7" s="9">
         <v>2</v>
       </c>
@@ -1924,13 +1947,13 @@
         <v>18</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>170</v>
@@ -1938,271 +1961,268 @@
       <c r="C8" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="21"/>
+      <c r="D8" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="H8" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="L8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="P8" s="20" t="s">
+    </row>
+    <row r="9" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D9" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D9" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D10" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="H9" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D10" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="F10" s="10"/>
       <c r="H10" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D11" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="H11" s="21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D12" s="20" t="s">
-        <v>217</v>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D12" s="20">
+        <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D13" s="20" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="10"/>
       <c r="H13" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D14" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D15" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D16" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D17" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="H17" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D18" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D19" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="H19" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D20" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D21" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="H21" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D22" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D14" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="G22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D15" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="H22" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D23" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D16" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="H16" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D17" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D18" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D19" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D20" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="H20" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D21" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D22" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="H22" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D23" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>209</v>
-      </c>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D24" s="20" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="10"/>
       <c r="H24" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D25" s="20" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D25" s="20" t="s">
-        <v>219</v>
-      </c>
       <c r="E25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>197</v>
+      <c r="F25" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>122</v>
@@ -2214,25 +2234,25 @@
         <v>24</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H26" s="21"/>
       <c r="L26" s="10" t="s">
         <v>116</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>122</v>
@@ -2244,20 +2264,20 @@
         <v>24</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H27" s="21"/>
       <c r="L27" s="10" t="s">
         <v>116</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>105</v>
       </c>
@@ -2281,7 +2301,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D29" s="11">
         <v>2</v>
       </c>
@@ -2294,7 +2314,7 @@
       </c>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D30" s="10">
         <v>3</v>
       </c>
@@ -2307,7 +2327,7 @@
       </c>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D31" s="11">
         <v>4</v>
       </c>
@@ -2319,7 +2339,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D32" s="10">
         <v>5</v>
       </c>
@@ -2334,7 +2354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D33" s="11">
         <v>6</v>
       </c>
@@ -2347,7 +2367,7 @@
       </c>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D34" s="10">
         <v>7</v>
       </c>
@@ -2360,7 +2380,7 @@
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D35" s="11">
         <v>8</v>
       </c>
@@ -2373,7 +2393,7 @@
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D36" s="10">
         <v>9</v>
       </c>
@@ -2385,7 +2405,7 @@
       </c>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D37" s="11">
         <v>10</v>
       </c>
@@ -2398,12 +2418,12 @@
       </c>
       <c r="H37" s="14"/>
     </row>
-    <row r="38" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
@@ -2414,14 +2434,14 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H38" s="12"/>
       <c r="L38" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D39" s="11">
         <v>2</v>
       </c>
@@ -2430,11 +2450,11 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D40" s="10">
         <v>3</v>
       </c>
@@ -2447,18 +2467,18 @@
       </c>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D41" s="10"/>
       <c r="E41" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D42" s="11">
         <v>4</v>
       </c>
@@ -2472,10 +2492,10 @@
         <v>169</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D43" s="10">
         <v>5</v>
       </c>
@@ -2489,10 +2509,10 @@
         <v>169</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D44" s="11">
         <v>6</v>
       </c>
@@ -2506,10 +2526,10 @@
         <v>169</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D45" s="10">
         <v>7</v>
       </c>
@@ -2523,10 +2543,10 @@
         <v>169</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D46" s="11">
         <v>8</v>
       </c>
@@ -2540,10 +2560,10 @@
         <v>169</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D47" s="10">
         <v>9</v>
       </c>
@@ -2557,10 +2577,10 @@
         <v>169</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D48" s="11">
         <v>10</v>
       </c>
@@ -2574,10 +2594,10 @@
         <v>169</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D49" s="10">
         <v>11</v>
       </c>
@@ -2585,13 +2605,13 @@
         <v>24</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D50" s="11">
         <v>12</v>
       </c>
@@ -2599,13 +2619,13 @@
         <v>24</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D51" s="10">
         <v>13</v>
       </c>
@@ -2613,10 +2633,10 @@
         <v>24</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D52" s="11">
         <v>14</v>
       </c>
@@ -2627,10 +2647,10 @@
         <v>124</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D53" s="10">
         <v>15</v>
       </c>
@@ -2638,10 +2658,10 @@
         <v>24</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D54" s="11">
         <v>16</v>
       </c>
@@ -2652,10 +2672,10 @@
         <v>124</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D55" s="10">
         <v>17</v>
       </c>
@@ -2663,10 +2683,10 @@
         <v>24</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D56" s="11">
         <v>18</v>
       </c>
@@ -2674,22 +2694,22 @@
         <v>26</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43 C2:C41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43 C2:C18 C19:C41">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F27 F38:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F38:F1048576 F1:F18 F19:F27">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G18 G19:G1048576">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E18 E19:E1048576">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F28:F37">
@@ -2709,32 +2729,32 @@
   </sheetPr>
   <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121:XFD130"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -2784,9 +2804,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -2801,10 +2821,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -2822,7 +2842,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2850,7 +2870,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2861,7 +2881,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>22</v>
@@ -2880,7 +2900,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2891,7 +2911,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>27</v>
@@ -2906,7 +2926,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2917,7 +2937,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>37</v>
@@ -2934,15 +2954,15 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -2951,14 +2971,14 @@
         <v>72</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -2966,14 +2986,14 @@
         <v>18</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>
@@ -2981,7 +3001,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>37</v>
@@ -2990,7 +3010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
         <v>168</v>
       </c>
@@ -3011,10 +3031,10 @@
       </c>
       <c r="H10" s="21"/>
       <c r="P10" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D11" s="20" t="s">
         <v>167</v>
       </c>
@@ -3022,12 +3042,12 @@
         <v>26</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D12" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>20</v>
@@ -3039,20 +3059,20 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D13" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D14" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>24</v>
@@ -3062,7 +3082,7 @@
       </c>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D15" s="20">
         <v>6</v>
       </c>
@@ -3074,7 +3094,7 @@
       </c>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
         <v>169</v>
       </c>
@@ -3084,266 +3104,263 @@
       <c r="C16" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="21"/>
+      <c r="D16" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="H16" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="L16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D17" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D18" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="H17" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="F18" s="10"/>
       <c r="H18" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D19" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="H19" s="21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="20" t="s">
-        <v>217</v>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D20" s="20">
+        <v>3</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D21" s="20" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D22" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>157</v>
+        <v>283</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D23" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D24" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D25" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="H25" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D26" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="G26" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D27" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="H27" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D28" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D29" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="H29" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D30" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D31" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="H24" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D26" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="H28" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D30" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="H30" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>209</v>
-      </c>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D32" s="20" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="10"/>
       <c r="H32" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D33" s="20" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D33" s="20" t="s">
-        <v>219</v>
-      </c>
       <c r="E33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>197</v>
+      <c r="F33" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="16.5" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>32</v>
       </c>
@@ -3364,7 +3381,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D35" s="10">
         <v>2</v>
       </c>
@@ -3376,7 +3393,7 @@
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D36" s="10">
         <v>3</v>
       </c>
@@ -3388,7 +3405,7 @@
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D37" s="10">
         <v>4</v>
       </c>
@@ -3400,7 +3417,7 @@
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D38" s="10">
         <v>5</v>
       </c>
@@ -3411,13 +3428,13 @@
         <v>124</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D39" s="10">
         <v>6</v>
       </c>
@@ -3428,13 +3445,13 @@
         <v>124</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D40" s="10">
         <v>7</v>
       </c>
@@ -3446,7 +3463,7 @@
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D41" s="10">
         <v>8</v>
       </c>
@@ -3458,7 +3475,7 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>115</v>
       </c>
@@ -3479,7 +3496,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D43" s="10">
         <v>2</v>
       </c>
@@ -3491,7 +3508,7 @@
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D44" s="10">
         <v>3</v>
       </c>
@@ -3499,13 +3516,13 @@
         <v>113</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D45" s="10">
         <v>4</v>
       </c>
@@ -3513,11 +3530,11 @@
         <v>26</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>50</v>
       </c>
@@ -3538,7 +3555,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D47" s="10">
         <v>2</v>
       </c>
@@ -3550,7 +3567,7 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D48" s="10">
         <v>3</v>
       </c>
@@ -3564,10 +3581,10 @@
         <v>168</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D49" s="10">
         <v>4</v>
       </c>
@@ -3575,11 +3592,11 @@
         <v>26</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D50" s="10">
         <v>5</v>
       </c>
@@ -3591,7 +3608,7 @@
       </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
         <v>130</v>
       </c>
@@ -3612,7 +3629,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D52" s="10">
         <v>2</v>
       </c>
@@ -3624,7 +3641,7 @@
       </c>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D53" s="10">
         <v>3</v>
       </c>
@@ -3638,10 +3655,10 @@
         <v>168</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D54" s="10">
         <v>4</v>
       </c>
@@ -3649,11 +3666,11 @@
         <v>24</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D55" s="10">
         <v>5</v>
       </c>
@@ -3665,7 +3682,7 @@
       </c>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D56" s="10">
         <v>6</v>
       </c>
@@ -3677,7 +3694,7 @@
       </c>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D57" s="10">
         <v>7</v>
       </c>
@@ -3689,7 +3706,7 @@
       </c>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
         <v>131</v>
       </c>
@@ -3710,7 +3727,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D59" s="10">
         <v>2</v>
       </c>
@@ -3722,7 +3739,7 @@
       </c>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D60" s="10">
         <v>3</v>
       </c>
@@ -3734,7 +3751,7 @@
       </c>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D61" s="10">
         <v>6</v>
       </c>
@@ -3745,13 +3762,13 @@
         <v>124</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D62" s="10">
         <v>6</v>
       </c>
@@ -3762,13 +3779,13 @@
         <v>124</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D63" s="10">
         <v>8</v>
       </c>
@@ -3776,11 +3793,11 @@
         <v>24</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D64" s="10">
         <v>9</v>
       </c>
@@ -3788,14 +3805,14 @@
         <v>44</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D65" s="10">
         <v>6</v>
       </c>
@@ -3806,13 +3823,13 @@
         <v>124</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D66" s="10">
         <v>12</v>
       </c>
@@ -3824,7 +3841,7 @@
       </c>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D67" s="10">
         <v>13</v>
       </c>
@@ -3836,7 +3853,7 @@
       </c>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10" t="s">
         <v>132</v>
       </c>
@@ -3857,7 +3874,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D69" s="10">
         <v>2</v>
       </c>
@@ -3869,7 +3886,7 @@
       </c>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D70" s="10">
         <v>3</v>
       </c>
@@ -3881,7 +3898,7 @@
       </c>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D71" s="10">
         <v>4</v>
       </c>
@@ -3893,7 +3910,7 @@
       </c>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D72" s="10">
         <v>5</v>
       </c>
@@ -3907,7 +3924,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D73" s="10">
         <v>6</v>
       </c>
@@ -3919,7 +3936,7 @@
       </c>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D74" s="10">
         <v>7</v>
       </c>
@@ -3933,7 +3950,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D75" s="10">
         <v>8</v>
       </c>
@@ -3945,7 +3962,7 @@
       </c>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D76" s="10">
         <v>9</v>
       </c>
@@ -3957,7 +3974,7 @@
       </c>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A77" s="10" t="s">
         <v>148</v>
       </c>
@@ -3980,7 +3997,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D78" s="11">
         <v>2</v>
       </c>
@@ -3993,7 +4010,7 @@
       </c>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D79" s="10">
         <v>3</v>
       </c>
@@ -4006,7 +4023,7 @@
       </c>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D80" s="11">
         <v>4</v>
       </c>
@@ -4021,7 +4038,7 @@
       </c>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D81" s="10">
         <v>5</v>
       </c>
@@ -4036,7 +4053,7 @@
       </c>
       <c r="H81" s="14"/>
     </row>
-    <row r="82" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D82" s="11">
         <v>6</v>
       </c>
@@ -4049,7 +4066,7 @@
       </c>
       <c r="H82" s="14"/>
     </row>
-    <row r="83" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D83" s="10">
         <v>7</v>
       </c>
@@ -4062,7 +4079,7 @@
       </c>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D84" s="11">
         <v>8</v>
       </c>
@@ -4076,7 +4093,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D85" s="10">
         <v>9</v>
       </c>
@@ -4088,7 +4105,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A86" s="10" t="s">
         <v>53</v>
       </c>
@@ -4109,7 +4126,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D87" s="10">
         <v>2</v>
       </c>
@@ -4121,7 +4138,7 @@
       </c>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D88" s="10">
         <v>3</v>
       </c>
@@ -4133,7 +4150,7 @@
       </c>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D89" s="10">
         <v>4</v>
       </c>
@@ -4145,7 +4162,7 @@
       </c>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D90" s="10">
         <v>5</v>
       </c>
@@ -4159,7 +4176,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D91" s="10">
         <v>6</v>
       </c>
@@ -4171,7 +4188,7 @@
       </c>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D92" s="10">
         <v>7</v>
       </c>
@@ -4185,7 +4202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D93" s="10">
         <v>8</v>
       </c>
@@ -4197,7 +4214,7 @@
       </c>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D94" s="10">
         <v>9</v>
       </c>
@@ -4209,7 +4226,7 @@
       </c>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A95" s="10" t="s">
         <v>66</v>
       </c>
@@ -4233,7 +4250,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D96" s="10">
         <v>2</v>
       </c>
@@ -4245,7 +4262,7 @@
       </c>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D97" s="10">
         <v>3</v>
       </c>
@@ -4257,7 +4274,7 @@
       </c>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D98" s="10">
         <v>4</v>
       </c>
@@ -4269,7 +4286,7 @@
       </c>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D99" s="10">
         <v>5</v>
       </c>
@@ -4283,7 +4300,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D100" s="10">
         <v>6</v>
       </c>
@@ -4295,7 +4312,7 @@
       </c>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D101" s="10">
         <v>7</v>
       </c>
@@ -4309,7 +4326,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D102" s="10">
         <v>8</v>
       </c>
@@ -4321,7 +4338,7 @@
       </c>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D103" s="10">
         <v>9</v>
       </c>
@@ -4335,7 +4352,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D104" s="10">
         <v>10</v>
       </c>
@@ -4347,7 +4364,7 @@
       </c>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D105" s="10">
         <v>11</v>
       </c>
@@ -4359,7 +4376,7 @@
       </c>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D106" s="10">
         <v>12</v>
       </c>
@@ -4371,7 +4388,7 @@
       </c>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D107" s="10">
         <v>13</v>
       </c>
@@ -4379,14 +4396,14 @@
         <v>44</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D108" s="10">
         <v>14</v>
       </c>
@@ -4398,7 +4415,7 @@
       </c>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D109" s="10">
         <v>15</v>
       </c>
@@ -4412,7 +4429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D110" s="10">
         <v>16</v>
       </c>
@@ -4424,7 +4441,7 @@
       </c>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D111" s="10">
         <v>17</v>
       </c>
@@ -4436,7 +4453,7 @@
       </c>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D112" s="10">
         <v>18</v>
       </c>
@@ -4448,7 +4465,7 @@
       </c>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D113" s="10">
         <v>19</v>
       </c>
@@ -4460,7 +4477,7 @@
       </c>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A114" s="10" t="s">
         <v>89</v>
       </c>
@@ -4484,7 +4501,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D115" s="11">
         <v>2</v>
       </c>
@@ -4496,7 +4513,7 @@
       </c>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D116" s="10">
         <v>3</v>
       </c>
@@ -4508,7 +4525,7 @@
       </c>
       <c r="H116" s="14"/>
     </row>
-    <row r="117" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D117" s="11">
         <v>4</v>
       </c>
@@ -4521,7 +4538,7 @@
       </c>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D118" s="10">
         <v>5</v>
       </c>
@@ -4536,7 +4553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D119" s="11">
         <v>6</v>
       </c>
@@ -4548,7 +4565,7 @@
       </c>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D120" s="10">
         <v>7</v>
       </c>
@@ -4561,7 +4578,7 @@
       </c>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
         <v>105</v>
       </c>
@@ -4585,7 +4602,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D122" s="11">
         <v>2</v>
       </c>
@@ -4598,7 +4615,7 @@
       </c>
       <c r="H122" s="14"/>
     </row>
-    <row r="123" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D123" s="10">
         <v>3</v>
       </c>
@@ -4611,7 +4628,7 @@
       </c>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D124" s="11">
         <v>4</v>
       </c>
@@ -4623,7 +4640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D125" s="10">
         <v>5</v>
       </c>
@@ -4638,7 +4655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D126" s="11">
         <v>6</v>
       </c>
@@ -4651,7 +4668,7 @@
       </c>
       <c r="H126" s="12"/>
     </row>
-    <row r="127" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D127" s="10">
         <v>7</v>
       </c>
@@ -4664,7 +4681,7 @@
       </c>
       <c r="H127" s="12"/>
     </row>
-    <row r="128" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D128" s="11">
         <v>8</v>
       </c>
@@ -4677,7 +4694,7 @@
       </c>
       <c r="H128" s="12"/>
     </row>
-    <row r="129" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D129" s="10">
         <v>9</v>
       </c>
@@ -4689,7 +4706,7 @@
       </c>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D130" s="11">
         <v>10</v>
       </c>
@@ -4702,7 +4719,7 @@
       </c>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A131" s="10" t="s">
         <v>106</v>
       </c>
@@ -4727,7 +4744,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="D132" s="10">
@@ -4737,14 +4754,14 @@
         <v>44</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H132" s="14"/>
     </row>
-    <row r="133" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="D133" s="10">
@@ -4761,7 +4778,7 @@
       </c>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A134" s="10" t="s">
         <v>111</v>
       </c>
@@ -4786,7 +4803,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D135" s="11">
         <v>2</v>
       </c>
@@ -4799,7 +4816,7 @@
       </c>
       <c r="H135" s="14"/>
     </row>
-    <row r="136" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D136" s="11" t="s">
         <v>107</v>
       </c>
@@ -4808,11 +4825,11 @@
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="10" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H136" s="14"/>
     </row>
-    <row r="137" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D137" s="11" t="s">
         <v>108</v>
       </c>
@@ -4821,11 +4838,11 @@
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D138" s="11" t="s">
         <v>109</v>
       </c>
@@ -4838,7 +4855,7 @@
       </c>
       <c r="H138" s="14"/>
     </row>
-    <row r="139" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D139" s="10" t="s">
         <v>133</v>
       </c>
@@ -4851,7 +4868,7 @@
       </c>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D140" s="10" t="s">
         <v>134</v>
       </c>
@@ -4863,7 +4880,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D141" s="11" t="s">
         <v>135</v>
       </c>
@@ -4875,7 +4892,7 @@
       </c>
       <c r="H141" s="14"/>
     </row>
-    <row r="142" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D142" s="10" t="s">
         <v>136</v>
       </c>
@@ -4888,7 +4905,7 @@
       </c>
       <c r="H142" s="14"/>
     </row>
-    <row r="143" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A143" s="10" t="s">
         <v>112</v>
       </c>
@@ -4913,7 +4930,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D144" s="11">
         <v>2</v>
       </c>
@@ -4925,7 +4942,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D145" s="11">
         <v>3</v>
       </c>
@@ -4940,7 +4957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D146" s="11">
         <v>4</v>
       </c>
@@ -4952,7 +4969,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D147" s="11">
         <v>5</v>
       </c>
@@ -4967,7 +4984,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D148" s="11">
         <v>6</v>
       </c>
@@ -4979,7 +4996,7 @@
       </c>
       <c r="H148" s="14"/>
     </row>
-    <row r="149" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D149" s="11">
         <v>7</v>
       </c>
@@ -4987,13 +5004,13 @@
         <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D150" s="11">
         <v>8</v>
       </c>
@@ -5005,7 +5022,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D151" s="11">
         <v>9</v>
       </c>
@@ -5017,7 +5034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A152" s="10" t="s">
         <v>152</v>
       </c>
@@ -5042,7 +5059,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D153" s="11">
         <v>2</v>
       </c>
@@ -5055,7 +5072,7 @@
       </c>
       <c r="H153" s="14"/>
     </row>
-    <row r="154" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D154" s="10">
         <v>3</v>
       </c>
@@ -5068,7 +5085,7 @@
       </c>
       <c r="H154" s="14"/>
     </row>
-    <row r="155" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D155" s="11">
         <v>4</v>
       </c>
@@ -5079,13 +5096,13 @@
         <v>124</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D156" s="10">
         <v>5</v>
       </c>
@@ -5096,13 +5113,13 @@
         <v>124</v>
       </c>
       <c r="G156" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H156" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="H156" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="157" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D157" s="11">
         <v>6</v>
       </c>
@@ -5113,13 +5130,13 @@
         <v>124</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D158" s="10">
         <v>7</v>
       </c>
@@ -5130,13 +5147,13 @@
         <v>124</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D159" s="11">
         <v>8</v>
       </c>
@@ -5148,7 +5165,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D160" s="10">
         <v>9</v>
       </c>
@@ -5160,12 +5177,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A161" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>67</v>
@@ -5185,7 +5202,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -5203,7 +5220,7 @@
       </c>
       <c r="H162" s="14"/>
     </row>
-    <row r="163" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -5214,14 +5231,14 @@
         <v>44</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -5239,7 +5256,7 @@
       </c>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -5251,7 +5268,7 @@
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H165" s="14"/>
     </row>
@@ -5261,7 +5278,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86:C143 C161:C165 C158 C152:C156 C2:C83">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F15 F34:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F34:F1048576 F1:F15">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F16:F33">
@@ -5290,26 +5307,26 @@
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="33.1796875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
+    <col min="14" max="15" width="10.453125" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -5359,7 +5376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -5395,7 +5412,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5423,7 +5440,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5451,7 +5468,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5475,7 +5492,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5501,7 +5518,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -5522,7 +5539,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -5534,7 +5551,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>
@@ -5548,154 +5565,154 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="37" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="39" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="40" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="41" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="42" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="43" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="44" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="45" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="46" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="47" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5705,240 +5722,240 @@
       <c r="G59" s="10"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="14"/>
     </row>
-    <row r="61" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="14"/>
     </row>
-    <row r="62" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="14"/>
     </row>
-    <row r="63" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="14"/>
     </row>
-    <row r="64" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="14"/>
     </row>
-    <row r="66" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D66" s="11"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="75" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="76" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="79" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="80" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="81" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="82" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="83" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="84" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="85" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="86" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="87" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="88" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="89" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="90" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="91" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="92" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="93" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="94" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="95" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="96" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="97" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="98" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="99" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="100" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="101" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="102" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="103" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="104" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="105" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="106" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="107" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="108" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="109" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="110" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="D113" s="10"/>
@@ -5947,7 +5964,7 @@
       <c r="G113" s="10"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="D114" s="10"/>
@@ -5956,7 +5973,7 @@
       <c r="G114" s="10"/>
       <c r="H114" s="14"/>
     </row>
-    <row r="115" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="D115" s="10"/>
@@ -5965,7 +5982,7 @@
       <c r="G115" s="10"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5975,56 +5992,56 @@
       <c r="G116" s="10"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -6033,45 +6050,45 @@
       <c r="G125" s="10"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="12"/>
     </row>
-    <row r="128" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
     </row>
-    <row r="129" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="129" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="12"/>
     </row>
-    <row r="130" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="130" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="131" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D131" s="11"/>
       <c r="E131" s="10"/>
       <c r="G131" s="10"/>
     </row>
-    <row r="132" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D132" s="11"/>
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D133" s="11"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -6124,26 +6141,26 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -6193,7 +6210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -6211,7 +6228,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -6229,7 +6246,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6246,7 +6263,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -6257,7 +6274,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6272,7 +6289,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -6285,7 +6302,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6309,7 +6326,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6324,7 +6341,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -6335,7 +6352,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -6356,7 +6373,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -6364,11 +6381,11 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>
@@ -6379,7 +6396,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -1707,7 +1707,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1250" windowWidth="23260" windowHeight="11080" activeTab="1"/>
+    <workbookView xWindow="276" yWindow="1368" windowWidth="23256" windowHeight="10956"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,12 +56,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>传入三个参数：
-类型=文本\大文本\下拉项\选择项\附件\日期\单选\多选，字段=组织名称，内容=研发部</t>
+          <t>参数：类型=文本框\下拉框，字段=组织名称，内容=研发部</t>
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,12 +71,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>传入三个参数：
-类型=文本\大文本\下拉项\选择项\附件\日期\单选\多选，字段=组织名称，内容=研发部</t>
+          <t>参数传入【*类型、*字段、内容、查询类型、查询字段】</t>
         </r>
       </text>
     </comment>
-    <comment ref="A27" authorId="0" shapeId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,8 +86,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>传入三个参数：
-类型=文本\大文本\下拉项\选择项\附件\日期\单选\多选，字段=组织名称，内容=研发部</t>
+          <t>参数：类型=文本框\下拉框，字段=组织名称，内容=研发部</t>
         </r>
       </text>
     </comment>
@@ -103,7 +100,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="312">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -991,110 +988,209 @@
     <t>列表项勾选#&lt;_组织编码&gt;组织名称</t>
   </si>
   <si>
+    <t>列表项#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=组织编码，内容=000&lt;_组织编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=员工编号，内容=&lt;_普通编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=姓名，内容=&lt;_普通编码&gt;姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项索引#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=人员手机号，内容=&lt;_人员手机号&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入</t>
+  </si>
+  <si>
+    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phd_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal_setup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#送交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项包含#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hse_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#作业许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#作业任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=下拉项，字段=项目类型，内容=日常检修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=作业任务名称，内容=&lt;_普通编码&gt;作业任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=作业地点，内容=作业地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=选择项，字段=作业单位，内容=生产运行三车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=选择项，字段=作业位置，内容=gl-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>弹出选择页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列表项#&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=组织编码，内容=000&lt;_组织编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=员工编号，内容=&lt;_普通编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=姓名，内容=&lt;_普通编码&gt;姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项索引#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=人员手机号，内容=&lt;_人员手机号&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板导入</t>
-  </si>
-  <si>
-    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phd_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal_setup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#送交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项包含#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hse_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许可新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#作业许可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#作业任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=下拉项，字段=项目类型，内容=日常检修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=作业任务名称，内容=&lt;_普通编码&gt;作业任务名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=作业地点，内容=作业地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=选择项，字段=作业单位，内容=生产运行三车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=选择项，字段=作业位置，内容=gl-1</t>
+    <t>按钮#确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+  </si>
+  <si>
+    <t>小时加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时减按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#保存成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=多选，字段=储罐及特殊作业分类，内容=储罐浮舱内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url#http://192.168.6.105:7050/hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于弹出选择页面的数据查询，传入三个参数：类型=文本\下拉项，字段=组织名称，内容=研发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择页面数据查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1102,102 +1198,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全选按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#确定</t>
+    <t>类型=单选，字段=是否承包商，内容=否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#作业票类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段=&lt;查询字段&gt;，内容=&lt;内容&gt;，类型=&lt;查询类型&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期控件</t>
-  </si>
-  <si>
-    <t>输入框#计划开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时加按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时减按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时减1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#计划结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期减*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#保存成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#http://192.168.6.105:7050/hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=多选，字段=储罐及特殊作业分类，内容=储罐浮舱内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=单选，字段=是否承包商，内容=是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选按钮#是否承包商#是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移=前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数：字段=开始时间，偏移=前/后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移=后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移=&lt;偏移&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup_query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup_query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数传入【*类型、*字段、内容、查询类型、查询字段】
+类型=文本\大文本\下拉项\选择项\附件\日期\单选\多选，字段=组织名称，内容=研发部，查询类型=文本，查询字段=组织名称，偏移=前/后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择页面数据选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup_input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1205,43 +1347,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;16</t>
+    <t>类型=日期，字段=计划开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=日期，字段=计划结束时间，偏移=后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1374,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1411,6 +1521,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1439,7 +1552,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1481,7 +1594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1516,7 +1629,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1725,34 +1838,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD25"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="35.6328125" customWidth="1"/>
-    <col min="8" max="8" width="35.453125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="101" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="115.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1802,7 +1915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -1838,7 +1951,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1866,7 +1979,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1894,7 +2007,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1918,7 +2031,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1939,7 +2052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D7" s="9">
         <v>2</v>
       </c>
@@ -1951,187 +2064,192 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>269</v>
+      <c r="D8" s="20">
+        <v>1</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="P8" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="21" t="s">
+      <c r="H9" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="20">
+        <v>6</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="H14" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D9" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D10" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D11" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D12" s="20">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D13" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="H13" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D14" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="P14" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D15" s="20" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="G15" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D16" s="20" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="H16" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D17" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="H17" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D18" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>44</v>
+      <c r="G17" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="20">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>221</v>
+        <v>196</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D19" s="20" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="10"/>
       <c r="H19" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D20" s="20" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>20</v>
@@ -2140,580 +2258,635 @@
         <v>196</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="20" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="H21" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D22" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D23" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="H23" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D24" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D25" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="H25" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D22" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22" s="20" t="s">
+    <row r="26" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D26" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F26" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G26" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H26" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D23" s="20" t="s">
+    <row r="27" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D27" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D28" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="H28" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D29" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D30" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="H30" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F31" s="10"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F32" s="10"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D33" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F34" s="10"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A35" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="P35" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D36" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D37" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D38" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F39" s="10"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F40" s="10"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A41" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="H41" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="P41" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D42" s="20">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D43" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="H43" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D44" s="20">
+        <v>4</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D45" s="11">
+        <v>6</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="L46" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D47" s="11">
+        <v>2</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D48" s="10">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D49" s="11">
+        <v>4</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D24" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E24" s="20" t="s">
+    </row>
+    <row r="50" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D50" s="10">
+        <v>5</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D51" s="11">
+        <v>6</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D52" s="10">
+        <v>7</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D53" s="11">
+        <v>8</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D54" s="10">
+        <v>9</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D55" s="11">
+        <v>10</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D56" s="10">
+        <v>11</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D57" s="11">
+        <v>12</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D58" s="10">
+        <v>13</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D59" s="11">
+        <v>14</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D60" s="10">
+        <v>15</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D61" s="11">
+        <v>16</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D62" s="10">
+        <v>17</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="H24" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D25" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="20" t="s">
+      <c r="G62" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="20">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="L26" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="20">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="L27" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="L28" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="11">
-        <v>2</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:16" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D30" s="10">
-        <v>3</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="11">
-        <v>4</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D32" s="10">
-        <v>5</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D33" s="11">
-        <v>6</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D34" s="10">
-        <v>7</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="11">
-        <v>8</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="10">
-        <v>9</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D37" s="11">
-        <v>10</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="L38" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D39" s="11">
-        <v>2</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D40" s="10">
-        <v>3</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D42" s="11">
-        <v>4</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D43" s="10">
-        <v>5</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D44" s="11">
-        <v>6</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D45" s="10">
-        <v>7</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D46" s="11">
-        <v>8</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D47" s="10">
-        <v>9</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D48" s="11">
-        <v>10</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D49" s="10">
-        <v>11</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D50" s="11">
-        <v>12</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D51" s="10">
-        <v>13</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D52" s="11">
-        <v>14</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D53" s="10">
-        <v>15</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D54" s="11">
-        <v>16</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D55" s="10">
-        <v>17</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D56" s="11">
-        <v>18</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43 C2:C18 C19:C41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50 C46:C48 C2:C44">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F38:F1048576 F1:F18 F19:F27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F7 F14:F1048576">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G18 G19:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F8:F13">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H41 G42 H43 G30:G40 G1:G28 G44:G1048576">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E18 E19:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F28:F37">
-      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2729,32 +2902,32 @@
   </sheetPr>
   <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -2804,9 +2977,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -2824,7 +2997,7 @@
         <v>196</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -2842,7 +3015,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2870,7 +3043,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2900,7 +3073,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2926,7 +3099,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2954,15 +3127,15 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -2978,7 +3151,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -2993,7 +3166,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>
@@ -3010,7 +3183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
         <v>168</v>
       </c>
@@ -3034,7 +3207,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D11" s="20" t="s">
         <v>167</v>
       </c>
@@ -3045,7 +3218,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D12" s="20" t="s">
         <v>209</v>
       </c>
@@ -3059,7 +3232,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D13" s="20" t="s">
         <v>208</v>
       </c>
@@ -3070,7 +3243,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D14" s="20" t="s">
         <v>212</v>
       </c>
@@ -3082,7 +3255,7 @@
       </c>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D15" s="20">
         <v>6</v>
       </c>
@@ -3094,7 +3267,7 @@
       </c>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
         <v>169</v>
       </c>
@@ -3105,7 +3278,7 @@
         <v>122</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>26</v>
@@ -3118,9 +3291,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D17" s="20" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>24</v>
@@ -3133,7 +3306,7 @@
       </c>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="20" t="s">
         <v>167</v>
       </c>
@@ -3145,9 +3318,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D19" s="20" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>24</v>
@@ -3160,7 +3333,7 @@
       </c>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D20" s="20">
         <v>3</v>
       </c>
@@ -3175,9 +3348,9 @@
       </c>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="20" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
@@ -3187,9 +3360,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="20" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>20</v>
@@ -3204,9 +3377,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D23" s="20" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>26</v>
@@ -3218,9 +3391,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D24" s="20" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>24</v>
@@ -3233,9 +3406,9 @@
       </c>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D25" s="20" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>26</v>
@@ -3245,9 +3418,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D26" s="20" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>44</v>
@@ -3256,13 +3429,13 @@
         <v>216</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D27" s="20" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>26</v>
@@ -3272,9 +3445,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D28" s="20" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>20</v>
@@ -3289,9 +3462,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D29" s="20" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>26</v>
@@ -3301,9 +3474,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D30" s="20" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>113</v>
@@ -3318,9 +3491,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D31" s="20" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>24</v>
@@ -3333,9 +3506,9 @@
       </c>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="4:8" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D32" s="20" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>26</v>
@@ -3345,7 +3518,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D33" s="20" t="s">
         <v>210</v>
       </c>
@@ -3360,7 +3533,7 @@
       </c>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="16.5" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>32</v>
       </c>
@@ -3381,7 +3554,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D35" s="10">
         <v>2</v>
       </c>
@@ -3393,7 +3566,7 @@
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D36" s="10">
         <v>3</v>
       </c>
@@ -3405,7 +3578,7 @@
       </c>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D37" s="10">
         <v>4</v>
       </c>
@@ -3417,7 +3590,7 @@
       </c>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D38" s="10">
         <v>5</v>
       </c>
@@ -3428,13 +3601,13 @@
         <v>124</v>
       </c>
       <c r="G38" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D39" s="10">
         <v>6</v>
       </c>
@@ -3445,13 +3618,13 @@
         <v>124</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D40" s="10">
         <v>7</v>
       </c>
@@ -3463,7 +3636,7 @@
       </c>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D41" s="10">
         <v>8</v>
       </c>
@@ -3475,7 +3648,7 @@
       </c>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>115</v>
       </c>
@@ -3496,7 +3669,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D43" s="10">
         <v>2</v>
       </c>
@@ -3508,7 +3681,7 @@
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D44" s="10">
         <v>3</v>
       </c>
@@ -3516,13 +3689,13 @@
         <v>113</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D45" s="10">
         <v>4</v>
       </c>
@@ -3534,7 +3707,7 @@
       </c>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>50</v>
       </c>
@@ -3555,7 +3728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D47" s="10">
         <v>2</v>
       </c>
@@ -3567,7 +3740,7 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D48" s="10">
         <v>3</v>
       </c>
@@ -3584,7 +3757,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D49" s="10">
         <v>4</v>
       </c>
@@ -3596,7 +3769,7 @@
       </c>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D50" s="10">
         <v>5</v>
       </c>
@@ -3608,7 +3781,7 @@
       </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
         <v>130</v>
       </c>
@@ -3629,7 +3802,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D52" s="10">
         <v>2</v>
       </c>
@@ -3641,7 +3814,7 @@
       </c>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D53" s="10">
         <v>3</v>
       </c>
@@ -3658,7 +3831,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D54" s="10">
         <v>4</v>
       </c>
@@ -3670,7 +3843,7 @@
       </c>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D55" s="10">
         <v>5</v>
       </c>
@@ -3682,7 +3855,7 @@
       </c>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D56" s="10">
         <v>6</v>
       </c>
@@ -3694,7 +3867,7 @@
       </c>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D57" s="10">
         <v>7</v>
       </c>
@@ -3706,7 +3879,7 @@
       </c>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
         <v>131</v>
       </c>
@@ -3727,7 +3900,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D59" s="10">
         <v>2</v>
       </c>
@@ -3739,7 +3912,7 @@
       </c>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D60" s="10">
         <v>3</v>
       </c>
@@ -3751,7 +3924,7 @@
       </c>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D61" s="10">
         <v>6</v>
       </c>
@@ -3762,13 +3935,13 @@
         <v>124</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D62" s="10">
         <v>6</v>
       </c>
@@ -3779,13 +3952,13 @@
         <v>124</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D63" s="10">
         <v>8</v>
       </c>
@@ -3793,11 +3966,11 @@
         <v>24</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D64" s="10">
         <v>9</v>
       </c>
@@ -3808,11 +3981,11 @@
         <v>215</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H64" s="12"/>
     </row>
-    <row r="65" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D65" s="10">
         <v>6</v>
       </c>
@@ -3823,13 +3996,13 @@
         <v>124</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D66" s="10">
         <v>12</v>
       </c>
@@ -3841,7 +4014,7 @@
       </c>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D67" s="10">
         <v>13</v>
       </c>
@@ -3853,7 +4026,7 @@
       </c>
       <c r="H67" s="12"/>
     </row>
-    <row r="68" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10" t="s">
         <v>132</v>
       </c>
@@ -3874,7 +4047,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D69" s="10">
         <v>2</v>
       </c>
@@ -3886,7 +4059,7 @@
       </c>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D70" s="10">
         <v>3</v>
       </c>
@@ -3898,7 +4071,7 @@
       </c>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D71" s="10">
         <v>4</v>
       </c>
@@ -3910,7 +4083,7 @@
       </c>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D72" s="10">
         <v>5</v>
       </c>
@@ -3924,7 +4097,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D73" s="10">
         <v>6</v>
       </c>
@@ -3936,7 +4109,7 @@
       </c>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D74" s="10">
         <v>7</v>
       </c>
@@ -3950,7 +4123,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D75" s="10">
         <v>8</v>
       </c>
@@ -3962,7 +4135,7 @@
       </c>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D76" s="10">
         <v>9</v>
       </c>
@@ -3974,7 +4147,7 @@
       </c>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A77" s="10" t="s">
         <v>148</v>
       </c>
@@ -3997,7 +4170,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D78" s="11">
         <v>2</v>
       </c>
@@ -4010,7 +4183,7 @@
       </c>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D79" s="10">
         <v>3</v>
       </c>
@@ -4023,7 +4196,7 @@
       </c>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D80" s="11">
         <v>4</v>
       </c>
@@ -4038,7 +4211,7 @@
       </c>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D81" s="10">
         <v>5</v>
       </c>
@@ -4053,7 +4226,7 @@
       </c>
       <c r="H81" s="14"/>
     </row>
-    <row r="82" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D82" s="11">
         <v>6</v>
       </c>
@@ -4066,7 +4239,7 @@
       </c>
       <c r="H82" s="14"/>
     </row>
-    <row r="83" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D83" s="10">
         <v>7</v>
       </c>
@@ -4079,7 +4252,7 @@
       </c>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D84" s="11">
         <v>8</v>
       </c>
@@ -4093,7 +4266,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D85" s="10">
         <v>9</v>
       </c>
@@ -4105,7 +4278,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="10" t="s">
         <v>53</v>
       </c>
@@ -4126,7 +4299,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D87" s="10">
         <v>2</v>
       </c>
@@ -4138,7 +4311,7 @@
       </c>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D88" s="10">
         <v>3</v>
       </c>
@@ -4150,7 +4323,7 @@
       </c>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D89" s="10">
         <v>4</v>
       </c>
@@ -4162,7 +4335,7 @@
       </c>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D90" s="10">
         <v>5</v>
       </c>
@@ -4176,7 +4349,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D91" s="10">
         <v>6</v>
       </c>
@@ -4188,7 +4361,7 @@
       </c>
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D92" s="10">
         <v>7</v>
       </c>
@@ -4202,7 +4375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D93" s="10">
         <v>8</v>
       </c>
@@ -4214,7 +4387,7 @@
       </c>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D94" s="10">
         <v>9</v>
       </c>
@@ -4226,7 +4399,7 @@
       </c>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A95" s="10" t="s">
         <v>66</v>
       </c>
@@ -4250,7 +4423,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D96" s="10">
         <v>2</v>
       </c>
@@ -4262,7 +4435,7 @@
       </c>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D97" s="10">
         <v>3</v>
       </c>
@@ -4274,7 +4447,7 @@
       </c>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D98" s="10">
         <v>4</v>
       </c>
@@ -4286,7 +4459,7 @@
       </c>
       <c r="H98" s="12"/>
     </row>
-    <row r="99" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D99" s="10">
         <v>5</v>
       </c>
@@ -4300,7 +4473,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D100" s="10">
         <v>6</v>
       </c>
@@ -4312,7 +4485,7 @@
       </c>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D101" s="10">
         <v>7</v>
       </c>
@@ -4326,7 +4499,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D102" s="10">
         <v>8</v>
       </c>
@@ -4338,7 +4511,7 @@
       </c>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D103" s="10">
         <v>9</v>
       </c>
@@ -4352,7 +4525,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D104" s="10">
         <v>10</v>
       </c>
@@ -4364,7 +4537,7 @@
       </c>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D105" s="10">
         <v>11</v>
       </c>
@@ -4376,7 +4549,7 @@
       </c>
       <c r="H105" s="12"/>
     </row>
-    <row r="106" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D106" s="10">
         <v>12</v>
       </c>
@@ -4388,7 +4561,7 @@
       </c>
       <c r="H106" s="12"/>
     </row>
-    <row r="107" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D107" s="10">
         <v>13</v>
       </c>
@@ -4403,7 +4576,7 @@
       </c>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D108" s="10">
         <v>14</v>
       </c>
@@ -4415,7 +4588,7 @@
       </c>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D109" s="10">
         <v>15</v>
       </c>
@@ -4429,7 +4602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D110" s="10">
         <v>16</v>
       </c>
@@ -4441,7 +4614,7 @@
       </c>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D111" s="10">
         <v>17</v>
       </c>
@@ -4453,7 +4626,7 @@
       </c>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D112" s="10">
         <v>18</v>
       </c>
@@ -4465,7 +4638,7 @@
       </c>
       <c r="H112" s="12"/>
     </row>
-    <row r="113" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D113" s="10">
         <v>19</v>
       </c>
@@ -4477,7 +4650,7 @@
       </c>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A114" s="10" t="s">
         <v>89</v>
       </c>
@@ -4501,7 +4674,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D115" s="11">
         <v>2</v>
       </c>
@@ -4513,7 +4686,7 @@
       </c>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D116" s="10">
         <v>3</v>
       </c>
@@ -4525,7 +4698,7 @@
       </c>
       <c r="H116" s="14"/>
     </row>
-    <row r="117" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D117" s="11">
         <v>4</v>
       </c>
@@ -4538,7 +4711,7 @@
       </c>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D118" s="10">
         <v>5</v>
       </c>
@@ -4553,7 +4726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D119" s="11">
         <v>6</v>
       </c>
@@ -4565,7 +4738,7 @@
       </c>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D120" s="10">
         <v>7</v>
       </c>
@@ -4578,7 +4751,7 @@
       </c>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10" t="s">
         <v>105</v>
       </c>
@@ -4602,7 +4775,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D122" s="11">
         <v>2</v>
       </c>
@@ -4615,7 +4788,7 @@
       </c>
       <c r="H122" s="14"/>
     </row>
-    <row r="123" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D123" s="10">
         <v>3</v>
       </c>
@@ -4628,7 +4801,7 @@
       </c>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D124" s="11">
         <v>4</v>
       </c>
@@ -4640,7 +4813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D125" s="10">
         <v>5</v>
       </c>
@@ -4655,7 +4828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D126" s="11">
         <v>6</v>
       </c>
@@ -4668,7 +4841,7 @@
       </c>
       <c r="H126" s="12"/>
     </row>
-    <row r="127" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D127" s="10">
         <v>7</v>
       </c>
@@ -4681,7 +4854,7 @@
       </c>
       <c r="H127" s="12"/>
     </row>
-    <row r="128" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D128" s="11">
         <v>8</v>
       </c>
@@ -4694,7 +4867,7 @@
       </c>
       <c r="H128" s="12"/>
     </row>
-    <row r="129" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D129" s="10">
         <v>9</v>
       </c>
@@ -4706,7 +4879,7 @@
       </c>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D130" s="11">
         <v>10</v>
       </c>
@@ -4719,7 +4892,7 @@
       </c>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A131" s="10" t="s">
         <v>106</v>
       </c>
@@ -4744,7 +4917,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="D132" s="10">
@@ -4761,7 +4934,7 @@
       </c>
       <c r="H132" s="14"/>
     </row>
-    <row r="133" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="D133" s="10">
@@ -4778,7 +4951,7 @@
       </c>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A134" s="10" t="s">
         <v>111</v>
       </c>
@@ -4803,7 +4976,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D135" s="11">
         <v>2</v>
       </c>
@@ -4816,7 +4989,7 @@
       </c>
       <c r="H135" s="14"/>
     </row>
-    <row r="136" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D136" s="11" t="s">
         <v>107</v>
       </c>
@@ -4825,11 +4998,11 @@
       </c>
       <c r="F136" s="10"/>
       <c r="G136" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H136" s="14"/>
     </row>
-    <row r="137" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D137" s="11" t="s">
         <v>108</v>
       </c>
@@ -4842,7 +5015,7 @@
       </c>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D138" s="11" t="s">
         <v>109</v>
       </c>
@@ -4855,7 +5028,7 @@
       </c>
       <c r="H138" s="14"/>
     </row>
-    <row r="139" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D139" s="10" t="s">
         <v>133</v>
       </c>
@@ -4868,7 +5041,7 @@
       </c>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D140" s="10" t="s">
         <v>134</v>
       </c>
@@ -4880,7 +5053,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D141" s="11" t="s">
         <v>135</v>
       </c>
@@ -4892,7 +5065,7 @@
       </c>
       <c r="H141" s="14"/>
     </row>
-    <row r="142" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D142" s="10" t="s">
         <v>136</v>
       </c>
@@ -4905,7 +5078,7 @@
       </c>
       <c r="H142" s="14"/>
     </row>
-    <row r="143" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A143" s="10" t="s">
         <v>112</v>
       </c>
@@ -4930,7 +5103,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D144" s="11">
         <v>2</v>
       </c>
@@ -4942,7 +5115,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D145" s="11">
         <v>3</v>
       </c>
@@ -4957,7 +5130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D146" s="11">
         <v>4</v>
       </c>
@@ -4969,7 +5142,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D147" s="11">
         <v>5</v>
       </c>
@@ -4984,7 +5157,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D148" s="11">
         <v>6</v>
       </c>
@@ -4996,7 +5169,7 @@
       </c>
       <c r="H148" s="14"/>
     </row>
-    <row r="149" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D149" s="11">
         <v>7</v>
       </c>
@@ -5010,7 +5183,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D150" s="11">
         <v>8</v>
       </c>
@@ -5022,7 +5195,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D151" s="11">
         <v>9</v>
       </c>
@@ -5034,7 +5207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A152" s="10" t="s">
         <v>152</v>
       </c>
@@ -5059,7 +5232,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D153" s="11">
         <v>2</v>
       </c>
@@ -5072,7 +5245,7 @@
       </c>
       <c r="H153" s="14"/>
     </row>
-    <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D154" s="10">
         <v>3</v>
       </c>
@@ -5085,7 +5258,7 @@
       </c>
       <c r="H154" s="14"/>
     </row>
-    <row r="155" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D155" s="11">
         <v>4</v>
       </c>
@@ -5102,7 +5275,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D156" s="10">
         <v>5</v>
       </c>
@@ -5119,7 +5292,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D157" s="11">
         <v>6</v>
       </c>
@@ -5136,7 +5309,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D158" s="10">
         <v>7</v>
       </c>
@@ -5153,7 +5326,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D159" s="11">
         <v>8</v>
       </c>
@@ -5165,7 +5338,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D160" s="10">
         <v>9</v>
       </c>
@@ -5177,9 +5350,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A161" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>192</v>
@@ -5202,7 +5375,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -5220,7 +5393,7 @@
       </c>
       <c r="H162" s="14"/>
     </row>
-    <row r="163" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -5238,7 +5411,7 @@
       </c>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -5256,7 +5429,7 @@
       </c>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -5268,7 +5441,7 @@
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H165" s="14"/>
     </row>
@@ -5307,26 +5480,26 @@
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.1796875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
+    <col min="8" max="8" width="33.21875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" customWidth="1"/>
-    <col min="14" max="15" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -5376,7 +5549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -5412,7 +5585,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5440,7 +5613,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5468,7 +5641,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5492,7 +5665,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5518,7 +5691,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -5539,7 +5712,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -5551,7 +5724,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>
@@ -5565,154 +5738,154 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="37" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="38" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="39" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="42" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="44" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="45" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="47" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="48" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5722,240 +5895,240 @@
       <c r="G59" s="10"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="14"/>
     </row>
-    <row r="61" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="14"/>
     </row>
-    <row r="62" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="14"/>
     </row>
-    <row r="63" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="14"/>
     </row>
-    <row r="64" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="14"/>
     </row>
-    <row r="66" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D66" s="11"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="75" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="76" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="79" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="80" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="81" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="82" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="83" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="85" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="86" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="87" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="88" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="89" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="90" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="91" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="92" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="93" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="94" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="95" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="96" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="97" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="98" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="99" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="100" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="101" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="102" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="103" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="104" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="105" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="106" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="107" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="108" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="109" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="110" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="D113" s="10"/>
@@ -5964,7 +6137,7 @@
       <c r="G113" s="10"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="D114" s="10"/>
@@ -5973,7 +6146,7 @@
       <c r="G114" s="10"/>
       <c r="H114" s="14"/>
     </row>
-    <row r="115" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="D115" s="10"/>
@@ -5982,7 +6155,7 @@
       <c r="G115" s="10"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5992,56 +6165,56 @@
       <c r="G116" s="10"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -6050,45 +6223,45 @@
       <c r="G125" s="10"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="12"/>
     </row>
-    <row r="128" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
     </row>
-    <row r="129" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="129" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="12"/>
     </row>
-    <row r="130" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="130" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="131" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D131" s="11"/>
       <c r="E131" s="10"/>
       <c r="G131" s="10"/>
     </row>
-    <row r="132" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D132" s="11"/>
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D133" s="11"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -6141,26 +6314,26 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -6210,7 +6383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -6228,7 +6401,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -6246,7 +6419,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6274,7 +6447,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6302,7 +6475,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6326,7 +6499,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6352,7 +6525,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -6373,7 +6546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -6385,7 +6558,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1368" windowWidth="23256" windowHeight="10956"/>
+    <workbookView xWindow="276" yWindow="1428" windowWidth="23256" windowHeight="10896"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,22 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>参数传入【*类型、*字段、内容、查询类型、查询字段】</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,22 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>参数传入【*类型、*字段、内容、查询类型、查询字段】</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A35" authorId="0">
+    <comment ref="A34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,49 +94,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="A10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>传入三个参数：类型=文本框\下拉框，字段=组织名称，内容=研发部</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>传入三个参数：
-类型=文本\大文本\下拉项\选择项\附件\日期\单选\多选，字段=组织名称，内容=研发部</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="324">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按钮#添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子表按钮#保存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -726,10 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url#http://p.51gxc.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phd_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,10 +727,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列表查询数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -836,112 +779,425 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>按钮#确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件控件</t>
+  </si>
+  <si>
+    <t>字段输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=附件，字段=隐患图片，内容=1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本</t>
+  </si>
+  <si>
+    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
+  </si>
+  <si>
+    <t>传入三个参数：类型=文本\下拉项，字段=组织名称，内容=研发部</t>
+  </si>
+  <si>
+    <t>类型=下拉项</t>
+  </si>
+  <si>
+    <t>类型=选择项</t>
+  </si>
+  <si>
+    <t>类型=选择项，字段=所属区域，内容=&lt;_phd_所属区域&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=日期，字段=发现时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐患任务送交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=大文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大文本输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=大文本，字段=隐患描述，内容=&lt;_普通编码&gt;隐患描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*7050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*7050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_org.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#成功上传更新9条数据!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选按钮#&lt;字段&gt;#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选按钮#&lt;字段&gt;#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#&lt;_审批人&gt;</t>
+  </si>
+  <si>
+    <t>列表项索引#1</t>
+  </si>
+  <si>
+    <t>弹出选择页面</t>
+  </si>
+  <si>
+    <t>弹出选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项#&lt;_组织编码&gt;组织名称</t>
+  </si>
+  <si>
+    <t>列表项勾选#&lt;_组织编码&gt;组织名称</t>
+  </si>
+  <si>
+    <t>列表项#&lt;内容&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=组织编码，内容=000&lt;_组织编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=员工编号，内容=&lt;_普通编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=姓名，内容=&lt;_普通编码&gt;姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项索引#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=人员手机号，内容=&lt;_人员手机号&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入</t>
+  </si>
+  <si>
+    <t>phd_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal_setup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#送交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项包含#设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hse_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#作业许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单#作业任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=下拉项，字段=项目类型，内容=日常检修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=作业任务名称，内容=&lt;_普通编码&gt;作业任务名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=作业地点，内容=作业地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=选择项，字段=作业单位，内容=生产运行三车间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=选择项，字段=作业位置，内容=gl-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件控件</t>
-  </si>
-  <si>
-    <t>字段输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=附件，字段=隐患图片，内容=1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本</t>
-  </si>
-  <si>
-    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
-  </si>
-  <si>
-    <t>传入三个参数：类型=文本\下拉项，字段=组织名称，内容=研发部</t>
-  </si>
-  <si>
-    <t>类型=下拉项</t>
-  </si>
-  <si>
-    <t>类型=选择项</t>
-  </si>
-  <si>
-    <t>类型=选择项，字段=所属区域，内容=&lt;_phd_所属区域&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=日期，字段=发现时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐患任务送交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=大文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大文本输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=大文本，字段=隐患描述，内容=&lt;_普通编码&gt;隐患描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-  </si>
-  <si>
-    <t>url#http://192.168.6.105:7050/hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*7050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*7050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#http://192.168.6.105:7050/hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod3_org.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#成功上传更新9条数据!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=多选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选按钮#&lt;字段&gt;#&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=单选</t>
+  </si>
+  <si>
+    <t>小时加按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时减按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示#保存成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=多选，字段=储罐及特殊作业分类，内容=储罐浮舱内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于弹出选择页面的数据查询，传入三个参数：类型=文本\下拉项，字段=组织名称，内容=研发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择页面数据查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=单选，字段=是否承包商，内容=否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#作业票类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段=&lt;查询字段&gt;，内容=&lt;内容&gt;，类型=&lt;查询类型&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -949,113 +1205,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选按钮#&lt;字段&gt;#&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项#&lt;_审批人&gt;</t>
-  </si>
-  <si>
-    <t>列表项索引#1</t>
-  </si>
-  <si>
-    <t>弹出选择页面</t>
-  </si>
-  <si>
-    <t>弹出选择页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项#&lt;_组织编码&gt;组织名称</t>
-  </si>
-  <si>
-    <t>列表项勾选#&lt;_组织编码&gt;组织名称</t>
-  </si>
-  <si>
-    <t>列表项#&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=组织编码，内容=000&lt;_组织编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=组织名称，内容=&lt;_组织编码&gt;组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=员工编号，内容=&lt;_普通编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=姓名，内容=&lt;_普通编码&gt;姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项索引#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=人员手机号，内容=&lt;_人员手机号&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板导入</t>
-  </si>
-  <si>
-    <t>url#http://v3-yfb-portal.hd-cloud.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phd_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal_setup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#送交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表项包含#设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hse_001</t>
+    <t>^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移=&lt;偏移&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup_query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup_query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择页面数据选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=日期，字段=计划开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=日期，字段=计划结束时间，偏移=后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1063,295 +1249,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单#作业许可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单#作业任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=下拉项，字段=项目类型，内容=日常检修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=作业任务名称，内容=&lt;_普通编码&gt;作业任务名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=文本，字段=作业地点，内容=作业地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=选择项，字段=作业单位，内容=生产运行三车间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=选择项，字段=作业位置，内容=gl-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-  </si>
-  <si>
-    <t>小时加按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小时减按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮#保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示#保存成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=多选，字段=储罐及特殊作业分类，内容=储罐浮舱内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url#http://192.168.6.105:7050/hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于弹出选择页面的数据查询，传入三个参数：类型=文本\下拉项，字段=组织名称，内容=研发部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择页面数据查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=单选，字段=是否承包商，内容=否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入框#作业票类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段=&lt;查询字段&gt;，内容=&lt;内容&gt;，类型=&lt;查询类型&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期时间输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏移=前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数：字段=开始时间，偏移=前/后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏移=后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏移=&lt;偏移&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>popup_query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>popup_query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>sql执行示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_pre_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_prod_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_prod_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_pre_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_pre_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_pre_uc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql#SELECT orgid from sy_org where orgname='炼油厂'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgid=1688734</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_reduce*&lt;偏移量&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_add*&lt;偏移量&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移=&lt;偏移&gt;,偏移量=&lt;偏移量&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期减小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_pre_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移=减小</t>
+  </si>
+  <si>
+    <t>参数：字段=开始时间，偏移=减小/增大</t>
+  </si>
+  <si>
+    <t>偏移=增大</t>
   </si>
   <si>
     <t>参数传入【*类型、*字段、内容、查询类型、查询字段】
-类型=文本\大文本\下拉项\选择项\附件\日期\单选\多选，字段=组织名称，内容=研发部，查询类型=文本，查询字段=组织名称，偏移=前/后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择页面数据选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>popup_input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=日期，字段=计划开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型=日期，字段=计划结束时间，偏移=后</t>
+类型=文本\大文本\下拉项\选择项\附件\日期\单选\多选，字段=组织名称，内容=研发部，查询类型=文本，查询字段=组织名称，偏移=减小/增大,偏移量=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏永优</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1838,15 +1842,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
@@ -1870,7 +1874,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -1915,9 +1919,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -1931,9 +1935,11 @@
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -1944,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1989,12 +1995,14 @@
       <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -2017,7 +2025,9 @@
       <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="7" t="s">
         <v>27</v>
       </c>
@@ -2031,862 +2041,796 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C7" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="L6" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D7" s="9">
+      <c r="E7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="L7" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D8" s="9">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="P8" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="F8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" s="20" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="10"/>
       <c r="H10" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D11" s="20" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="20">
-        <v>6</v>
+      <c r="F12" s="10"/>
+      <c r="H12" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="20" t="s">
+        <v>274</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>24</v>
       </c>
+      <c r="F13" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="G13" s="20" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="20">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="H14" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>306</v>
-      </c>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D15" s="20" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="H15" s="21" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D16" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="H16" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D17" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="F17" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D18" s="20">
-        <v>3</v>
-      </c>
-      <c r="E18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>174</v>
+        <v>191</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D19" s="20" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="10"/>
       <c r="H19" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D20" s="20" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>196</v>
-      </c>
+      <c r="F21" s="10"/>
       <c r="H21" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="20" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>196</v>
+        <v>111</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="G22" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D23" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D23" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="G23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D24" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="H23" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D24" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10"/>
+      <c r="H24" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D25" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D26" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="H26" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D27" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A28" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="P28" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D29" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D30" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D25" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="G30" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D31" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="H25" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D26" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D27" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D28" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E28" s="20" t="s">
+      <c r="H31" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D32" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D33" s="20">
+        <v>6</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A34" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="H28" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D29" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D30" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="H30" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="F31" s="10"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="F32" s="10"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D33" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="F34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>212</v>
+      </c>
       <c r="H34" s="21"/>
+      <c r="P34" s="20" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>122</v>
-      </c>
       <c r="D35" s="20" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H35" s="21"/>
-      <c r="P35" s="20" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D36" s="20" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" s="21"/>
+        <v>289</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D37" s="20" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>291</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="D38" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H38" s="21"/>
+        <v>284</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="H38" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="P38" s="20" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="F39" s="10"/>
+      <c r="D39" s="20">
+        <v>5</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>308</v>
+      </c>
       <c r="H39" s="21"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D40" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F40" s="10"/>
-      <c r="H40" s="21"/>
+      <c r="H40" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="B41" s="20" t="s">
+      <c r="D41" s="20">
+        <v>4</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D42" s="11">
+        <v>6</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A43" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="12"/>
+      <c r="L45" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D48" s="11"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A50" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="20" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="20">
+        <v>1</v>
+      </c>
+      <c r="E50" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="H41" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="P41" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D42" s="20">
-        <v>5</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H42" s="21"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D43" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="H43" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D44" s="20">
-        <v>4</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H44" s="21"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D45" s="11">
-        <v>6</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="L46" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D47" s="11">
-        <v>2</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D48" s="10">
-        <v>3</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D49" s="11">
-        <v>4</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D50" s="10">
-        <v>5</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D51" s="11">
-        <v>6</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D52" s="10">
-        <v>7</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D53" s="11">
-        <v>8</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D54" s="10">
-        <v>9</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D55" s="11">
-        <v>10</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D56" s="10">
-        <v>11</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D57" s="11">
-        <v>12</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D58" s="10">
-        <v>13</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D59" s="11">
-        <v>14</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D60" s="10">
-        <v>15</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D61" s="11">
-        <v>16</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D62" s="10">
-        <v>17</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>252</v>
-      </c>
+      <c r="F50" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50 C46:C48 C2:C44">
-      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F7 F14:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F27 F66:F1048576 F1 F34:F44">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F8:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F28:F33 F2:F9 F45:F49">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H41 G42 H43 G30:G40 G1:G28 G44:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H38 G39 H40 G26:G37 G1:G24 G66:G1048576 G41:G49">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E66:E1048576 E1:E49">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41 C43:C47 C49">
+      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2896,16 +2840,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P165"/>
+  <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2979,7 +2923,7 @@
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -2994,10 +2938,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -3008,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -3054,7 +2998,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>22</v>
@@ -3084,7 +3028,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>27</v>
@@ -3110,13 +3054,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -3129,26 +3073,26 @@
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -3159,10 +3103,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -3174,7 +3118,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>37</v>
@@ -3183,610 +3127,677 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="20">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="P10" s="20" t="s">
-        <v>187</v>
+        <v>26</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="H10" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D11" s="20" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>185</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D12" s="20" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F12" s="10"/>
       <c r="H12" s="21" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D13" s="20" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="E13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="20">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="F15" s="10"/>
+      <c r="H15" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="H19" s="21" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="20">
-        <v>6</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="H16" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D17" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D18" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="H18" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D19" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D20" s="20">
-        <v>3</v>
+    <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D21" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D22" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>45</v>
+        <v>255</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D23" s="20" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D24" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D24" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F24" s="10"/>
+      <c r="H24" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D25" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E25" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="H25" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D26" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="F26" s="10"/>
+      <c r="H26" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D27" s="20" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>291</v>
+      </c>
       <c r="H27" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D28" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="L28" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D29" s="20" t="s">
-        <v>263</v>
+        <v>163</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="10"/>
       <c r="H29" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D30" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D33" s="20">
+        <v>6</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="20">
+        <v>1</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="L34" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="P34" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D31" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="4:8" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D32" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E32" s="20" t="s">
+    </row>
+    <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D35" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="H32" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="20" t="s">
+      <c r="H35" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="10" t="s">
+    </row>
+    <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D37" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D38" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="20">
+        <v>6</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40" s="21"/>
+      <c r="L40" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="P40" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D41" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D42" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D43" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="H44" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="P44" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D45" s="20">
+        <v>5</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D46" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D47" s="20">
+        <v>4</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:16" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="11">
+        <v>6</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="11">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="10">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="L34" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="10">
-        <v>2</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="10">
-        <v>3</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="B51" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D37" s="10">
-        <v>4</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D38" s="10">
-        <v>5</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="10">
-        <v>6</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D40" s="10">
-        <v>7</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D41" s="10">
-        <v>8</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="10">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="L42" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D43" s="10">
-        <v>2</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D44" s="10">
-        <v>3</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D45" s="10">
-        <v>4</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="10">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="L46" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D47" s="10">
-        <v>2</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D48" s="10">
-        <v>3</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D49" s="10">
-        <v>4</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D50" s="10">
-        <v>5</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
@@ -3799,7 +3810,7 @@
       </c>
       <c r="H51" s="12"/>
       <c r="L51" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -3819,17 +3830,12 @@
         <v>3</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>186</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D54" s="10">
@@ -3839,7 +3845,7 @@
         <v>24</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="H54" s="12"/>
     </row>
@@ -3848,190 +3854,198 @@
         <v>5</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>24</v>
+        <v>121</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="12"/>
+        <v>213</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D56" s="10">
         <v>6</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>24</v>
+        <v>121</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H56" s="12"/>
+        <v>213</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D57" s="10">
         <v>7</v>
       </c>
       <c r="E57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D58" s="10">
+        <v>8</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="10">
+      <c r="G58" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="10">
         <v>1</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="10" t="s">
+      <c r="E59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H58" s="12"/>
-      <c r="L58" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D59" s="10">
-        <v>2</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="H59" s="12"/>
+      <c r="L59" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="60" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D60" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D61" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>221</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D62" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>226</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="D63" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="H63" s="12"/>
+      <c r="L63" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="64" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D64" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D65" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D66" s="10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D67" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="D68" s="10">
         <v>1</v>
@@ -4044,7 +4058,7 @@
       </c>
       <c r="H68" s="12"/>
       <c r="L68" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -4055,7 +4069,7 @@
         <v>24</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H69" s="12"/>
     </row>
@@ -4064,12 +4078,17 @@
         <v>3</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>24</v>
+        <v>121</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="71" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D71" s="10">
@@ -4079,7 +4098,7 @@
         <v>24</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="H71" s="12"/>
     </row>
@@ -4088,14 +4107,12 @@
         <v>5</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>99</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D73" s="10">
@@ -4105,7 +4122,7 @@
         <v>24</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="H73" s="12"/>
     </row>
@@ -4114,793 +4131,793 @@
         <v>7</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>101</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="D75" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H75" s="12"/>
+      <c r="L75" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="76" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D76" s="10">
+        <v>2</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D77" s="10">
+        <v>3</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D78" s="10">
+        <v>6</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D79" s="10">
+        <v>6</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D80" s="10">
+        <v>8</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D81" s="10">
         <v>9</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E81" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D82" s="10">
+        <v>6</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D83" s="10">
+        <v>12</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D84" s="10">
+        <v>13</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G76" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10">
+      <c r="G84" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="10">
         <v>1</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H77" s="12"/>
-      <c r="L77" s="11" t="s">
+      <c r="E85" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" s="12"/>
+      <c r="L85" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D78" s="11">
+    <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D86" s="10">
         <v>2</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H78" s="14"/>
-    </row>
-    <row r="79" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D79" s="10">
+      <c r="E86" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D87" s="10">
         <v>3</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H79" s="14"/>
-    </row>
-    <row r="80" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D80" s="11">
+      <c r="E87" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D88" s="10">
         <v>4</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H80" s="14"/>
-    </row>
-    <row r="81" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D81" s="10">
+      <c r="E88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D89" s="10">
         <v>5</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H81" s="14"/>
-    </row>
-    <row r="82" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D82" s="11">
+      <c r="E89" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D90" s="10">
         <v>6</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H82" s="14"/>
-    </row>
-    <row r="83" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D83" s="10">
+      <c r="E90" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D91" s="10">
         <v>7</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D92" s="10">
+        <v>8</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D93" s="10">
+        <v>9</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H83" s="14"/>
-    </row>
-    <row r="84" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D84" s="11">
-        <v>8</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D85" s="10">
-        <v>9</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="10">
-        <v>1</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H86" s="12"/>
-      <c r="L86" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D87" s="10">
-        <v>2</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H87" s="12"/>
-    </row>
-    <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D88" s="10">
-        <v>3</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H88" s="12"/>
-    </row>
-    <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D89" s="10">
-        <v>4</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H89" s="12"/>
-    </row>
-    <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D90" s="10">
-        <v>5</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D91" s="10">
-        <v>6</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H91" s="12"/>
-    </row>
-    <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D92" s="10">
-        <v>7</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D93" s="10">
-        <v>8</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>42</v>
       </c>
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="10"/>
       <c r="D94" s="10">
+        <v>1</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H94" s="12"/>
+      <c r="L94" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D95" s="11">
+        <v>2</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" s="14"/>
+    </row>
+    <row r="96" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D96" s="10">
+        <v>3</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H96" s="14"/>
+    </row>
+    <row r="97" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D97" s="11">
+        <v>4</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D98" s="10">
+        <v>5</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D99" s="11">
+        <v>6</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D100" s="10">
+        <v>7</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D101" s="11">
+        <v>8</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D102" s="10">
         <v>9</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H94" s="12"/>
-    </row>
-    <row r="95" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" s="10" t="s">
+      <c r="E102" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" s="10">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D95" s="10">
-        <v>1</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H95" s="12"/>
-      <c r="L95" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D96" s="10">
+      <c r="H103" s="12"/>
+      <c r="L103" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D104" s="10">
         <v>2</v>
       </c>
-      <c r="E96" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H96" s="12"/>
-    </row>
-    <row r="97" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D97" s="10">
+      <c r="E104" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" s="12"/>
+    </row>
+    <row r="105" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D105" s="10">
         <v>3</v>
       </c>
-      <c r="E97" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H97" s="12"/>
-    </row>
-    <row r="98" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D98" s="10">
+      <c r="E105" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H105" s="12"/>
+    </row>
+    <row r="106" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D106" s="10">
         <v>4</v>
       </c>
-      <c r="E98" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H98" s="12"/>
-    </row>
-    <row r="99" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D99" s="10">
+      <c r="E106" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" s="12"/>
+    </row>
+    <row r="107" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D107" s="10">
         <v>5</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E107" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D100" s="10">
+      <c r="G107" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D108" s="10">
         <v>6</v>
       </c>
-      <c r="E100" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H100" s="12"/>
-    </row>
-    <row r="101" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D101" s="10">
+      <c r="E108" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D109" s="10">
         <v>7</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D102" s="10">
-        <v>8</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H102" s="12"/>
-    </row>
-    <row r="103" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D103" s="10">
-        <v>9</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D104" s="10">
-        <v>10</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H104" s="12"/>
-    </row>
-    <row r="105" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D105" s="10">
-        <v>11</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H105" s="12"/>
-    </row>
-    <row r="106" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D106" s="10">
-        <v>12</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H106" s="12"/>
-    </row>
-    <row r="107" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D107" s="10">
-        <v>13</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H107" s="12"/>
-    </row>
-    <row r="108" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D108" s="10">
-        <v>14</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H108" s="12"/>
-    </row>
-    <row r="109" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D109" s="10">
-        <v>15</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="110" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D110" s="10">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D111" s="10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="H111" s="12"/>
     </row>
-    <row r="112" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="D112" s="10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H112" s="12"/>
-    </row>
-    <row r="113" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="L112" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D113" s="10">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H113" s="12"/>
     </row>
-    <row r="114" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>67</v>
-      </c>
+    <row r="114" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D114" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H114" s="12"/>
-      <c r="L114" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D115" s="11">
-        <v>2</v>
+    </row>
+    <row r="115" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D115" s="10">
+        <v>4</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H115" s="14"/>
-    </row>
-    <row r="116" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="H115" s="12"/>
+    </row>
+    <row r="116" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D116" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H116" s="14"/>
-    </row>
-    <row r="117" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D117" s="11">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D117" s="10">
+        <v>6</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F117" s="10"/>
       <c r="G117" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H117" s="14"/>
-    </row>
-    <row r="118" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D118" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F118" s="10"/>
       <c r="G118" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H118" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D119" s="11">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D119" s="10">
+        <v>8</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H119" s="14"/>
-    </row>
-    <row r="120" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="H119" s="12"/>
+    </row>
+    <row r="120" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D120" s="10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="10"/>
+        <v>20</v>
+      </c>
       <c r="G120" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D121" s="10">
+        <v>10</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D122" s="10">
+        <v>11</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H122" s="12"/>
+    </row>
+    <row r="123" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D123" s="10">
+        <v>12</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D124" s="10">
+        <v>13</v>
+      </c>
+      <c r="E124" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H120" s="14"/>
-    </row>
-    <row r="121" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D121" s="10">
-        <v>1</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H121" s="12"/>
-      <c r="L121" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D122" s="11">
-        <v>2</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H122" s="14"/>
-    </row>
-    <row r="123" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D123" s="10">
-        <v>3</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10" t="s">
+      <c r="F124" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D125" s="10">
+        <v>14</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" s="12"/>
+    </row>
+    <row r="126" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D126" s="10">
+        <v>15</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H126" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D127" s="10">
+        <v>16</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H127" s="12"/>
+    </row>
+    <row r="128" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D128" s="10">
+        <v>17</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H128" s="12"/>
+    </row>
+    <row r="129" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D129" s="10">
+        <v>18</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H123" s="14"/>
-    </row>
-    <row r="124" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D124" s="11">
-        <v>4</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D125" s="10">
-        <v>5</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D126" s="11">
-        <v>6</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H126" s="12"/>
-    </row>
-    <row r="127" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D127" s="10">
-        <v>7</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H127" s="12"/>
-    </row>
-    <row r="128" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D128" s="11">
-        <v>8</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H128" s="12"/>
-    </row>
-    <row r="129" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D129" s="10">
-        <v>9</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H129" s="14"/>
-    </row>
-    <row r="130" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D130" s="11">
-        <v>10</v>
+      <c r="H129" s="12"/>
+    </row>
+    <row r="130" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D130" s="10">
+        <v>19</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F130" s="10"/>
       <c r="G130" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H130" s="14"/>
-    </row>
-    <row r="131" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A131" s="10" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>67</v>
+        <v>95</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="D131" s="10">
         <v>1</v>
@@ -4908,556 +4925,798 @@
       <c r="E131" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F131" s="10"/>
       <c r="G131" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H131" s="14"/>
-      <c r="L131" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="D132" s="10">
+        <v>67</v>
+      </c>
+      <c r="H131" s="12"/>
+      <c r="L131" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D132" s="11">
         <v>2</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="H132" s="14"/>
     </row>
-    <row r="133" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
+    <row r="133" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D133" s="10">
         <v>3</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D134" s="10">
-        <v>1</v>
+    <row r="134" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D134" s="11">
+        <v>4</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H134" s="12"/>
-      <c r="L134" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D135" s="11">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="H134" s="14"/>
+    </row>
+    <row r="135" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D135" s="10">
+        <v>5</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F135" s="10"/>
       <c r="G135" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H135" s="14"/>
-    </row>
-    <row r="136" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D136" s="11" t="s">
-        <v>107</v>
+        <v>44</v>
+      </c>
+      <c r="H135" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D136" s="11">
+        <v>6</v>
       </c>
       <c r="E136" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H136" s="14"/>
+    </row>
+    <row r="137" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D137" s="10">
+        <v>7</v>
+      </c>
+      <c r="E137" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H136" s="14"/>
-    </row>
-    <row r="137" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D137" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D138" s="11" t="s">
-        <v>109</v>
+    <row r="138" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D138" s="10">
+        <v>1</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="10"/>
+        <v>24</v>
+      </c>
       <c r="G138" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H138" s="14"/>
-    </row>
-    <row r="139" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D139" s="10" t="s">
-        <v>133</v>
+        <v>54</v>
+      </c>
+      <c r="H138" s="12"/>
+      <c r="L138" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D139" s="11">
+        <v>2</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D140" s="10" t="s">
-        <v>134</v>
+    <row r="140" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D140" s="10">
+        <v>3</v>
       </c>
       <c r="E140" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D141" s="11" t="s">
-        <v>135</v>
+        <v>40</v>
+      </c>
+      <c r="H140" s="14"/>
+    </row>
+    <row r="141" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D141" s="11">
+        <v>4</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F141" s="10"/>
       <c r="G141" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H141" s="14"/>
-    </row>
-    <row r="142" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D142" s="10" t="s">
-        <v>136</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D142" s="10">
+        <v>5</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H142" s="14"/>
-    </row>
-    <row r="143" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>67</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D143" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H143" s="14"/>
-      <c r="L143" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D144" s="11">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="H143" s="12"/>
+    </row>
+    <row r="144" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D144" s="10">
+        <v>7</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+      <c r="H144" s="12"/>
+    </row>
+    <row r="145" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D145" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H145" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D146" s="11">
-        <v>4</v>
+        <v>135</v>
+      </c>
+      <c r="H145" s="12"/>
+    </row>
+    <row r="146" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D146" s="10">
+        <v>9</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F146" s="10"/>
       <c r="G146" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+      <c r="H146" s="14"/>
+    </row>
+    <row r="147" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D147" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H147" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D148" s="11">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="H147" s="14"/>
+    </row>
+    <row r="148" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D148" s="10">
+        <v>1</v>
       </c>
       <c r="E148" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F148" s="10"/>
       <c r="G148" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H148" s="14"/>
+      <c r="L148" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="D149" s="10">
+        <v>2</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H149" s="14"/>
+    </row>
+    <row r="150" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="D150" s="10">
+        <v>3</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G150" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="14"/>
-    </row>
-    <row r="149" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D149" s="11">
-        <v>7</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F149" t="s">
-        <v>216</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D150" s="11">
-        <v>8</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F150" s="11"/>
-      <c r="G150" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D151" s="11">
-        <v>9</v>
+      <c r="H150" s="14"/>
+    </row>
+    <row r="151" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D151" s="10">
+        <v>1</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D152" s="10">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="H151" s="12"/>
+      <c r="L151" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D152" s="11">
+        <v>2</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H152" s="12"/>
-      <c r="L152" s="11" t="s">
-        <v>116</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H152" s="14"/>
     </row>
     <row r="153" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D153" s="11">
-        <v>2</v>
+      <c r="D153" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="10" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="H153" s="14"/>
     </row>
     <row r="154" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D154" s="10">
-        <v>3</v>
+      <c r="D154" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="H154" s="14"/>
     </row>
     <row r="155" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D155" s="11">
-        <v>4</v>
+      <c r="D155" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F155" s="10"/>
       <c r="G155" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H155" s="14" t="s">
-        <v>190</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="H155" s="14"/>
     </row>
     <row r="156" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D156" s="10">
-        <v>5</v>
+      <c r="D156" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F156" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F156" s="10"/>
       <c r="G156" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H156" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D157" s="11">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="H156" s="14"/>
+    </row>
+    <row r="157" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D157" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H157" s="14" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D158" s="10">
-        <v>7</v>
+      <c r="D158" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F158" s="10" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H158" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D159" s="11">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="H158" s="14"/>
+    </row>
+    <row r="159" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D159" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F159" s="19"/>
-      <c r="G159" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D160" s="10">
-        <v>9</v>
-      </c>
-      <c r="E160" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F160" s="19"/>
-      <c r="G160" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C161" s="10" t="s">
+      <c r="F159" s="10"/>
+      <c r="G159" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H159" s="14"/>
+    </row>
+    <row r="160" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A160" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D160" s="11">
+        <v>1</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D161" s="10">
-        <v>1</v>
+      <c r="H160" s="14"/>
+      <c r="L160" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D161" s="11">
+        <v>2</v>
       </c>
       <c r="E161" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D162" s="11">
+        <v>3</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H162" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D163" s="11">
+        <v>4</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D164" s="11">
+        <v>5</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H164" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D165" s="11">
+        <v>6</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H165" s="14"/>
+    </row>
+    <row r="166" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D166" s="11">
+        <v>7</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" t="s">
+        <v>208</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D167" s="11">
+        <v>8</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F167" s="11"/>
+      <c r="G167" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D168" s="11">
+        <v>9</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D169" s="10">
+        <v>1</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H169" s="12"/>
+      <c r="L169" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D170" s="11">
+        <v>2</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H170" s="14"/>
+    </row>
+    <row r="171" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D171" s="10">
+        <v>3</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H171" s="14"/>
+    </row>
+    <row r="172" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D172" s="11">
+        <v>4</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H172" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D173" s="10">
+        <v>5</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D174" s="11">
+        <v>6</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D175" s="10">
+        <v>7</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G175" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D176" s="11">
+        <v>8</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F176" s="19"/>
+      <c r="G176" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D177" s="10">
+        <v>9</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F177" s="19"/>
+      <c r="G177" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D178" s="10">
+        <v>1</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H178" s="12"/>
+      <c r="L178" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11">
+        <v>2</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H179" s="14"/>
+    </row>
+    <row r="180" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="10">
+        <v>3</v>
+      </c>
+      <c r="E180" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G180" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H180" s="14"/>
+    </row>
+    <row r="181" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11">
+        <v>4</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G181" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H161" s="12"/>
-      <c r="L161" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11">
-        <v>2</v>
-      </c>
-      <c r="E162" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F162" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H162" s="14"/>
-    </row>
-    <row r="163" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="10">
-        <v>3</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F163" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H163" s="14"/>
-    </row>
-    <row r="164" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11">
-        <v>4</v>
-      </c>
-      <c r="E164" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F164" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H164" s="14"/>
-    </row>
-    <row r="165" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11">
+      <c r="H181" s="14"/>
+    </row>
+    <row r="182" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11">
         <v>5</v>
       </c>
-      <c r="E165" s="10" t="s">
+      <c r="E182" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H165" s="14"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H182" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86:C143 C161:C165 C158 C152:C156 C2:C83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C103:C160 C178:C182 C175 C169:C173 C51:C100 C2:C47 C49:C50">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F34:F1048576 F1:F15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F51:F1048576 F1:F9 F28:F39">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F16:F33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F27 F40:F50">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G24 G26:G43 H44 G45 H46 G47:G1048576">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
@@ -5466,7 +5725,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5477,7 +5735,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5567,7 +5825,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -5578,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -5680,7 +5938,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -5705,11 +5963,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -5720,7 +5978,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -5735,7 +5993,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -6306,12 +6564,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6401,7 +6659,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -6412,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -6436,7 +6694,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -6462,7 +6720,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -6514,7 +6772,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -6539,11 +6797,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -6554,7 +6812,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -6569,13 +6827,282 @@
         <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="L10" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="11">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="11">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D16" s="10">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="11">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="10">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="11">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D20" s="10">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D21" s="11">
+        <v>12</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D22" s="10">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D23" s="11">
+        <v>14</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D24" s="10">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D25" s="11">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D26" s="10">
+        <v>17</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12 C14">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
@@ -6584,6 +7111,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G1048576">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F26">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1428" windowWidth="23256" windowHeight="10896"/>
+    <workbookView xWindow="276" yWindow="1428" windowWidth="23256" windowHeight="10896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0">
+    <comment ref="A37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,8 +94,33 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>参数传入【*类型、*字段、内容、查询类型、查询字段】</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="328">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -759,10 +784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入框#&lt;字段&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;内容&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -923,10 +944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型=文本，字段=组织编码，内容=000&lt;_组织编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输入框#组织名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1045,10 +1062,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>^4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>^6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1206,10 +1219,6 @@
   </si>
   <si>
     <t>^3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏移=&lt;偏移&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1355,7 +1364,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魏永优</t>
+    <t>类型=文本，字段=组织编码，内容=&lt;_组织编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text=text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#&lt;字段&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容=&lt;内容&gt;，字段=&lt;字段&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;text&gt;&lt;内容&gt;，清除文本=否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1842,15 +1883,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
@@ -1874,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -1921,7 +1962,7 @@
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -1936,10 +1977,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -2052,13 +2093,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2071,13 +2112,13 @@
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -2086,7 +2127,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
@@ -2101,10 +2142,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -2116,13 +2157,13 @@
         <v>26</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
@@ -2136,204 +2177,204 @@
         <v>120</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D11" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D12" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D13" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D14" s="20">
-        <v>3</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="21"/>
+      <c r="D14" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="H14" s="21" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D15" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="10"/>
+        <v>270</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>322</v>
+      </c>
       <c r="H15" s="21" t="s">
-        <v>180</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D16" s="20" t="s">
-        <v>273</v>
+      <c r="D16" s="20">
+        <v>4</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>171</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D17" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D19" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="10"/>
       <c r="H19" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D20" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>154</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D23" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>155</v>
@@ -2342,19 +2383,19 @@
     </row>
     <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D24" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="10"/>
       <c r="H24" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D25" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>121</v>
@@ -2363,27 +2404,27 @@
         <v>122</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D26" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="10"/>
       <c r="H26" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D27" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>121</v>
@@ -2392,18 +2433,15 @@
         <v>122</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>120</v>
@@ -2411,425 +2449,579 @@
       <c r="D28" s="20">
         <v>1</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="G28" s="20" t="s">
+      <c r="E28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="J28" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D29" s="20">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D30" s="20">
+        <v>3</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A31" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="P28" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D29" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D30" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D31" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>183</v>
+      <c r="H31" s="21"/>
+      <c r="P31" s="20" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D32" s="20" t="s">
-        <v>280</v>
+        <v>163</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="33" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D33" s="20">
-        <v>6</v>
+      <c r="D33" s="20" t="s">
+        <v>278</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>120</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H34" s="21"/>
-      <c r="P34" s="20" t="s">
-        <v>257</v>
+      <c r="H34" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D35" s="20" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="E35" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D36" s="20">
+        <v>6</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A37" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="P37" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D38" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D36" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D37" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="H38" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="P38" s="20" t="s">
-        <v>319</v>
-      </c>
+      <c r="F38" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D39" s="20">
-        <v>5</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="L39" s="10"/>
+      <c r="G39" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D40" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A41" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="H40" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D41" s="20">
+      <c r="F41" s="10"/>
+      <c r="H41" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="P41" s="20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D42" s="20">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D43" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="H43" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D44" s="20">
         <v>4</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G44" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D45" s="11">
+        <v>6</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="H41" s="21"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D42" s="11">
-        <v>6</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C43" s="20" t="s">
+      <c r="B47" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D47" s="11">
         <v>1</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="11">
-        <v>1</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="12"/>
-      <c r="L45" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D48" s="11"/>
+      <c r="E47" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="1:10" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20">
+      <c r="H48" s="12"/>
+      <c r="L48" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A49" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="10">
         <v>1</v>
       </c>
-      <c r="E50" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-    </row>
-    <row r="53" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-    </row>
-    <row r="55" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-    </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="E49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="L49" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D50" s="10">
+        <v>2</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D51" s="10">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D52" s="10">
+        <v>4</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D53" s="10">
+        <v>5</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D54" s="10">
+        <v>6</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D55" s="10">
+        <v>7</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D56" s="10">
+        <v>8</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A58" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20">
+        <v>1</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F27 F66:F1048576 F1 F34:F44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F37:F47 F74:F1048576 F1 F10:F30">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F28:F33 F2:F9 F45:F49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F31:F36 F2:F9 F48:F57">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H38 G39 H40 G26:G37 G1:G24 G66:G1048576 G41:G49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H41 G42 H43 G44:G57 G1:G24 G74:G1048576 G26:G40">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E66:E1048576 E1:E49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E74:E1048576 E1:E57">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C41 C43:C47 C49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46:C57 C2:C44">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2840,16 +3032,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P182"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2923,7 +3115,7 @@
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -2938,10 +3130,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -3054,13 +3246,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -3073,13 +3265,13 @@
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -3088,7 +3280,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
@@ -3103,10 +3295,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -3118,7 +3310,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>37</v>
@@ -3138,38 +3330,38 @@
         <v>120</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>199</v>
-      </c>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D12" s="20" t="s">
         <v>163</v>
       </c>
@@ -3178,147 +3370,147 @@
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D13" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="20">
-        <v>3</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="H14" s="21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D15" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="10"/>
+        <v>270</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>322</v>
+      </c>
       <c r="H15" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="20" t="s">
-        <v>273</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D16" s="20">
+        <v>4</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>323</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D17" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>169</v>
       </c>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D19" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="10"/>
       <c r="H19" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D20" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>154</v>
@@ -3327,36 +3519,36 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D23" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>155</v>
       </c>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D24" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="10"/>
       <c r="H24" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D25" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>121</v>
@@ -3365,27 +3557,27 @@
         <v>122</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D26" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="10"/>
       <c r="H26" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D27" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>121</v>
@@ -3394,10 +3586,10 @@
         <v>122</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -3421,10 +3613,10 @@
       </c>
       <c r="H28" s="21"/>
       <c r="L28" s="20" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -3435,12 +3627,12 @@
         <v>26</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D30" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>20</v>
@@ -3454,18 +3646,18 @@
     </row>
     <row r="31" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D31" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D32" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>24</v>
@@ -3487,12 +3679,9 @@
       </c>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>120</v>
@@ -3500,751 +3689,769 @@
       <c r="D34" s="20">
         <v>1</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="G34" s="20" t="s">
+      <c r="E34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="J34" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D35" s="20">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D36" s="20">
+        <v>3</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="20">
+        <v>1</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="L34" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="P34" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D37" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>183</v>
+      <c r="H37" s="21"/>
+      <c r="L37" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D38" s="20" t="s">
-        <v>280</v>
+        <v>163</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="20">
-        <v>6</v>
+      <c r="D39" s="20" t="s">
+        <v>278</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>120</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="L40" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="P40" s="20" t="s">
-        <v>257</v>
+      <c r="H40" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D41" s="20" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="E41" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D42" s="20">
+        <v>6</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="L43" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D42" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D43" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="H44" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="P44" s="20" t="s">
-        <v>319</v>
-      </c>
+      <c r="F44" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D45" s="20">
-        <v>5</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H45" s="21"/>
-      <c r="L45" s="10"/>
+      <c r="G45" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="46" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D46" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="E46" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="H46" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="L46" s="10"/>
-    </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D47" s="20">
+      <c r="F47" s="10"/>
+      <c r="H47" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="20">
+        <v>5</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="H49" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D50" s="20">
         <v>4</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F50" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G50" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H50" s="21"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D51" s="11">
+        <v>6</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="1:16" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D48" s="11">
+      <c r="B53" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="L54" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D55" s="10">
+        <v>2</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D56" s="10">
+        <v>3</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D57" s="10">
+        <v>4</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D58" s="10">
+        <v>5</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D59" s="10">
         <v>6</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="11">
+      <c r="E59" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D60" s="10">
+        <v>7</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D61" s="10">
+        <v>8</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="10">
         <v>1</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="11">
+      <c r="E62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="L62" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D63" s="10">
+        <v>2</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D64" s="10">
+        <v>3</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D65" s="10">
+        <v>4</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="10">
         <v>1</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="10">
+      <c r="E66" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="12"/>
+      <c r="L66" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D67" s="10">
+        <v>2</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D68" s="10">
+        <v>3</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D69" s="10">
+        <v>4</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D70" s="10">
+        <v>5</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="10">
         <v>1</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="10" t="s">
+      <c r="E71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H51" s="12"/>
-      <c r="L51" s="10" t="s">
+      <c r="H71" s="12"/>
+      <c r="L71" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D52" s="10">
+    <row r="72" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D72" s="10">
         <v>2</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="10" t="s">
+      <c r="E72" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D53" s="10">
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D73" s="10">
         <v>3</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D54" s="10">
+      <c r="E73" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D74" s="10">
         <v>4</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="10" t="s">
+      <c r="E74" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D75" s="10">
+        <v>5</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D76" s="10">
+        <v>6</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D77" s="10">
+        <v>7</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="L78" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D79" s="10">
+        <v>2</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D80" s="10">
+        <v>3</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D55" s="10">
-        <v>5</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D81" s="10">
+        <v>6</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F81" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D56" s="10">
-        <v>6</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D57" s="10">
-        <v>7</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D58" s="10">
-        <v>8</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="10">
-        <v>1</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="L59" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D60" s="10">
-        <v>2</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D61" s="10">
-        <v>3</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D62" s="10">
-        <v>4</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="10">
-        <v>1</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H63" s="12"/>
-      <c r="L63" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D64" s="10">
-        <v>2</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D65" s="10">
-        <v>3</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D66" s="10">
-        <v>4</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D67" s="10">
-        <v>5</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H67" s="12"/>
-    </row>
-    <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="L68" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D69" s="10">
-        <v>2</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D70" s="10">
-        <v>3</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D71" s="10">
-        <v>4</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H71" s="12"/>
-    </row>
-    <row r="72" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D72" s="10">
-        <v>5</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H72" s="12"/>
-    </row>
-    <row r="73" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D73" s="10">
-        <v>6</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D74" s="10">
-        <v>7</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="10">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H75" s="12"/>
-      <c r="L75" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D76" s="10">
-        <v>2</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D77" s="10">
-        <v>3</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H77" s="12"/>
-    </row>
-    <row r="78" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D78" s="10">
-        <v>6</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D79" s="10">
-        <v>6</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D80" s="10">
-        <v>8</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" s="10" t="s">
+      <c r="G81" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H81" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="H80" s="12"/>
-    </row>
-    <row r="81" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D81" s="10">
-        <v>9</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H81" s="12"/>
-    </row>
-    <row r="82" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D82" s="10">
         <v>6</v>
       </c>
@@ -4255,265 +4462,268 @@
         <v>122</v>
       </c>
       <c r="G82" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D83" s="10">
+        <v>8</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H82" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D83" s="10">
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D84" s="10">
+        <v>9</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D85" s="10">
+        <v>6</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D86" s="10">
         <v>12</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" s="10" t="s">
+      <c r="E86" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H83" s="12"/>
-    </row>
-    <row r="84" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D84" s="10">
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D87" s="10">
         <v>13</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E87" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="12"/>
-    </row>
-    <row r="85" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="10" t="s">
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D88" s="10">
         <v>1</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" s="10" t="s">
+      <c r="E88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H85" s="12"/>
-      <c r="L85" s="10" t="s">
+      <c r="H88" s="12"/>
+      <c r="L88" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D86" s="10">
+    <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D89" s="10">
         <v>2</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" s="10" t="s">
+      <c r="E89" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H86" s="12"/>
-    </row>
-    <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D87" s="10">
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D90" s="10">
         <v>3</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" s="10" t="s">
+      <c r="E90" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H87" s="12"/>
-    </row>
-    <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D88" s="10">
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D91" s="10">
         <v>4</v>
       </c>
-      <c r="E88" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="10" t="s">
+      <c r="E91" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="12"/>
-    </row>
-    <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D89" s="10">
+      <c r="H91" s="12"/>
+    </row>
+    <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D92" s="10">
         <v>5</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E92" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="H92" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D90" s="10">
+    <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D93" s="10">
         <v>6</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" s="10" t="s">
+      <c r="E93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H90" s="12"/>
-    </row>
-    <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D91" s="10">
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D94" s="10">
         <v>7</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G94" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H91" s="12" t="s">
+      <c r="H94" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D92" s="10">
+    <row r="95" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D95" s="10">
         <v>8</v>
       </c>
-      <c r="E92" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" s="10" t="s">
+      <c r="E95" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H92" s="12"/>
-    </row>
-    <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D93" s="10">
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D96" s="10">
         <v>9</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E96" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G96" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H93" s="12"/>
-    </row>
-    <row r="94" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="10" t="s">
+      <c r="H96" s="12"/>
+    </row>
+    <row r="97" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10">
+      <c r="C97" s="10"/>
+      <c r="D97" s="10">
         <v>1</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10" t="s">
+      <c r="E97" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H94" s="12"/>
-      <c r="L94" s="11" t="s">
+      <c r="H97" s="12"/>
+      <c r="L97" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D95" s="11">
+    <row r="98" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D98" s="11">
         <v>2</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10" t="s">
+      <c r="E98" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H95" s="14"/>
-    </row>
-    <row r="96" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D96" s="10">
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D99" s="10">
         <v>3</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H96" s="14"/>
-    </row>
-    <row r="97" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D97" s="11">
-        <v>4</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H97" s="14"/>
-    </row>
-    <row r="98" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D98" s="10">
-        <v>5</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H98" s="14"/>
-    </row>
-    <row r="99" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D99" s="11">
-        <v>6</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D100" s="10">
-        <v>7</v>
+    <row r="100" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D100" s="11">
+        <v>4</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="G100" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D101" s="11">
-        <v>8</v>
+    <row r="101" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D101" s="10">
+        <v>5</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>24</v>
@@ -4524,10 +4734,11 @@
       <c r="G101" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D102" s="10">
-        <v>9</v>
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D102" s="11">
+        <v>6</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>24</v>
@@ -4536,689 +4747,670 @@
       <c r="G102" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="10" t="s">
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D103" s="10">
+        <v>7</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D104" s="11">
+        <v>8</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D105" s="10">
+        <v>9</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B106" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D106" s="10">
         <v>1</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" s="10" t="s">
+      <c r="E106" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H103" s="12"/>
-      <c r="L103" s="10" t="s">
+      <c r="H106" s="12"/>
+      <c r="L106" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D104" s="10">
-        <v>2</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H104" s="12"/>
-    </row>
-    <row r="105" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D105" s="10">
-        <v>3</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H105" s="12"/>
-    </row>
-    <row r="106" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D106" s="10">
-        <v>4</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D107" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>100</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D108" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H108" s="12"/>
     </row>
     <row r="109" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D109" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>97</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D110" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H110" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="111" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D111" s="10">
+        <v>6</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H111" s="12"/>
+    </row>
+    <row r="112" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D112" s="10">
+        <v>7</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D113" s="10">
+        <v>8</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H113" s="12"/>
+    </row>
+    <row r="114" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D114" s="10">
         <v>9</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E114" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G114" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H111" s="12"/>
-    </row>
-    <row r="112" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="10" t="s">
+      <c r="H114" s="12"/>
+    </row>
+    <row r="115" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D115" s="10">
         <v>1</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" s="10" t="s">
+      <c r="E115" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H112" s="12"/>
-      <c r="L112" s="10" t="s">
+      <c r="H115" s="12"/>
+      <c r="L115" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D113" s="10">
+    <row r="116" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D116" s="10">
         <v>2</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" s="10" t="s">
+      <c r="E116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H113" s="12"/>
-    </row>
-    <row r="114" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D114" s="10">
+      <c r="H116" s="12"/>
+    </row>
+    <row r="117" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D117" s="10">
         <v>3</v>
       </c>
-      <c r="E114" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" s="10" t="s">
+      <c r="E117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H114" s="12"/>
-    </row>
-    <row r="115" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D115" s="10">
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D118" s="10">
         <v>4</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" s="10" t="s">
+      <c r="E118" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H115" s="12"/>
-    </row>
-    <row r="116" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D116" s="10">
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D119" s="10">
         <v>5</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E119" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="G119" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H116" s="12" t="s">
+      <c r="H119" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D117" s="10">
+    <row r="120" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D120" s="10">
         <v>6</v>
       </c>
-      <c r="E117" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" s="10" t="s">
+      <c r="E120" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H117" s="12"/>
-    </row>
-    <row r="118" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D118" s="10">
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D121" s="10">
         <v>7</v>
       </c>
-      <c r="E118" s="10" t="s">
+      <c r="E121" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G121" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H118" s="12" t="s">
+      <c r="H121" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D119" s="10">
+    <row r="122" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D122" s="10">
         <v>8</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" s="10" t="s">
+      <c r="E122" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H119" s="12"/>
-    </row>
-    <row r="120" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D120" s="10">
+      <c r="H122" s="12"/>
+    </row>
+    <row r="123" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D123" s="10">
         <v>9</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E123" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G120" s="10" t="s">
+      <c r="G123" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H120" s="12" t="s">
+      <c r="H123" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D121" s="10">
+    <row r="124" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D124" s="10">
         <v>10</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" s="10" t="s">
+      <c r="E124" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H121" s="12"/>
-    </row>
-    <row r="122" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D122" s="10">
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D125" s="10">
         <v>11</v>
       </c>
-      <c r="E122" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" s="10" t="s">
+      <c r="E125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H122" s="12"/>
-    </row>
-    <row r="123" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D123" s="10">
+      <c r="H125" s="12"/>
+    </row>
+    <row r="126" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D126" s="10">
         <v>12</v>
       </c>
-      <c r="E123" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" s="10" t="s">
+      <c r="E126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H123" s="12"/>
-    </row>
-    <row r="124" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D124" s="10">
+      <c r="H126" s="12"/>
+    </row>
+    <row r="127" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D127" s="10">
         <v>13</v>
       </c>
-      <c r="E124" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F124" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G124" s="10" t="s">
+      <c r="F127" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H124" s="12"/>
-    </row>
-    <row r="125" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D125" s="10">
+      <c r="G127" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H127" s="12"/>
+    </row>
+    <row r="128" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D128" s="10">
         <v>14</v>
       </c>
-      <c r="E125" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" s="10" t="s">
+      <c r="E128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="H125" s="12"/>
-    </row>
-    <row r="126" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D126" s="10">
-        <v>15</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H126" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="127" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D127" s="10">
-        <v>16</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H127" s="12"/>
-    </row>
-    <row r="128" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D128" s="10">
-        <v>17</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="H128" s="12"/>
     </row>
     <row r="129" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D129" s="10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H129" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="130" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D130" s="10">
+        <v>16</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D131" s="10">
+        <v>17</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H131" s="12"/>
+    </row>
+    <row r="132" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D132" s="10">
+        <v>18</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H132" s="12"/>
+    </row>
+    <row r="133" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D133" s="10">
         <v>19</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E133" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G130" s="10" t="s">
+      <c r="G133" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H130" s="12"/>
-    </row>
-    <row r="131" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="10" t="s">
+      <c r="H133" s="12"/>
+    </row>
+    <row r="134" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B134" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D134" s="10">
         <v>1</v>
       </c>
-      <c r="E131" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" s="10" t="s">
+      <c r="E134" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H131" s="12"/>
-      <c r="L131" s="10" t="s">
+      <c r="H134" s="12"/>
+      <c r="L134" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D132" s="11">
+    <row r="135" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D135" s="11">
         <v>2</v>
       </c>
-      <c r="E132" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" s="10" t="s">
+      <c r="E135" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H132" s="14"/>
-    </row>
-    <row r="133" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D133" s="10">
+      <c r="H135" s="14"/>
+    </row>
+    <row r="136" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D136" s="10">
         <v>3</v>
       </c>
-      <c r="E133" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" s="10" t="s">
+      <c r="E136" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H133" s="14"/>
-    </row>
-    <row r="134" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D134" s="11">
+      <c r="H136" s="14"/>
+    </row>
+    <row r="137" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D137" s="11">
         <v>4</v>
       </c>
-      <c r="E134" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H134" s="14"/>
-    </row>
-    <row r="135" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D135" s="10">
-        <v>5</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H135" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D136" s="11">
-        <v>6</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H136" s="14"/>
-    </row>
-    <row r="137" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D137" s="10">
-        <v>7</v>
-      </c>
       <c r="E137" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>64</v>
-      </c>
+    <row r="138" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D138" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F138" s="10"/>
       <c r="G138" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H138" s="12"/>
-      <c r="L138" s="10" t="s">
-        <v>114</v>
+        <v>44</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D139" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F139" s="10"/>
       <c r="G139" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H139" s="14"/>
     </row>
     <row r="140" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D140" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H140" s="14"/>
     </row>
-    <row r="141" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D141" s="11">
-        <v>4</v>
+    <row r="141" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D141" s="10">
+        <v>1</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F141" s="10"/>
       <c r="G141" s="10" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="H141" s="12"/>
+      <c r="L141" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D142" s="10">
-        <v>5</v>
+      <c r="D142" s="11">
+        <v>2</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H142" s="12" t="s">
-        <v>98</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H142" s="14"/>
     </row>
     <row r="143" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D143" s="11">
-        <v>6</v>
+      <c r="D143" s="10">
+        <v>3</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H143" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="H143" s="14"/>
     </row>
     <row r="144" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D144" s="10">
-        <v>7</v>
+      <c r="D144" s="11">
+        <v>4</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H144" s="12"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="145" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D145" s="11">
-        <v>8</v>
+      <c r="D145" s="10">
+        <v>5</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H145" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="146" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D146" s="10">
-        <v>9</v>
+      <c r="D146" s="11">
+        <v>6</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F146" s="10"/>
       <c r="G146" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H146" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D147" s="11">
-        <v>10</v>
+      <c r="D147" s="10">
+        <v>7</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H147" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D148" s="10">
-        <v>1</v>
+      <c r="D148" s="11">
+        <v>8</v>
       </c>
       <c r="E148" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H148" s="14"/>
-      <c r="L148" s="11" t="s">
-        <v>114</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H148" s="12"/>
     </row>
     <row r="149" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
       <c r="D149" s="10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="H149" s="14"/>
     </row>
     <row r="150" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="D150" s="10">
-        <v>3</v>
+      <c r="D150" s="11">
+        <v>10</v>
       </c>
       <c r="E150" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F150" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H150" s="14"/>
     </row>
     <row r="151" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A151" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>64</v>
+        <v>89</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D151" s="10">
         <v>1</v>
@@ -5228,349 +5420,357 @@
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H151" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="H151" s="14"/>
       <c r="L151" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D152" s="11">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="D152" s="10">
         <v>2</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F152" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="G152" s="10" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="H152" s="14"/>
     </row>
     <row r="153" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D153" s="11" t="s">
-        <v>105</v>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="D153" s="10">
+        <v>3</v>
       </c>
       <c r="E153" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F153" s="10"/>
+      <c r="F153" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="G153" s="10" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="H153" s="14"/>
     </row>
     <row r="154" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D154" s="11" t="s">
-        <v>106</v>
+      <c r="A154" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154" s="10">
+        <v>1</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H154" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="H154" s="12"/>
+      <c r="L154" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="155" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D155" s="11" t="s">
-        <v>107</v>
+      <c r="D155" s="11">
+        <v>2</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="10" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="H155" s="14"/>
     </row>
     <row r="156" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D156" s="10" t="s">
-        <v>131</v>
+      <c r="D156" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="10" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="H156" s="14"/>
     </row>
     <row r="157" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D157" s="10" t="s">
-        <v>132</v>
+      <c r="D157" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
-        <v>136</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="H157" s="14"/>
     </row>
     <row r="158" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D158" s="11" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F158" s="10"/>
       <c r="G158" s="10" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="H158" s="14"/>
     </row>
     <row r="159" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D159" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H159" s="14"/>
     </row>
     <row r="160" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D160" s="11">
-        <v>1</v>
+      <c r="D160" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H160" s="14"/>
-      <c r="L160" s="11" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D161" s="11">
-        <v>2</v>
+      <c r="D161" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="E161" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F161" s="10"/>
       <c r="G161" s="10" t="s">
-        <v>91</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H161" s="14"/>
     </row>
     <row r="162" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D162" s="11">
-        <v>3</v>
+      <c r="D162" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H162" s="12" t="s">
-        <v>97</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H162" s="14"/>
     </row>
     <row r="163" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="D163" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10" t="s">
-        <v>92</v>
+        <v>67</v>
+      </c>
+      <c r="H163" s="14"/>
+      <c r="L163" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="164" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D164" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H164" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="165" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D165" s="11">
+        <v>3</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H165" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D166" s="11">
+        <v>4</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D167" s="11">
+        <v>5</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H167" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D168" s="11">
         <v>6</v>
       </c>
-      <c r="E165" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G165" s="10" t="s">
+      <c r="E168" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G168" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H165" s="14"/>
-    </row>
-    <row r="166" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D166" s="11">
+      <c r="H168" s="14"/>
+    </row>
+    <row r="169" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D169" s="11">
         <v>7</v>
       </c>
-      <c r="E166" s="10" t="s">
+      <c r="E169" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F166" t="s">
-        <v>208</v>
-      </c>
-      <c r="G166" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D167" s="11">
+      <c r="F169" t="s">
+        <v>207</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D170" s="11">
         <v>8</v>
       </c>
-      <c r="E167" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F167" s="11"/>
-      <c r="G167" s="10" t="s">
+      <c r="E170" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F170" s="11"/>
+      <c r="G170" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D168" s="11">
+    <row r="171" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D171" s="11">
         <v>9</v>
       </c>
-      <c r="E168" s="10" t="s">
+      <c r="E171" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D169" s="10">
-        <v>1</v>
-      </c>
-      <c r="E169" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H169" s="12"/>
-      <c r="L169" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D170" s="11">
-        <v>2</v>
-      </c>
-      <c r="E170" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H170" s="14"/>
-    </row>
-    <row r="171" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D171" s="10">
-        <v>3</v>
-      </c>
-      <c r="E171" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D172" s="10">
+        <v>1</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H172" s="12"/>
+      <c r="L172" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D173" s="11">
+        <v>2</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H173" s="14"/>
+    </row>
+    <row r="174" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D174" s="10">
+        <v>3</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H171" s="14"/>
-    </row>
-    <row r="172" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D172" s="11">
+      <c r="H174" s="14"/>
+    </row>
+    <row r="175" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D175" s="11">
         <v>4</v>
-      </c>
-      <c r="E172" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F172" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G172" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H172" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D173" s="10">
-        <v>5</v>
-      </c>
-      <c r="E173" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F173" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H173" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D174" s="11">
-        <v>6</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F174" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G174" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H174" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D175" s="10">
-        <v>7</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>121</v>
@@ -5579,144 +5779,195 @@
         <v>122</v>
       </c>
       <c r="G175" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D176" s="10">
+        <v>5</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H176" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="H175" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D176" s="11">
+    </row>
+    <row r="177" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D177" s="11">
+        <v>6</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G177" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H177" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D178" s="10">
+        <v>7</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H178" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D179" s="11">
         <v>8</v>
       </c>
-      <c r="E176" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F176" s="19"/>
-      <c r="G176" s="18" t="s">
+      <c r="E179" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F179" s="19"/>
+      <c r="G179" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D177" s="10">
+    <row r="180" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D180" s="10">
         <v>9</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F177" s="19"/>
-      <c r="G177" s="18" t="s">
+      <c r="F180" s="19"/>
+      <c r="G180" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C178" s="10" t="s">
+    <row r="181" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D178" s="10">
+      <c r="D181" s="10">
         <v>1</v>
       </c>
-      <c r="E178" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10" t="s">
+      <c r="E181" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H178" s="12"/>
-      <c r="L178" s="11" t="s">
+      <c r="H181" s="12"/>
+      <c r="L181" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11">
-        <v>2</v>
-      </c>
-      <c r="E179" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F179" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G179" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H179" s="14"/>
-    </row>
-    <row r="180" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="10">
-        <v>3</v>
-      </c>
-      <c r="E180" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F180" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G180" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H180" s="14"/>
-    </row>
-    <row r="181" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11">
-        <v>4</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F181" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G181" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H181" s="14"/>
     </row>
     <row r="182" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11">
+        <v>2</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G182" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H182" s="14"/>
+    </row>
+    <row r="183" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="10">
+        <v>3</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H183" s="14"/>
+    </row>
+    <row r="184" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11">
+        <v>4</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H184" s="14"/>
+    </row>
+    <row r="185" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11">
         <v>5</v>
       </c>
-      <c r="E182" s="10" t="s">
+      <c r="E185" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H182" s="14"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H185" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C103:C160 C178:C182 C175 C169:C173 C51:C100 C2:C47 C49:C50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106:C163 C181:C185 C178 C172:C176 C52:C103 C2:C50">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F51:F1048576 F1:F9 F28:F39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F54:F1048576 F1:F9 F28:F33 F37:F42">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F27 F40:F50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F34:F36 F43:F53 F10:F27">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G24 G26:G43 H44 G45 H46 G47:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G50:G1048576 H47 G48 H49 G26:G46 G1:G24">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
@@ -5725,6 +5976,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5825,7 +6077,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -5978,7 +6230,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -6659,7 +6911,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -6694,7 +6946,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -6720,7 +6972,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -6772,7 +7024,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -6812,7 +7064,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H8" s="13"/>
     </row>
@@ -6827,15 +7079,15 @@
         <v>37</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10">
@@ -6846,7 +7098,7 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H10" s="12"/>
       <c r="L10" s="11" t="s">
@@ -6862,7 +7114,7 @@
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -6893,7 +7145,7 @@
         <v>165</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -6910,7 +7162,7 @@
         <v>165</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -6927,7 +7179,7 @@
         <v>165</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -6944,7 +7196,7 @@
         <v>165</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -6961,7 +7213,7 @@
         <v>165</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -6978,7 +7230,7 @@
         <v>165</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -6995,7 +7247,7 @@
         <v>165</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -7007,7 +7259,7 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H20" s="14"/>
     </row>
@@ -7019,10 +7271,10 @@
         <v>24</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -7033,10 +7285,10 @@
         <v>24</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -7053,7 +7305,7 @@
         <v>165</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -7070,7 +7322,7 @@
         <v>165</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -7081,10 +7333,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -7096,7 +7348,7 @@
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1428" windowWidth="23256" windowHeight="10896" activeTab="1"/>
+    <workbookView xWindow="276" yWindow="1488" windowWidth="23256" windowHeight="10836"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -1885,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
@@ -3038,8 +3038,8 @@
   </sheetPr>
   <dimension ref="A1:P185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1488" windowWidth="23256" windowHeight="10836"/>
+    <workbookView xWindow="276" yWindow="1488" windowWidth="23256" windowHeight="10836" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0">
+    <comment ref="A28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A37" authorId="0">
+    <comment ref="A34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="331">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1397,6 +1397,18 @@
   </si>
   <si>
     <t>&lt;text&gt;&lt;内容&gt;，清除文本=否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13671060124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1883,15 +1895,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
@@ -1962,7 +1974,7 @@
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -2014,9 +2026,7 @@
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -2042,9 +2052,7 @@
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
@@ -2110,338 +2118,341 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="9" t="s">
+    <row r="7" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="H7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D8" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="L7" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D8" s="9">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="H9" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D10" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>317</v>
-      </c>
+      <c r="G10" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D11" s="20" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="H11" s="21" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D12" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="10"/>
+        <v>270</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>322</v>
+      </c>
       <c r="H12" s="21" t="s">
-        <v>199</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D13" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="20">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>202</v>
+      <c r="G13" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D14" s="20" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="H14" s="21" t="s">
-        <v>324</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D15" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>121</v>
+        <v>269</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>325</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D16" s="20">
-        <v>4</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H16" s="21"/>
+      <c r="D16" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="H16" s="21" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D17" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>26</v>
+        <v>268</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>190</v>
       </c>
+      <c r="G17" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="H17" s="21" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="20" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="H18" s="21" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D19" s="20" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="H19" s="21" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D20" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>190</v>
+        <v>267</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>170</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D23" s="20" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="H23" s="21" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D24" s="20" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="E24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="20">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="H24" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D25" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>306</v>
+      <c r="F25" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="J25" s="20" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D26" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="H26" s="21" t="s">
-        <v>183</v>
-      </c>
+      <c r="D26" s="20">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D27" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>121</v>
+      <c r="D27" s="20">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>287</v>
+        <v>190</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>320</v>
+        <v>284</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>255</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>120</v>
@@ -2449,154 +2460,145 @@
       <c r="D28" s="20">
         <v>1</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="P28" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D29" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="J28" s="20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D29" s="20">
-        <v>2</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="21" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="30" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D30" s="20">
-        <v>3</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>327</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="20">
-        <v>1</v>
+      <c r="D31" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="P31" s="20" t="s">
-        <v>254</v>
+        <v>26</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D32" s="20" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>179</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D33" s="20" t="s">
-        <v>278</v>
+      <c r="D33" s="20">
+        <v>6</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>168</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A34" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="D34" s="20" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>182</v>
+      <c r="F34" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="P34" s="20" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D35" s="20" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D36" s="20">
-        <v>6</v>
+      <c r="D36" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>24</v>
+        <v>121</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="21"/>
+        <v>285</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>120</v>
-      </c>
       <c r="D37" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>207</v>
@@ -2605,423 +2607,258 @@
         <v>211</v>
       </c>
       <c r="H37" s="21"/>
-      <c r="P37" s="20" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="D38" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H38" s="21"/>
+        <v>281</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="H38" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="P38" s="20" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="39" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D39" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" s="20" t="s">
+      <c r="D39" s="20">
+        <v>5</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>275</v>
-      </c>
+      <c r="G39" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H39" s="21"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D40" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H40" s="21"/>
+        <v>282</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="H40" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C41" s="20" t="s">
+      <c r="D41" s="20">
+        <v>4</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D42" s="11">
+        <v>6</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A43" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="H41" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="P41" s="20" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D42" s="20">
-        <v>5</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H42" s="21"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D43" s="20" t="s">
-        <v>282</v>
+      <c r="D43" s="11">
+        <v>1</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="H43" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D44" s="20">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="H44" s="21"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D45" s="11">
-        <v>6</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="11">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>238</v>
-      </c>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="12"/>
+      <c r="L45" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A47" s="20" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="11">
+        <v>292</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20">
         <v>1</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="12"/>
-      <c r="L48" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="L49" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D50" s="10">
-        <v>2</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D51" s="10">
-        <v>3</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D52" s="10">
-        <v>4</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D53" s="10">
-        <v>5</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D54" s="10">
-        <v>6</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D55" s="10">
-        <v>7</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D56" s="10">
-        <v>8</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20">
-        <v>1</v>
-      </c>
-      <c r="E58" s="20" t="s">
+      <c r="E47" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F47" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G47" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="H58" s="20" t="s">
+      <c r="H47" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-    </row>
-    <row r="60" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-    </row>
-    <row r="64" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F37:F47 F74:F1048576 F1 F10:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F34:F44 F63:F1048576 F1 F7:F27">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F31:F36 F2:F9 F48:F57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F28:F33 F2:F6 F45:F46">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H41 G42 H43 G44:G57 G1:G24 G74:G1048576 G26:G40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H38 G39 H40 G63:G1048576 G23:G37 G41:G46 G1:G21">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E74:E1048576 E1:E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E63:E1048576 E1:E46">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46:C57 C2:C44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:C46 C2:C41">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3038,10 +2875,10 @@
   </sheetPr>
   <dimension ref="A1:P185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3168,7 +3005,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>329</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -3196,7 +3033,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>330</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="1488" windowWidth="23256" windowHeight="10836" activeTab="1"/>
+    <workbookView xWindow="280" yWindow="1490" windowWidth="23260" windowHeight="10840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="页面">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr autoRecover="0"/>
+  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0">
+    <comment ref="A36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="331">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1258,18 +1258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sql执行示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prod3_pre_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1290,22 +1278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prod3_pre_uc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql#SELECT orgid from sy_org where orgname='炼油厂'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgid=1688734</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date_reduce*&lt;偏移量&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1335,10 +1307,6 @@
   </si>
   <si>
     <t>prod3_pre_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*portal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1400,15 +1368,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13671060124</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod3_prod_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型=文本，字段=人员编码，内容=&lt;_普通编码&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录窗口=否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录窗口=否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录窗口=否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录窗口=否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1609,7 +1609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1651,7 +1651,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1686,7 +1686,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1895,39 +1895,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.44140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="35.6328125" customWidth="1"/>
+    <col min="8" max="8" width="35.453125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="115.21875" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="115.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>301</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -1972,9 +1972,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>328</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -1988,15 +1988,11 @@
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>25</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
@@ -2010,7 +2006,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2026,7 +2022,9 @@
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -2036,7 +2034,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2046,17 +2044,17 @@
       <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -2064,7 +2062,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2074,9 +2072,7 @@
       <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>27</v>
       </c>
@@ -2090,7 +2086,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2100,14 +2096,12 @@
       <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2118,341 +2112,334 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="L7" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B10" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="21" t="s">
+      <c r="F10" s="10"/>
+      <c r="H10" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="P7" s="22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D8" s="20" t="s">
+      <c r="P10" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D11" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="E11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G11" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D9" s="20" t="s">
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D12" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="H9" s="21" t="s">
+      <c r="F12" s="10"/>
+      <c r="H12" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D10" s="20" t="s">
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D13" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D11" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="H11" s="21" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D12" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D13" s="20">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>323</v>
+      <c r="G13" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D14" s="20" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="10"/>
+      <c r="H14" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D15" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D16" s="20">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D15" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D16" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="G16" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D17" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="H16" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D17" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D18" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D19" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="H19" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D20" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H20" s="21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D18" s="20" t="s">
+    <row r="21" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D21" s="20" t="s">
         <v>259</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="H18" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D19" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D20" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D21" s="20" t="s">
-        <v>260</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D22" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D23" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D24" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="H24" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D22" s="20" t="s">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D25" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E25" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F25" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G25" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D23" s="20" t="s">
+      <c r="H25" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D26" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="H23" s="21" t="s">
+      <c r="F26" s="10"/>
+      <c r="H26" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D24" s="20" t="s">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D27" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G27" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H27" s="21" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="20">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="J25" s="20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D26" s="20">
-        <v>2</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D27" s="20">
-        <v>3</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>120</v>
@@ -2460,142 +2447,154 @@
       <c r="D28" s="20">
         <v>1</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="20" t="s">
+      <c r="E28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="J28" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D29" s="20">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="20">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G30" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="P28" s="20" t="s">
+      <c r="H30" s="21"/>
+      <c r="P30" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D29" s="20" t="s">
+    <row r="31" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D31" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D30" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D31" s="20" t="s">
-        <v>276</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D32" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D33" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D32" s="20" t="s">
+    <row r="34" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D34" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="20" t="s">
+      <c r="E34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D33" s="20">
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D35" s="20">
         <v>6</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="20" t="s">
+      <c r="E35" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="20" t="s">
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B36" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D36" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E36" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G36" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="P34" s="20" t="s">
+      <c r="H36" s="21"/>
+      <c r="P36" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D35" s="20" t="s">
+    <row r="37" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D37" s="20" t="s">
         <v>244</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D36" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D37" s="20" t="s">
-        <v>264</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>43</v>
@@ -2608,63 +2607,66 @@
       </c>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D38" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D39" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B40" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D40" s="20" t="s">
         <v>281</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="H38" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="P38" s="20" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D39" s="20">
-        <v>5</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="L39" s="10"/>
-    </row>
-    <row r="40" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D40" s="20" t="s">
-        <v>282</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="10"/>
       <c r="H40" s="10" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="P40" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D41" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>121</v>
@@ -2673,193 +2675,282 @@
         <v>122</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H41" s="21"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D42" s="11">
+    <row r="42" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D42" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="H42" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D43" s="20">
+        <v>4</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="D44" s="11">
         <v>6</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="19" t="s">
+      <c r="E44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="C43" s="20" t="s">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D45" s="11">
         <v>1</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="10" t="s">
+      <c r="E45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G45" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C44" s="20" t="s">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D46" s="11">
         <v>1</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="E46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="12"/>
-      <c r="L45" s="11" t="s">
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:16" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="L48" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20">
-        <v>1</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-    </row>
-    <row r="53" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
+    <row r="49" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="10">
+        <v>2</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D50" s="10">
+        <v>3</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="E51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="E52" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D53" s="10">
+        <v>6</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D54" s="10">
+        <v>7</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D55" s="10">
+        <v>8</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D56" s="10">
+        <v>9</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D57" s="10">
+        <v>10</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F34:F44 F63:F1048576 F1 F7:F27">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F36:F46 F63:F1048576 F10:F29">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F28:F33 F2:F6 F45:F46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F30:F35 F48:F57">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H38 G39 H40 G63:G1048576 G23:G37 G41:G46 G1:G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H40 G41 H42 G63:G1048576 G48:G57 G43:G46 G10:G24 G26:G39">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E63:E1048576 E1:E46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E63:E1048576 E48:E57 E10:E46">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:C46 C2:C41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:C46 C48:C57 C7:C43">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G9">
+      <formula1>"菜单#,按钮#,子表按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,对话框按钮#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E9">
+      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
+    </dataValidation>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
+      <formula1>"BASE,SETUP,SNIPPET,MAIN,SUB,SKIP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2873,34 +2964,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P185"/>
+  <dimension ref="A1:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -2950,7 +3041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>223</v>
       </c>
@@ -2970,7 +3061,7 @@
         <v>190</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -2988,7 +3079,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3005,7 +3096,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -3016,7 +3107,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3033,7 +3124,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -3046,7 +3137,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3072,7 +3163,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3089,7 +3180,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -3100,7 +3191,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>222</v>
       </c>
@@ -3124,7 +3215,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -3135,11 +3226,13 @@
         <v>190</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>304</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>
@@ -3156,7 +3249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
         <v>165</v>
       </c>
@@ -3180,10 +3273,10 @@
         <v>114</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D11" s="20" t="s">
         <v>272</v>
       </c>
@@ -3198,7 +3291,7 @@
       </c>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D12" s="20" t="s">
         <v>163</v>
       </c>
@@ -3210,7 +3303,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D13" s="20" t="s">
         <v>271</v>
       </c>
@@ -3225,19 +3318,19 @@
       </c>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D14" s="20" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="10"/>
       <c r="H14" s="21" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D15" s="20" t="s">
         <v>270</v>
       </c>
@@ -3248,13 +3341,13 @@
         <v>122</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D16" s="20">
         <v>4</v>
       </c>
@@ -3265,11 +3358,11 @@
         <v>190</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D17" s="20" t="s">
         <v>247</v>
       </c>
@@ -3283,7 +3376,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D18" s="20" t="s">
         <v>246</v>
       </c>
@@ -3298,7 +3391,7 @@
       </c>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D19" s="20" t="s">
         <v>243</v>
       </c>
@@ -3310,7 +3403,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D20" s="20" t="s">
         <v>245</v>
       </c>
@@ -3327,7 +3420,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D21" s="20" t="s">
         <v>248</v>
       </c>
@@ -3339,7 +3432,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D22" s="20" t="s">
         <v>252</v>
       </c>
@@ -3356,7 +3449,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D23" s="20" t="s">
         <v>253</v>
       </c>
@@ -3371,7 +3464,7 @@
       </c>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D24" s="20" t="s">
         <v>249</v>
       </c>
@@ -3383,7 +3476,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D25" s="20" t="s">
         <v>251</v>
       </c>
@@ -3397,10 +3490,10 @@
         <v>283</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D26" s="20" t="s">
         <v>250</v>
       </c>
@@ -3412,7 +3505,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D27" s="20" t="s">
         <v>288</v>
       </c>
@@ -3429,7 +3522,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
         <v>164</v>
       </c>
@@ -3450,13 +3543,13 @@
       </c>
       <c r="H28" s="21"/>
       <c r="L28" s="20" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P28" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D29" s="20" t="s">
         <v>163</v>
       </c>
@@ -3467,7 +3560,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D30" s="20" t="s">
         <v>201</v>
       </c>
@@ -3481,7 +3574,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D31" s="20" t="s">
         <v>200</v>
       </c>
@@ -3492,7 +3585,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D32" s="20" t="s">
         <v>203</v>
       </c>
@@ -3504,7 +3597,7 @@
       </c>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D33" s="20">
         <v>6</v>
       </c>
@@ -3516,9 +3609,9 @@
       </c>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>120</v>
@@ -3527,159 +3620,165 @@
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H34" s="21"/>
       <c r="J34" s="20" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L34" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D35" s="20">
         <v>2</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="D36" s="20">
-        <v>3</v>
-      </c>
-      <c r="E36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="L36" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="P36" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D37" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D38" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="G38" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C37" s="20" t="s">
+      <c r="H38" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D40" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D41" s="20">
+        <v>6</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="20">
-        <v>1</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="L37" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="P37" s="20" t="s">
+      <c r="D42" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="L42" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="P42" s="20" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D38" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D40" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D41" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D42" s="20">
-        <v>6</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>120</v>
-      </c>
+    <row r="43" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D43" s="20" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>207</v>
@@ -3688,152 +3787,157 @@
         <v>211</v>
       </c>
       <c r="H43" s="21"/>
-      <c r="L43" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="P43" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D44" s="20" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="E44" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D45" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G45" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D45" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E45" s="20" t="s">
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="P46" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D47" s="20">
+        <v>5</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F47" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D46" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C47" s="20" t="s">
+      <c r="G47" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="H48" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="20">
+        <v>4</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D50" s="11">
+        <v>6</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="H47" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="P47" s="20" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D48" s="20">
-        <v>5</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H48" s="21"/>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D49" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="H49" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D50" s="20">
-        <v>4</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="H50" s="21"/>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D51" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>236</v>
+      <c r="F51" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>120</v>
@@ -3845,101 +3949,92 @@
         <v>24</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="B53" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="11">
+    </row>
+    <row r="53" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A53" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="10">
         <v>1</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="G53" s="10" t="s">
-        <v>237</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H53" s="12"/>
       <c r="L53" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>46</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D54" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H54" s="12"/>
-      <c r="L54" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D55" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D56" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D57" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>24</v>
+        <v>121</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>212</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D58" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>121</v>
@@ -3951,329 +4046,329 @@
         <v>212</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D59" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D60" s="10">
+        <v>8</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="L61" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D62" s="10">
+        <v>2</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D63" s="10">
+        <v>3</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D64" s="10">
+        <v>4</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="L65" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D66" s="10">
+        <v>2</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D67" s="10">
+        <v>3</v>
+      </c>
+      <c r="E67" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F67" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D60" s="10">
-        <v>7</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D61" s="10">
-        <v>8</v>
-      </c>
-      <c r="E61" s="10" t="s">
+      <c r="G67" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D68" s="10">
+        <v>4</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="L62" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D63" s="10">
-        <v>2</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D64" s="10">
-        <v>3</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D65" s="10">
-        <v>4</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="10">
-        <v>1</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66" s="12"/>
-      <c r="L66" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D67" s="10">
-        <v>2</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H67" s="12"/>
-    </row>
-    <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D68" s="10">
-        <v>3</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="G68" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D69" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="D70" s="10">
+        <v>1</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="L70" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D71" s="10">
+        <v>2</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D72" s="10">
+        <v>3</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D73" s="10">
+        <v>4</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D74" s="10">
         <v>5</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E74" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D75" s="10">
+        <v>6</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D76" s="10">
+        <v>7</v>
+      </c>
+      <c r="E76" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H70" s="12"/>
-    </row>
-    <row r="71" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" s="10">
+      <c r="G76" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="10">
         <v>1</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="10" t="s">
+      <c r="E77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H71" s="12"/>
-      <c r="L71" s="10" t="s">
+      <c r="H77" s="12"/>
+      <c r="L77" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D72" s="10">
+    <row r="78" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D78" s="10">
         <v>2</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H72" s="12"/>
-    </row>
-    <row r="73" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D73" s="10">
+      <c r="E78" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D79" s="10">
         <v>3</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E79" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D80" s="10">
+        <v>4</v>
+      </c>
+      <c r="E80" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F80" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D74" s="10">
-        <v>4</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D75" s="10">
+      <c r="G80" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D81" s="10">
         <v>5</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H75" s="12"/>
-    </row>
-    <row r="76" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D76" s="10">
-        <v>6</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D77" s="10">
-        <v>7</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H77" s="12"/>
-    </row>
-    <row r="78" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="10">
-        <v>1</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" s="12"/>
-      <c r="L78" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D79" s="10">
-        <v>2</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H79" s="12"/>
-    </row>
-    <row r="80" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D80" s="10">
-        <v>3</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H80" s="12"/>
-    </row>
-    <row r="81" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D81" s="10">
-        <v>6</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>121</v>
@@ -4285,267 +4380,265 @@
         <v>212</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D82" s="10">
         <v>6</v>
       </c>
       <c r="E82" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D83" s="10">
+        <v>7</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D84" s="10">
+        <v>8</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F84" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G84" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H82" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D83" s="10">
+      <c r="H84" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D85" s="10">
+        <v>9</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D86" s="10">
+        <v>10</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="10">
+        <v>1</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" s="12"/>
+      <c r="L87" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D88" s="10">
+        <v>2</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D89" s="10">
+        <v>3</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D90" s="10">
+        <v>4</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D91" s="10">
+        <v>5</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D92" s="10">
+        <v>6</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D93" s="10">
+        <v>7</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D94" s="10">
         <v>8</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H83" s="12"/>
-    </row>
-    <row r="84" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D84" s="10">
+      <c r="E94" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D95" s="10">
         <v>9</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H84" s="12"/>
-    </row>
-    <row r="85" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D85" s="10">
-        <v>6</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D86" s="10">
-        <v>12</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H86" s="12"/>
-    </row>
-    <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D87" s="10">
-        <v>13</v>
-      </c>
-      <c r="E87" s="10" t="s">
+      <c r="E95" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G95" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H87" s="12"/>
-    </row>
-    <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D88" s="10">
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10">
         <v>1</v>
       </c>
-      <c r="E88" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H88" s="12"/>
-      <c r="L88" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D89" s="10">
+      <c r="E96" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H96" s="12"/>
+      <c r="L96" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D97" s="11">
         <v>2</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H89" s="12"/>
-    </row>
-    <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D90" s="10">
-        <v>3</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" s="12"/>
-    </row>
-    <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D91" s="10">
-        <v>4</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H91" s="12"/>
-    </row>
-    <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D92" s="10">
-        <v>5</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D93" s="10">
-        <v>6</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H93" s="12"/>
-    </row>
-    <row r="94" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D94" s="10">
-        <v>7</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D95" s="10">
-        <v>8</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H95" s="12"/>
-    </row>
-    <row r="96" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D96" s="10">
-        <v>9</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H96" s="12"/>
-    </row>
-    <row r="97" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10">
-        <v>1</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H97" s="12"/>
-      <c r="L97" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D98" s="11">
-        <v>2</v>
+        <v>138</v>
+      </c>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D98" s="10">
+        <v>3</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D99" s="10">
-        <v>3</v>
+    <row r="99" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D99" s="11">
+        <v>4</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="G99" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D100" s="11">
-        <v>4</v>
+    <row r="100" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D100" s="10">
+        <v>5</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>24</v>
@@ -4554,1060 +4647,1062 @@
         <v>140</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D101" s="10">
-        <v>5</v>
+    <row r="101" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D101" s="11">
+        <v>6</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F101" s="10" t="s">
-        <v>140</v>
-      </c>
+      <c r="F101" s="10"/>
       <c r="G101" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D102" s="11">
-        <v>6</v>
+    <row r="102" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D102" s="10">
+        <v>7</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D103" s="11">
+        <v>8</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D104" s="10">
+        <v>9</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H102" s="14"/>
-    </row>
-    <row r="103" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D103" s="10">
+    </row>
+    <row r="105" spans="1:12" s="10" customFormat="1" ht="16.5" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" s="10">
+        <v>1</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H105" s="12"/>
+      <c r="L105" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D106" s="10">
+        <v>2</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H106" s="12"/>
+    </row>
+    <row r="107" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D107" s="10">
+        <v>3</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D108" s="10">
+        <v>4</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D109" s="10">
+        <v>5</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D110" s="10">
+        <v>6</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" s="12"/>
+    </row>
+    <row r="111" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D111" s="10">
         <v>7</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D112" s="10">
+        <v>8</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H112" s="12"/>
+    </row>
+    <row r="113" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D113" s="10">
+        <v>9</v>
+      </c>
+      <c r="E113" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H103" s="14"/>
-    </row>
-    <row r="104" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D104" s="11">
+      <c r="G113" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H113" s="12"/>
+    </row>
+    <row r="114" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" s="10">
+        <v>1</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H114" s="12"/>
+      <c r="L114" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D115" s="10">
+        <v>2</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H115" s="12"/>
+    </row>
+    <row r="116" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D116" s="10">
+        <v>3</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H116" s="12"/>
+    </row>
+    <row r="117" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D117" s="10">
+        <v>4</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D118" s="10">
+        <v>5</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D119" s="10">
+        <v>6</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H119" s="12"/>
+    </row>
+    <row r="120" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D120" s="10">
+        <v>7</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D121" s="10">
         <v>8</v>
       </c>
-      <c r="E104" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D105" s="10">
+      <c r="E121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D122" s="10">
         <v>9</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D106" s="10">
+      <c r="E122" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D123" s="10">
+        <v>10</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D124" s="10">
+        <v>11</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D125" s="10">
+        <v>12</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H125" s="12"/>
+    </row>
+    <row r="126" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D126" s="10">
+        <v>13</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H126" s="12"/>
+    </row>
+    <row r="127" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D127" s="10">
+        <v>14</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H127" s="12"/>
+    </row>
+    <row r="128" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D128" s="10">
+        <v>15</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H128" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D129" s="10">
+        <v>16</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" s="12"/>
+    </row>
+    <row r="130" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D130" s="10">
+        <v>17</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D131" s="10">
+        <v>18</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H131" s="12"/>
+    </row>
+    <row r="132" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D132" s="10">
+        <v>19</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H132" s="12"/>
+    </row>
+    <row r="133" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133" s="10">
         <v>1</v>
       </c>
-      <c r="E106" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H106" s="12"/>
-      <c r="L106" s="10" t="s">
+      <c r="E133" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H133" s="12"/>
+      <c r="L133" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D107" s="10">
+    <row r="134" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D134" s="11">
         <v>2</v>
       </c>
-      <c r="E107" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H107" s="12"/>
-    </row>
-    <row r="108" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D108" s="10">
+      <c r="E134" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H134" s="14"/>
+    </row>
+    <row r="135" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D135" s="10">
         <v>3</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H108" s="12"/>
-    </row>
-    <row r="109" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D109" s="10">
+      <c r="E135" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H135" s="14"/>
+    </row>
+    <row r="136" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D136" s="11">
         <v>4</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H109" s="12"/>
-    </row>
-    <row r="110" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D110" s="10">
+      <c r="E136" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H136" s="14"/>
+    </row>
+    <row r="137" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D137" s="10">
         <v>5</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E137" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D111" s="10">
-        <v>6</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H111" s="12"/>
-    </row>
-    <row r="112" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D112" s="10">
-        <v>7</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H112" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D113" s="10">
-        <v>8</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H113" s="12"/>
-    </row>
-    <row r="114" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D114" s="10">
-        <v>9</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H114" s="12"/>
-    </row>
-    <row r="115" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D115" s="10">
-        <v>1</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H115" s="12"/>
-      <c r="L115" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D116" s="10">
-        <v>2</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H116" s="12"/>
-    </row>
-    <row r="117" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D117" s="10">
-        <v>3</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H117" s="12"/>
-    </row>
-    <row r="118" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D118" s="10">
-        <v>4</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H118" s="12"/>
-    </row>
-    <row r="119" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D119" s="10">
-        <v>5</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D120" s="10">
-        <v>6</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H120" s="12"/>
-    </row>
-    <row r="121" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D121" s="10">
-        <v>7</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H121" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D122" s="10">
-        <v>8</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H122" s="12"/>
-    </row>
-    <row r="123" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D123" s="10">
-        <v>9</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D124" s="10">
-        <v>10</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H124" s="12"/>
-    </row>
-    <row r="125" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D125" s="10">
-        <v>11</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H125" s="12"/>
-    </row>
-    <row r="126" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D126" s="10">
-        <v>12</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H126" s="12"/>
-    </row>
-    <row r="127" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D127" s="10">
-        <v>13</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H127" s="12"/>
-    </row>
-    <row r="128" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D128" s="10">
-        <v>14</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H128" s="12"/>
-    </row>
-    <row r="129" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D129" s="10">
-        <v>15</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H129" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D130" s="10">
-        <v>16</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H130" s="12"/>
-    </row>
-    <row r="131" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D131" s="10">
-        <v>17</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H131" s="12"/>
-    </row>
-    <row r="132" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D132" s="10">
-        <v>18</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H132" s="12"/>
-    </row>
-    <row r="133" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D133" s="10">
-        <v>19</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H133" s="12"/>
-    </row>
-    <row r="134" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D134" s="10">
-        <v>1</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H134" s="12"/>
-      <c r="L134" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D135" s="11">
-        <v>2</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H135" s="14"/>
-    </row>
-    <row r="136" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D136" s="10">
-        <v>3</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H136" s="14"/>
-    </row>
-    <row r="137" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D137" s="11">
-        <v>4</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H137" s="14"/>
-    </row>
-    <row r="138" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D138" s="10">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="H137" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D138" s="11">
+        <v>6</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F138" s="10"/>
+        <v>24</v>
+      </c>
       <c r="G138" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H138" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D139" s="11">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="H138" s="14"/>
+    </row>
+    <row r="139" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D139" s="10">
+        <v>7</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F139" s="10"/>
       <c r="G139" s="10" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="D140" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F140" s="10"/>
+        <v>24</v>
+      </c>
       <c r="G140" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H140" s="14"/>
-    </row>
-    <row r="141" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D141" s="10">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="H140" s="12"/>
+      <c r="L140" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D141" s="11">
+        <v>2</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="F141" s="10"/>
       <c r="G141" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H141" s="12"/>
-      <c r="L141" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D142" s="11">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="H141" s="14"/>
+    </row>
+    <row r="142" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D142" s="10">
+        <v>3</v>
       </c>
       <c r="E142" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H142" s="14"/>
     </row>
-    <row r="143" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D143" s="10">
-        <v>3</v>
+    <row r="143" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D143" s="11">
+        <v>4</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H143" s="14"/>
-    </row>
-    <row r="144" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D144" s="11">
-        <v>4</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D144" s="10">
+        <v>5</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D145" s="10">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D145" s="11">
+        <v>6</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H145" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D146" s="11">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="H145" s="12"/>
+    </row>
+    <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D146" s="10">
+        <v>7</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H146" s="12"/>
     </row>
-    <row r="147" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D147" s="10">
-        <v>7</v>
+    <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D147" s="11">
+        <v>8</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="10" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="H147" s="12"/>
     </row>
-    <row r="148" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D148" s="11">
-        <v>8</v>
+    <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D148" s="10">
+        <v>9</v>
       </c>
       <c r="E148" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F148" s="10"/>
       <c r="G148" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H148" s="12"/>
-    </row>
-    <row r="149" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D149" s="10">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="H148" s="14"/>
+    </row>
+    <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D149" s="11">
+        <v>10</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F149" s="10"/>
       <c r="G149" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H149" s="14"/>
     </row>
-    <row r="150" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D150" s="11">
-        <v>10</v>
+    <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D150" s="10">
+        <v>1</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="H150" s="14"/>
-    </row>
-    <row r="151" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>66</v>
-      </c>
+      <c r="L150" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
       <c r="D151" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F151" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="G151" s="10" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="H151" s="14"/>
-      <c r="L151" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="D152" s="10">
+        <v>3</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H152" s="14"/>
+    </row>
+    <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D153" s="10">
+        <v>1</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H153" s="12"/>
+      <c r="L153" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D154" s="11">
         <v>2</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F152" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H152" s="14"/>
-    </row>
-    <row r="153" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="D153" s="10">
-        <v>3</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H153" s="14"/>
-    </row>
-    <row r="154" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D154" s="10">
-        <v>1</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H154" s="12"/>
-      <c r="L154" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D155" s="11">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="H154" s="14"/>
+    </row>
+    <row r="155" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D155" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="10" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="H155" s="14"/>
     </row>
-    <row r="156" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D156" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="10" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H156" s="14"/>
     </row>
-    <row r="157" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D157" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="H157" s="14"/>
     </row>
-    <row r="158" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D158" s="11" t="s">
-        <v>107</v>
+    <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D158" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="H158" s="14"/>
     </row>
-    <row r="159" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D159" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H159" s="14"/>
-    </row>
-    <row r="160" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D160" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D160" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F160" s="10"/>
       <c r="G160" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D161" s="11" t="s">
-        <v>133</v>
+        <v>41</v>
+      </c>
+      <c r="H160" s="14"/>
+    </row>
+    <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D161" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F161" s="10"/>
       <c r="G161" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H161" s="14"/>
     </row>
-    <row r="162" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D162" s="10" t="s">
-        <v>134</v>
+    <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A162" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D162" s="11">
+        <v>1</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="10" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="H162" s="14"/>
-    </row>
-    <row r="163" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="L162" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D163" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H163" s="14"/>
-      <c r="L163" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D164" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="H164" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D165" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H165" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D166" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F166" s="10"/>
       <c r="G166" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D167" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F167" s="10"/>
+        <v>24</v>
+      </c>
       <c r="G167" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H167" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+      <c r="H167" s="14"/>
+    </row>
+    <row r="168" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D168" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="F168" t="s">
+        <v>207</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H168" s="14"/>
-    </row>
-    <row r="169" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D169" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F169" t="s">
-        <v>207</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F169" s="11"/>
       <c r="G169" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D170" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F170" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="F170" s="10"/>
       <c r="G170" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D171" s="11">
-        <v>9</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A171" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" s="10">
+        <v>1</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D172" s="10">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="H171" s="12"/>
+      <c r="L171" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D172" s="11">
+        <v>2</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H172" s="12"/>
-      <c r="L172" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D173" s="11">
-        <v>2</v>
+        <v>152</v>
+      </c>
+      <c r="H172" s="14"/>
+    </row>
+    <row r="173" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D173" s="10">
+        <v>3</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F173" s="10"/>
       <c r="G173" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H173" s="14"/>
     </row>
-    <row r="174" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D174" s="10">
-        <v>3</v>
+    <row r="174" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D174" s="11">
+        <v>4</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F174" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="G174" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H174" s="14"/>
-    </row>
-    <row r="175" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D175" s="11">
-        <v>4</v>
+        <v>177</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D175" s="10">
+        <v>5</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>121</v>
@@ -5619,12 +5714,12 @@
         <v>177</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D176" s="10">
-        <v>5</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D176" s="11">
+        <v>6</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>121</v>
@@ -5636,12 +5731,12 @@
         <v>177</v>
       </c>
       <c r="H176" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D177" s="11">
-        <v>6</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D177" s="10">
+        <v>7</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>121</v>
@@ -5653,158 +5748,141 @@
         <v>177</v>
       </c>
       <c r="H177" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D178" s="10">
-        <v>7</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D178" s="11">
+        <v>8</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F178" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G178" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H178" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D179" s="11">
-        <v>8</v>
-      </c>
-      <c r="E179" s="10" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F178" s="19"/>
+      <c r="G178" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D179" s="10">
+        <v>9</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F179" s="19"/>
       <c r="G179" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A180" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="D180" s="10">
-        <v>9</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F180" s="19"/>
-      <c r="G180" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D181" s="10">
         <v>1</v>
       </c>
+      <c r="E180" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H180" s="12"/>
+      <c r="L180" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11">
+        <v>2</v>
+      </c>
       <c r="E181" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F181" s="10"/>
+        <v>156</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="G181" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H181" s="12"/>
-      <c r="L181" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+      <c r="H181" s="14"/>
+    </row>
+    <row r="182" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
-      <c r="D182" s="11">
-        <v>2</v>
+      <c r="D182" s="10">
+        <v>3</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="H182" s="14"/>
     </row>
-    <row r="183" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
-      <c r="D183" s="10">
-        <v>3</v>
+      <c r="D183" s="11">
+        <v>4</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="H183" s="14"/>
     </row>
-    <row r="184" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F184" s="10" t="s">
-        <v>159</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F184" s="10"/>
       <c r="G184" s="10" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="H184" s="14"/>
-    </row>
-    <row r="185" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11">
-        <v>5</v>
-      </c>
-      <c r="E185" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H185" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106:C163 C181:C185 C178 C172:C176 C52:C103 C2:C50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C105:C162 C180:C184 C177 C171:C175 C51:C102 C2:C49">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F54:F1048576 F1:F9 F28:F33 F37:F42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F53:F1048576 F1:F9 F28:F33 F36:F41">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F34:F36 F43:F53 F10:F27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F27 F42:F52 F34:F35">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G50:G1048576 H47 G48 H49 G26:G46 G1:G24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G49:G1048576 H46 G47 H48 G1:G24 G26:G45">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
@@ -5824,29 +5902,29 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="33.1796875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" customWidth="1"/>
+    <col min="14" max="15" width="10.453125" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -5896,7 +5974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -5914,7 +5992,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -5932,7 +6010,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5960,7 +6038,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5988,7 +6066,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6012,7 +6090,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6038,7 +6116,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -6059,7 +6137,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -6067,11 +6145,13 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>294</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>
@@ -6085,154 +6165,154 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="29" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="30" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="31" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="35" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="37" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="39" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="40" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="41" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="42" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="43" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="44" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="45" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="46" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="47" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="48" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -6242,240 +6322,240 @@
       <c r="G59" s="10"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="14"/>
     </row>
-    <row r="61" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="14"/>
     </row>
-    <row r="62" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="14"/>
     </row>
-    <row r="63" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="14"/>
     </row>
-    <row r="64" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="14"/>
     </row>
-    <row r="66" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D66" s="11"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="75" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="76" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="79" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="80" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="81" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="82" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="83" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="84" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="85" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="86" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="87" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="88" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="89" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="90" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="91" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="92" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="93" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="94" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="95" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="96" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="97" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="98" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="99" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="100" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="101" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="102" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="103" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="104" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="105" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="106" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="107" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="108" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="109" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="110" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="D113" s="10"/>
@@ -6484,7 +6564,7 @@
       <c r="G113" s="10"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="D114" s="10"/>
@@ -6493,7 +6573,7 @@
       <c r="G114" s="10"/>
       <c r="H114" s="14"/>
     </row>
-    <row r="115" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="D115" s="10"/>
@@ -6502,7 +6582,7 @@
       <c r="G115" s="10"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -6512,56 +6592,56 @@
       <c r="G116" s="10"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -6570,45 +6650,45 @@
       <c r="G125" s="10"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="12"/>
     </row>
-    <row r="128" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
     </row>
-    <row r="129" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="129" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="12"/>
     </row>
-    <row r="130" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="130" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="E130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="131" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D131" s="11"/>
       <c r="E131" s="10"/>
       <c r="G131" s="10"/>
     </row>
-    <row r="132" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D132" s="11"/>
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D133" s="11"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -6658,29 +6738,29 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" customWidth="1"/>
+    <col min="13" max="13" width="11.90625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -6730,7 +6810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -6748,7 +6828,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -6766,7 +6846,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6794,7 +6874,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6822,7 +6902,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6846,7 +6926,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6872,7 +6952,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -6893,7 +6973,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -6901,11 +6981,13 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>296</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>
@@ -6919,7 +7001,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>226</v>
       </c>
@@ -6942,7 +7024,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D11" s="11">
         <v>2</v>
       </c>
@@ -6955,7 +7037,7 @@
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D12" s="10">
         <v>3</v>
       </c>
@@ -6968,7 +7050,7 @@
       </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D13" s="11">
         <v>4</v>
       </c>
@@ -6985,7 +7067,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D14" s="10">
         <v>5</v>
       </c>
@@ -7002,7 +7084,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D15" s="11">
         <v>6</v>
       </c>
@@ -7019,7 +7101,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D16" s="10">
         <v>7</v>
       </c>
@@ -7036,7 +7118,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D17" s="11">
         <v>8</v>
       </c>
@@ -7053,7 +7135,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D18" s="10">
         <v>9</v>
       </c>
@@ -7070,7 +7152,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D19" s="11">
         <v>10</v>
       </c>
@@ -7087,7 +7169,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D20" s="10">
         <v>11</v>
       </c>
@@ -7100,7 +7182,7 @@
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D21" s="11">
         <v>12</v>
       </c>
@@ -7114,7 +7196,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D22" s="10">
         <v>13</v>
       </c>
@@ -7128,7 +7210,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D23" s="11">
         <v>14</v>
       </c>
@@ -7145,7 +7227,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D24" s="10">
         <v>15</v>
       </c>
@@ -7162,7 +7244,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D25" s="11">
         <v>16</v>
       </c>
@@ -7176,7 +7258,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
       <c r="D26" s="10">
         <v>17</v>
       </c>

--- a/testcase/Prod3-TestCase.xlsx
+++ b/testcase/Prod3-TestCase.xlsx
@@ -1,41 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1490" windowWidth="23260" windowHeight="10840" activeTab="1"/>
+    <workbookView xWindow="276" yWindow="1608" windowWidth="23256" windowHeight="10716" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="single" sheetId="10" r:id="rId1"/>
-    <sheet name="pre" sheetId="9" r:id="rId2"/>
-    <sheet name="prod" sheetId="12" r:id="rId3"/>
-    <sheet name="gem-pre" sheetId="14" r:id="rId4"/>
+    <sheet name="single-m" sheetId="17" r:id="rId1"/>
+    <sheet name="single" sheetId="10" r:id="rId2"/>
+    <sheet name="pre" sheetId="9" r:id="rId3"/>
+    <sheet name="pre-m" sheetId="18" r:id="rId4"/>
+    <sheet name="prod" sheetId="12" r:id="rId5"/>
+    <sheet name="gem-pre" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="百度搜索页面" localSheetId="5">#REF!</definedName>
     <definedName name="百度搜索页面" localSheetId="3">#REF!</definedName>
-    <definedName name="百度搜索页面" localSheetId="2">#REF!</definedName>
-    <definedName name="百度搜索页面" localSheetId="0">#REF!</definedName>
+    <definedName name="百度搜索页面" localSheetId="4">#REF!</definedName>
+    <definedName name="百度搜索页面" localSheetId="1">#REF!</definedName>
     <definedName name="百度搜索页面">#REF!</definedName>
+    <definedName name="对方沟通好" localSheetId="3">#REF!</definedName>
+    <definedName name="对方沟通好">#REF!</definedName>
+    <definedName name="关键字" localSheetId="5">#REF!</definedName>
     <definedName name="关键字" localSheetId="3">#REF!</definedName>
-    <definedName name="关键字" localSheetId="2">#REF!</definedName>
-    <definedName name="关键字" localSheetId="0">#REF!</definedName>
+    <definedName name="关键字" localSheetId="4">#REF!</definedName>
+    <definedName name="关键字" localSheetId="1">#REF!</definedName>
     <definedName name="关键字">#REF!</definedName>
+    <definedName name="松岛枫" localSheetId="3">#REF!</definedName>
+    <definedName name="松岛枫">#REF!</definedName>
+    <definedName name="通用" localSheetId="5">#REF!</definedName>
     <definedName name="通用" localSheetId="3">#REF!</definedName>
-    <definedName name="通用" localSheetId="2">#REF!</definedName>
-    <definedName name="通用" localSheetId="0">#REF!</definedName>
+    <definedName name="通用" localSheetId="4">#REF!</definedName>
+    <definedName name="通用" localSheetId="1">#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
+    <definedName name="雪球行情中心" localSheetId="5">#REF!</definedName>
     <definedName name="雪球行情中心" localSheetId="3">#REF!</definedName>
-    <definedName name="雪球行情中心" localSheetId="2">#REF!</definedName>
-    <definedName name="雪球行情中心" localSheetId="0">#REF!</definedName>
+    <definedName name="雪球行情中心" localSheetId="4">#REF!</definedName>
+    <definedName name="雪球行情中心" localSheetId="1">#REF!</definedName>
     <definedName name="雪球行情中心">#REF!</definedName>
+    <definedName name="页面" localSheetId="5">#REF!</definedName>
     <definedName name="页面" localSheetId="3">#REF!</definedName>
-    <definedName name="页面" localSheetId="2">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">#REF!</definedName>
+    <definedName name="页面" localSheetId="4">#REF!</definedName>
+    <definedName name="页面" localSheetId="1">#REF!</definedName>
     <definedName name="页面">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
@@ -45,7 +56,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,36 +71,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>参数：类型=文本框\下拉框，字段=组织名称，内容=研发部</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A36" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>参数：类型=文本框\下拉框，字段=组织名称，内容=研发部</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -100,7 +81,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="338">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,18 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉选择项值#&lt;内容&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型=日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1122,22 +1091,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>^6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>^10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1147,26 +1100,6 @@
   </si>
   <si>
     <t>&lt;13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1376,11 +1309,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod3_prod_url</t>
+    <t>app登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13671060124</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1388,27 +1329,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型=文本，字段=人员编码，内容=&lt;_普通编码&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录窗口=否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录窗口=否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录窗口=否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录窗口=否</t>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#所属区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择项#测试专用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#隐患描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接#隐患排查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮#保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接#我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐患新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phd_m_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接#工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框#问题现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项#测试专用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;prod3_pre_url&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1609,7 +1618,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1651,7 +1660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1686,7 +1695,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1894,35 +1903,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="35.6328125" customWidth="1"/>
-    <col min="8" max="8" width="35.453125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" customWidth="1"/>
-    <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="115.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="46.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -1972,12 +1971,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>35</v>
@@ -1985,19 +1984,21 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="E2" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H2" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
         <v>115</v>
       </c>
@@ -2006,35 +2007,37 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
+      <c r="E3" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2042,27 +2045,25 @@
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>324</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2070,11 +2071,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5"/>
@@ -2086,885 +2089,187 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6">
+    <row r="6" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="L6" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D8" s="10">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D9" s="10">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D10" s="10">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="E10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="10">
+        <v>6</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="10">
+        <v>7</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="10">
+        <v>8</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="10">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="L7" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D8" s="9">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="49.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D11" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D12" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="H12" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D13" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D14" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="H14" s="21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D15" s="20" t="s">
-        <v>270</v>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="10">
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D16" s="20">
-        <v>4</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D17" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D18" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D19" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="H19" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D20" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D21" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="H21" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D22" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D23" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D24" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="H24" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D25" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D26" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="H26" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D27" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A28" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="20">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="J28" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D29" s="20">
-        <v>2</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="20">
-        <v>1</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="P30" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D31" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D32" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D33" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D34" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D35" s="20">
-        <v>6</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A36" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="P36" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D37" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D38" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D39" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A40" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="H40" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="P40" s="20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D41" s="20">
-        <v>5</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D42" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="H42" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D43" s="20">
-        <v>4</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H43" s="21"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D44" s="11">
-        <v>6</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="11">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="11">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="1:16" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="10">
-        <v>1</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="L48" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D49" s="10">
-        <v>2</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D50" s="10">
-        <v>3</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="E51" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="E52" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D53" s="10">
-        <v>6</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D54" s="10">
-        <v>7</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D55" s="10">
-        <v>8</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D56" s="10">
-        <v>9</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="4:8" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D57" s="10">
-        <v>10</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" s="12"/>
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F36:F46 F63:F1048576 F10:F29">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F9:F14">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F30:F35 F48:F57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F5 F6:F8">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H40 G41 H42 G63:G1048576 G48:G57 G43:G46 G10:G24 G26:G39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C6:C14">
+      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G5 G6:G14">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E63:E1048576 E48:E57 E10:E46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E5 E6:E14">
       <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:C46 C48:C57 C7:C43">
-      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G9">
-      <formula1>"菜单#,按钮#,子表按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,对话框按钮#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E9">
-      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到,刷新"</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" sqref="E1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6">
-      <formula1>"BASE,SETUP,SNIPPET,MAIN,SUB,SKIP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
-      <formula1>"打开,检查,输入,点击,双击,#检查,执行,移动到"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:P184"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2972,26 +2277,26 @@
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="15.6" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
-    <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="101" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="115.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -3041,9 +2346,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>19</v>
@@ -3058,10 +2363,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -3079,7 +2384,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3093,10 +2398,10 @@
         <v>23</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>336</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -3107,7 +2412,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3124,12 +2429,12 @@
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -3137,7 +2442,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3163,7 +2468,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3174,13 +2479,13 @@
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -3191,15 +2496,15 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -3208,14 +2513,1198 @@
         <v>71</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="L7" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="H10" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D11" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D12" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="H12" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D14" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="H14" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D15" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D16" s="20">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D17" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D18" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D19" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="H19" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D20" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D21" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="H21" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D22" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D23" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D24" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="H24" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D25" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D26" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="H26" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D27" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="L28" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D30" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D33" s="20">
+        <v>6</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A34" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="20">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="J34" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D35" s="20">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D36" s="20">
+        <v>3</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="20">
+        <v>1</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="L37" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D38" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D40" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D41" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D42" s="20">
+        <v>6</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="L43" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D45" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D46" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="H47" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="20">
+        <v>5</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="H49" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D50" s="20">
+        <v>4</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H50" s="21"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D51" s="11">
+        <v>6</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="L54" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D55" s="10">
+        <v>2</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D56" s="10">
+        <v>3</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D57" s="10">
+        <v>6</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D58" s="10">
+        <v>6</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D59" s="10">
+        <v>8</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D60" s="10">
+        <v>9</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D61" s="10">
+        <v>6</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D62" s="10">
+        <v>12</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D63" s="10">
+        <v>13</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F65:F1048576 F34:F36 F43:F53 F10:F27">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F9 F28:F33 F37:F42 F54:F63">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G65:G1048576 G50:G63 H47 G48 H49 G26:G46 G1:G24">
+      <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E65:E1048576 E1:E63">
+      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52:C63 C2:C50">
+      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:P185"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="101" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="H7" s="13"/>
       <c r="L7" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -3223,16 +3712,14 @@
         <v>18</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>292</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>
@@ -3240,7 +3727,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>37</v>
@@ -3249,7 +3736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="49.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="20" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
         <v>165</v>
       </c>
@@ -3260,38 +3747,38 @@
         <v>120</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>114</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D11" s="20" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D12" s="20" t="s">
         <v>163</v>
       </c>
@@ -3300,39 +3787,39 @@
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D13" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="D13" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>202</v>
-      </c>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D14" s="20" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="10"/>
       <c r="H14" s="21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D15" s="20" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>121</v>
@@ -3341,13 +3828,13 @@
         <v>122</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D16" s="20">
         <v>4</v>
       </c>
@@ -3355,92 +3842,92 @@
         <v>24</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D17" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D18" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>169</v>
       </c>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D19" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="10"/>
       <c r="H19" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D20" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D21" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="10"/>
       <c r="H21" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D22" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>154</v>
@@ -3449,36 +3936,36 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D23" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>155</v>
       </c>
       <c r="H23" s="21"/>
     </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D24" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="10"/>
       <c r="H24" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D25" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>121</v>
@@ -3487,27 +3974,27 @@
         <v>122</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D26" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="10"/>
       <c r="H26" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D27" s="20" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>121</v>
@@ -3516,13 +4003,13 @@
         <v>122</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
         <v>164</v>
       </c>
@@ -3543,13 +4030,13 @@
       </c>
       <c r="H28" s="21"/>
       <c r="L28" s="20" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D29" s="20" t="s">
         <v>163</v>
       </c>
@@ -3557,12 +4044,12 @@
         <v>26</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D30" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>20</v>
@@ -3574,20 +4061,20 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D31" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D32" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>24</v>
@@ -3597,7 +4084,7 @@
       </c>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D33" s="20">
         <v>6</v>
       </c>
@@ -3609,9 +4096,9 @@
       </c>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>120</v>
@@ -3620,324 +4107,313 @@
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H34" s="21"/>
       <c r="J34" s="20" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="L34" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D35" s="20">
         <v>2</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="D36" s="20">
+        <v>3</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G35" s="10" t="s">
+      <c r="F36" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="21" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B36" s="20" t="s">
+      <c r="H36" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="20">
+        <v>1</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="L37" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D38" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D40" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D41" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D42" s="20">
+        <v>6</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="E43" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="L43" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D45" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D46" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="20">
-        <v>1</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="L36" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="P36" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D37" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="20" t="s">
+      <c r="D47" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D38" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E39" s="20" t="s">
+      <c r="F47" s="10"/>
+      <c r="H47" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D48" s="20">
+        <v>5</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D40" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D41" s="20">
+      <c r="F49" s="10"/>
+      <c r="H49" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12" s="20" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D50" s="20">
+        <v>4</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H50" s="21"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D51" s="11">
         <v>6</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H42" s="21"/>
-      <c r="L42" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="P42" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D43" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D44" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D45" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="H46" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="P46" s="20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D47" s="20">
-        <v>5</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H47" s="21"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="1:16" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D48" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="H48" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="1:12" s="20" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D49" s="20">
-        <v>4</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H49" s="21"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D50" s="11">
-        <v>6</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="11">
-        <v>1</v>
-      </c>
       <c r="E51" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>279</v>
+      <c r="F51" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>120</v>
@@ -3949,92 +4425,101 @@
         <v>24</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A53" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="10">
         <v>1</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="10" t="s">
+      <c r="E54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="12"/>
-      <c r="L53" s="10" t="s">
+      <c r="H54" s="12"/>
+      <c r="L54" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D54" s="10">
+    <row r="55" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D55" s="10">
         <v>2</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="10" t="s">
+      <c r="E55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D55" s="10">
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D56" s="10">
         <v>3</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="10" t="s">
+      <c r="E56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D56" s="10">
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D57" s="10">
         <v>4</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="10" t="s">
+      <c r="E57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D57" s="10">
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D58" s="10">
         <v>5</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D58" s="10">
-        <v>6</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>121</v>
@@ -4043,332 +4528,332 @@
         <v>122</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D59" s="10">
+        <v>6</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D60" s="10">
         <v>7</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="10" t="s">
+      <c r="E60" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D60" s="10">
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D61" s="10">
         <v>8</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="10" t="s">
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <v>1</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="10" t="s">
+      <c r="E62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="L61" s="10" t="s">
+      <c r="H62" s="12"/>
+      <c r="L62" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D62" s="10">
+    <row r="63" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D63" s="10">
         <v>2</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="10" t="s">
+      <c r="E63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D63" s="10">
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D64" s="10">
         <v>3</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E64" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D64" s="10">
+      <c r="G64" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D65" s="10">
         <v>4</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E65" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="10" t="s">
+      <c r="G65" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B66" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D66" s="10">
         <v>1</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" s="10" t="s">
+      <c r="E66" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H65" s="12"/>
-      <c r="L65" s="10" t="s">
+      <c r="H66" s="12"/>
+      <c r="L66" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D66" s="10">
+    <row r="67" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D67" s="10">
         <v>2</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" s="10" t="s">
+      <c r="E67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D67" s="10">
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D68" s="10">
         <v>3</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E68" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F68" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G68" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H67" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D68" s="10">
+      <c r="H68" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D69" s="10">
         <v>4</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D69" s="10">
-        <v>5</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G69" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D70" s="10">
+        <v>5</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="10" t="s">
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>1</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" s="10" t="s">
+      <c r="E71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H70" s="12"/>
-      <c r="L70" s="10" t="s">
+      <c r="H71" s="12"/>
+      <c r="L71" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D71" s="10">
+    <row r="72" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D72" s="10">
         <v>2</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" s="10" t="s">
+      <c r="E72" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H71" s="12"/>
-    </row>
-    <row r="72" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D72" s="10">
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D73" s="10">
         <v>3</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F73" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G73" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H72" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D73" s="10">
+      <c r="H73" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D74" s="10">
         <v>4</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D74" s="10">
+      <c r="E74" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D75" s="10">
         <v>5</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" s="10" t="s">
+      <c r="E75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D75" s="10">
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D76" s="10">
         <v>6</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="10" t="s">
+      <c r="E76" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H75" s="12"/>
-    </row>
-    <row r="76" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D76" s="10">
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D77" s="10">
         <v>7</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E77" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G77" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="10" t="s">
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B78" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <v>1</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" s="10" t="s">
+      <c r="E78" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="L77" s="10" t="s">
+      <c r="H78" s="12"/>
+      <c r="L78" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D78" s="10">
+    <row r="79" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D79" s="10">
         <v>2</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" s="10" t="s">
+      <c r="E79" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H78" s="12"/>
-    </row>
-    <row r="79" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D79" s="10">
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D80" s="10">
         <v>3</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" s="10" t="s">
+      <c r="E80" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H79" s="12"/>
-    </row>
-    <row r="80" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D80" s="10">
-        <v>4</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D81" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>121</v>
@@ -4377,268 +4862,270 @@
         <v>122</v>
       </c>
       <c r="G81" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H81" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="H81" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D82" s="10">
         <v>6</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>24</v>
+        <v>121</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="G82" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H82" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="H82" s="12"/>
-    </row>
-    <row r="83" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D83" s="10">
+        <v>8</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D84" s="10">
+        <v>9</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D85" s="10">
+        <v>6</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D86" s="10">
+        <v>12</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D87" s="10">
+        <v>13</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="10">
+        <v>1</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" s="12"/>
+      <c r="L88" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D89" s="10">
+        <v>2</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D90" s="10">
+        <v>3</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D91" s="10">
+        <v>4</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91" s="12"/>
+    </row>
+    <row r="92" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D92" s="10">
+        <v>5</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D93" s="10">
+        <v>6</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D94" s="10">
         <v>7</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H83" s="12"/>
-    </row>
-    <row r="84" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D84" s="10">
+      <c r="E94" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D95" s="10">
         <v>8</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D85" s="10">
+      <c r="E95" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D96" s="10">
         <v>9</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H85" s="12"/>
-    </row>
-    <row r="86" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D86" s="10">
-        <v>10</v>
-      </c>
-      <c r="E86" s="10" t="s">
+      <c r="E96" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G96" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H86" s="12"/>
-    </row>
-    <row r="87" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="10">
+      <c r="H96" s="12"/>
+    </row>
+    <row r="97" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10">
         <v>1</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H87" s="12"/>
-      <c r="L87" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D88" s="10">
-        <v>2</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H88" s="12"/>
-    </row>
-    <row r="89" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D89" s="10">
-        <v>3</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H89" s="12"/>
-    </row>
-    <row r="90" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D90" s="10">
-        <v>4</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H90" s="12"/>
-    </row>
-    <row r="91" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D91" s="10">
-        <v>5</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D92" s="10">
-        <v>6</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H92" s="12"/>
-    </row>
-    <row r="93" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D93" s="10">
-        <v>7</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D94" s="10">
-        <v>8</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H94" s="12"/>
-    </row>
-    <row r="95" spans="1:12" s="10" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D95" s="10">
-        <v>9</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H95" s="12"/>
-    </row>
-    <row r="96" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10">
-        <v>1</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H96" s="12"/>
-      <c r="L96" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D97" s="11">
-        <v>2</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H97" s="14"/>
-    </row>
-    <row r="98" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D98" s="10">
-        <v>3</v>
+        <v>143</v>
+      </c>
+      <c r="H97" s="12"/>
+      <c r="L97" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D98" s="11">
+        <v>2</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D99" s="10">
+        <v>3</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H98" s="14"/>
-    </row>
-    <row r="99" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D99" s="11">
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D100" s="11">
         <v>4</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H99" s="14"/>
-    </row>
-    <row r="100" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D100" s="10">
-        <v>5</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>24</v>
@@ -4647,1062 +5134,1060 @@
         <v>140</v>
       </c>
       <c r="G100" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D101" s="10">
+        <v>5</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G101" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H100" s="14"/>
-    </row>
-    <row r="101" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D101" s="11">
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D102" s="11">
         <v>6</v>
       </c>
-      <c r="E101" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H101" s="14"/>
-    </row>
-    <row r="102" spans="1:12" s="11" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D102" s="10">
-        <v>7</v>
-      </c>
       <c r="E102" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D103" s="10">
+        <v>7</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H102" s="14"/>
-    </row>
-    <row r="103" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D103" s="11">
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D104" s="11">
         <v>8</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" s="10" t="s">
+      <c r="E104" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G103" s="10" t="s">
+      <c r="G104" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D104" s="10">
+    <row r="105" spans="1:12" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D105" s="10">
         <v>9</v>
       </c>
-      <c r="E104" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10" t="s">
+      <c r="E105" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="10" customFormat="1" ht="16.5" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="10" t="s">
+    <row r="106" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B106" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D106" s="10">
         <v>1</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" s="10" t="s">
+      <c r="E106" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H105" s="12"/>
-      <c r="L105" s="10" t="s">
+      <c r="H106" s="12"/>
+      <c r="L106" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D106" s="10">
+    <row r="107" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D107" s="10">
         <v>2</v>
       </c>
-      <c r="E106" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" s="10" t="s">
+      <c r="E107" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="12"/>
-    </row>
-    <row r="107" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D107" s="10">
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D108" s="10">
         <v>3</v>
       </c>
-      <c r="E107" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" s="10" t="s">
+      <c r="E108" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H107" s="12"/>
-    </row>
-    <row r="108" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D108" s="10">
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D109" s="10">
         <v>4</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" s="10" t="s">
+      <c r="E109" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H108" s="12"/>
-    </row>
-    <row r="109" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D109" s="10">
+      <c r="H109" s="12"/>
+    </row>
+    <row r="110" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D110" s="10">
         <v>5</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E110" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="G110" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H109" s="12" t="s">
+      <c r="H110" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D110" s="10">
+    <row r="111" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D111" s="10">
         <v>6</v>
       </c>
-      <c r="E110" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" s="10" t="s">
+      <c r="E111" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H110" s="12"/>
-    </row>
-    <row r="111" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D111" s="10">
+      <c r="H111" s="12"/>
+    </row>
+    <row r="112" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D112" s="10">
         <v>7</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E112" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G111" s="10" t="s">
+      <c r="G112" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H111" s="12" t="s">
+      <c r="H112" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D112" s="10">
+    <row r="113" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D113" s="10">
         <v>8</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" s="10" t="s">
+      <c r="E113" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H112" s="12"/>
-    </row>
-    <row r="113" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D113" s="10">
+      <c r="H113" s="12"/>
+    </row>
+    <row r="114" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D114" s="10">
         <v>9</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E114" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G113" s="10" t="s">
+      <c r="G114" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H113" s="12"/>
-    </row>
-    <row r="114" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="10" t="s">
+      <c r="H114" s="12"/>
+    </row>
+    <row r="115" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D115" s="10">
         <v>1</v>
       </c>
-      <c r="E114" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" s="10" t="s">
+      <c r="E115" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H114" s="12"/>
-      <c r="L114" s="10" t="s">
+      <c r="H115" s="12"/>
+      <c r="L115" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D115" s="10">
+    <row r="116" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D116" s="10">
         <v>2</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" s="10" t="s">
+      <c r="E116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H115" s="12"/>
-    </row>
-    <row r="116" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D116" s="10">
+      <c r="H116" s="12"/>
+    </row>
+    <row r="117" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D117" s="10">
         <v>3</v>
       </c>
-      <c r="E116" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" s="10" t="s">
+      <c r="E117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H116" s="12"/>
-    </row>
-    <row r="117" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D117" s="10">
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D118" s="10">
         <v>4</v>
       </c>
-      <c r="E117" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" s="10" t="s">
+      <c r="E118" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H117" s="12"/>
-    </row>
-    <row r="118" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D118" s="10">
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D119" s="10">
         <v>5</v>
       </c>
-      <c r="E118" s="10" t="s">
+      <c r="E119" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G119" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H118" s="12" t="s">
+      <c r="H119" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D119" s="10">
+    <row r="120" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D120" s="10">
         <v>6</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" s="10" t="s">
+      <c r="E120" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H119" s="12"/>
-    </row>
-    <row r="120" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D120" s="10">
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D121" s="10">
         <v>7</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E121" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G120" s="10" t="s">
+      <c r="G121" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H120" s="12" t="s">
+      <c r="H121" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D121" s="10">
+    <row r="122" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D122" s="10">
         <v>8</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" s="10" t="s">
+      <c r="E122" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H121" s="12"/>
-    </row>
-    <row r="122" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D122" s="10">
+      <c r="H122" s="12"/>
+    </row>
+    <row r="123" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D123" s="10">
         <v>9</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E123" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="10" t="s">
+      <c r="G123" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H122" s="12" t="s">
+      <c r="H123" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D123" s="10">
+    <row r="124" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D124" s="10">
         <v>10</v>
       </c>
-      <c r="E123" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" s="10" t="s">
+      <c r="E124" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H123" s="12"/>
-    </row>
-    <row r="124" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D124" s="10">
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D125" s="10">
         <v>11</v>
       </c>
-      <c r="E124" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" s="10" t="s">
+      <c r="E125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H124" s="12"/>
-    </row>
-    <row r="125" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D125" s="10">
+      <c r="H125" s="12"/>
+    </row>
+    <row r="126" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D126" s="10">
         <v>12</v>
       </c>
-      <c r="E125" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" s="10" t="s">
+      <c r="E126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H125" s="12"/>
-    </row>
-    <row r="126" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D126" s="10">
+      <c r="H126" s="12"/>
+    </row>
+    <row r="127" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D127" s="10">
         <v>13</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F126" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H126" s="12"/>
-    </row>
-    <row r="127" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D127" s="10">
+      <c r="F127" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H127" s="12"/>
+    </row>
+    <row r="128" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D128" s="10">
         <v>14</v>
       </c>
-      <c r="E127" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" s="10" t="s">
+      <c r="E128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H127" s="12"/>
-    </row>
-    <row r="128" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D128" s="10">
+      <c r="H128" s="12"/>
+    </row>
+    <row r="129" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D129" s="10">
         <v>15</v>
       </c>
-      <c r="E128" s="10" t="s">
+      <c r="E129" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G128" s="10" t="s">
+      <c r="G129" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H128" s="16" t="s">
+      <c r="H129" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D129" s="10">
+    <row r="130" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D130" s="10">
         <v>16</v>
       </c>
-      <c r="E129" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" s="10" t="s">
+      <c r="E130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H129" s="12"/>
-    </row>
-    <row r="130" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D130" s="10">
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D131" s="10">
         <v>17</v>
       </c>
-      <c r="E130" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" s="10" t="s">
+      <c r="E131" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H130" s="12"/>
-    </row>
-    <row r="131" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D131" s="10">
+      <c r="H131" s="12"/>
+    </row>
+    <row r="132" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D132" s="10">
         <v>18</v>
       </c>
-      <c r="E131" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" s="10" t="s">
+      <c r="E132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G132" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H131" s="12"/>
-    </row>
-    <row r="132" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D132" s="10">
+      <c r="H132" s="12"/>
+    </row>
+    <row r="133" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D133" s="10">
         <v>19</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E133" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G132" s="10" t="s">
+      <c r="G133" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H132" s="12"/>
-    </row>
-    <row r="133" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="10" t="s">
+      <c r="H133" s="12"/>
+    </row>
+    <row r="134" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B134" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D134" s="10">
         <v>1</v>
       </c>
-      <c r="E133" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" s="10" t="s">
+      <c r="E134" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H133" s="12"/>
-      <c r="L133" s="10" t="s">
+      <c r="H134" s="12"/>
+      <c r="L134" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D134" s="11">
+    <row r="135" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D135" s="11">
         <v>2</v>
       </c>
-      <c r="E134" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" s="10" t="s">
+      <c r="E135" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H134" s="14"/>
-    </row>
-    <row r="135" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D135" s="10">
+      <c r="H135" s="14"/>
+    </row>
+    <row r="136" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D136" s="10">
         <v>3</v>
       </c>
-      <c r="E135" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" s="10" t="s">
+      <c r="E136" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G136" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H135" s="14"/>
-    </row>
-    <row r="136" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D136" s="11">
+      <c r="H136" s="14"/>
+    </row>
+    <row r="137" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D137" s="11">
         <v>4</v>
       </c>
-      <c r="E136" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H136" s="14"/>
-    </row>
-    <row r="137" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D137" s="10">
-        <v>5</v>
-      </c>
       <c r="E137" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H137" s="14"/>
+    </row>
+    <row r="138" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D138" s="10">
+        <v>5</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H137" s="17" t="s">
+      <c r="H138" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D138" s="11">
+    <row r="139" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D139" s="11">
         <v>6</v>
       </c>
-      <c r="E138" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" s="10" t="s">
+      <c r="E139" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G139" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H138" s="14"/>
-    </row>
-    <row r="139" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D139" s="10">
+      <c r="H139" s="14"/>
+    </row>
+    <row r="140" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D140" s="10">
         <v>7</v>
       </c>
-      <c r="E139" s="10" t="s">
+      <c r="E140" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10" t="s">
+      <c r="F140" s="10"/>
+      <c r="G140" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H139" s="14"/>
-    </row>
-    <row r="140" spans="1:12" s="10" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="10" t="s">
+      <c r="H140" s="14"/>
+    </row>
+    <row r="141" spans="1:12" s="10" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C141" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D141" s="10">
         <v>1</v>
       </c>
-      <c r="E140" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" s="10" t="s">
+      <c r="E141" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H140" s="12"/>
-      <c r="L140" s="10" t="s">
+      <c r="H141" s="12"/>
+      <c r="L141" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D141" s="11">
+    <row r="142" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D142" s="11">
         <v>2</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H141" s="14"/>
-    </row>
-    <row r="142" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D142" s="10">
-        <v>3</v>
       </c>
       <c r="E142" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="10" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H142" s="14"/>
     </row>
-    <row r="143" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D143" s="11">
-        <v>4</v>
+    <row r="143" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D143" s="10">
+        <v>3</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D144" s="10">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="H143" s="14"/>
+    </row>
+    <row r="144" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D144" s="11">
+        <v>4</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H144" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D145" s="11">
-        <v>6</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D145" s="10">
+        <v>5</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H145" s="12"/>
-    </row>
-    <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D146" s="10">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D146" s="11">
+        <v>6</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H146" s="12"/>
     </row>
-    <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D147" s="11">
-        <v>8</v>
+    <row r="147" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D147" s="10">
+        <v>7</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H147" s="12"/>
+    </row>
+    <row r="148" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D148" s="11">
+        <v>8</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H147" s="12"/>
-    </row>
-    <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D148" s="10">
+      <c r="H148" s="12"/>
+    </row>
+    <row r="149" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D149" s="10">
         <v>9</v>
       </c>
-      <c r="E148" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G148" s="10" t="s">
+      <c r="E149" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G149" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H148" s="14"/>
-    </row>
-    <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D149" s="11">
+      <c r="H149" s="14"/>
+    </row>
+    <row r="150" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D150" s="11">
         <v>10</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="E150" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H149" s="14"/>
-    </row>
-    <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D150" s="10">
-        <v>1</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H150" s="14"/>
+    </row>
+    <row r="151" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D151" s="10">
+        <v>1</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H150" s="14"/>
-      <c r="L150" s="11" t="s">
+      <c r="H151" s="14"/>
+      <c r="L151" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
-      <c r="D151" s="10">
-        <v>2</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H151" s="14"/>
-    </row>
-    <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="D152" s="10">
+        <v>2</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H152" s="14"/>
+    </row>
+    <row r="153" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="D153" s="10">
         <v>3</v>
       </c>
-      <c r="E152" s="10" t="s">
+      <c r="E153" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F152" s="10" t="s">
+      <c r="F153" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G152" s="10" t="s">
+      <c r="G153" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H152" s="14"/>
-    </row>
-    <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="10" t="s">
+      <c r="H153" s="14"/>
+    </row>
+    <row r="154" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B154" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C154" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D153" s="10">
+      <c r="D154" s="10">
         <v>1</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H153" s="12"/>
-      <c r="L153" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D154" s="11">
-        <v>2</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H154" s="14"/>
-    </row>
-    <row r="155" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D155" s="11" t="s">
-        <v>105</v>
+        <v>54</v>
+      </c>
+      <c r="H154" s="12"/>
+      <c r="L154" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D155" s="11">
+        <v>2</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="10" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="H155" s="14"/>
     </row>
-    <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D156" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="10" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H156" s="14"/>
     </row>
-    <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D157" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="H157" s="14"/>
     </row>
-    <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D158" s="10" t="s">
-        <v>131</v>
+    <row r="158" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D158" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="H158" s="14"/>
     </row>
-    <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D159" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H159" s="14"/>
+    </row>
+    <row r="160" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D160" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D160" s="11" t="s">
+    <row r="161" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D161" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E160" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" s="10" t="s">
+      <c r="E161" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G161" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H160" s="14"/>
-    </row>
-    <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D161" s="10" t="s">
+      <c r="H161" s="14"/>
+    </row>
+    <row r="162" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D162" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E161" s="10" t="s">
+      <c r="E162" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H161" s="14"/>
-    </row>
-    <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D162" s="11">
-        <v>1</v>
-      </c>
-      <c r="E162" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="10" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="H162" s="14"/>
-      <c r="L162" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="163" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="D163" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="H163" s="14"/>
+      <c r="L163" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D164" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H164" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D165" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="H165" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D166" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F166" s="10"/>
       <c r="G166" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D167" s="11">
+        <v>5</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H166" s="12" t="s">
+      <c r="H167" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D167" s="11">
+    <row r="168" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D168" s="11">
         <v>6</v>
       </c>
-      <c r="E167" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G167" s="10" t="s">
+      <c r="E168" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G168" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H167" s="14"/>
-    </row>
-    <row r="168" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D168" s="11">
+      <c r="H168" s="14"/>
+    </row>
+    <row r="169" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D169" s="11">
         <v>7</v>
       </c>
-      <c r="E168" s="10" t="s">
+      <c r="E169" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F168" t="s">
-        <v>207</v>
-      </c>
-      <c r="G168" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D169" s="11">
+      <c r="F169" t="s">
+        <v>204</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D170" s="11">
         <v>8</v>
       </c>
-      <c r="E169" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F169" s="11"/>
-      <c r="G169" s="10" t="s">
+      <c r="E170" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F170" s="11"/>
+      <c r="G170" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D170" s="11">
+    <row r="171" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D171" s="11">
         <v>9</v>
       </c>
-      <c r="E170" s="10" t="s">
+      <c r="E171" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D171" s="10">
-        <v>1</v>
-      </c>
-      <c r="E171" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H171" s="12"/>
-      <c r="L171" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D172" s="11">
-        <v>2</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D172" s="10">
+        <v>1</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H172" s="14"/>
-    </row>
-    <row r="173" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D173" s="10">
-        <v>3</v>
+        <v>151</v>
+      </c>
+      <c r="H172" s="12"/>
+      <c r="L172" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D173" s="11">
+        <v>2</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F173" s="10"/>
       <c r="G173" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H173" s="14"/>
+    </row>
+    <row r="174" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D174" s="10">
+        <v>3</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H173" s="14"/>
-    </row>
-    <row r="174" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D174" s="11">
+      <c r="H174" s="14"/>
+    </row>
+    <row r="175" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D175" s="11">
         <v>4</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F174" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G174" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H174" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D175" s="10">
-        <v>5</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>121</v>
@@ -5711,15 +6196,15 @@
         <v>122</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D176" s="11">
-        <v>6</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D176" s="10">
+        <v>5</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>121</v>
@@ -5728,15 +6213,15 @@
         <v>122</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H176" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" s="11" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D177" s="10">
-        <v>7</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D177" s="11">
+        <v>6</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>121</v>
@@ -5745,144 +6230,161 @@
         <v>122</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H177" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D178" s="11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" s="11" customFormat="1" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D178" s="10">
+        <v>7</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H178" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D179" s="11">
         <v>8</v>
       </c>
-      <c r="E178" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F178" s="19"/>
-      <c r="G178" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="D179" s="10">
-        <v>9</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>26</v>
+      <c r="E179" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F179" s="19"/>
       <c r="G179" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="D180" s="10">
+        <v>9</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F180" s="19"/>
+      <c r="G180" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B180" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C180" s="10" t="s">
+    <row r="181" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D180" s="10">
+      <c r="D181" s="10">
         <v>1</v>
       </c>
-      <c r="E180" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10" t="s">
+      <c r="E181" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H180" s="12"/>
-      <c r="L180" s="11" t="s">
+      <c r="H181" s="12"/>
+      <c r="L181" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11">
-        <v>2</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F181" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G181" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H181" s="14"/>
-    </row>
-    <row r="182" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
-      <c r="D182" s="10">
-        <v>3</v>
+      <c r="D182" s="11">
+        <v>2</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="H182" s="14"/>
     </row>
-    <row r="183" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
-      <c r="D183" s="11">
-        <v>4</v>
+      <c r="D183" s="10">
+        <v>3</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="H183" s="14"/>
     </row>
-    <row r="184" spans="1:12" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11">
+        <v>4</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H184" s="14"/>
+    </row>
+    <row r="185" spans="1:12" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11">
         <v>5</v>
       </c>
-      <c r="E184" s="10" t="s">
+      <c r="E185" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H184" s="14"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H185" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C105:C162 C180:C184 C177 C171:C175 C51:C102 C2:C49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106:C163 C181:C185 C178 C172:C176 C52:C103 C2:C50">
       <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F53:F1048576 F1:F9 F28:F33 F36:F41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F54:F1048576 F1:F9 F28:F33 F37:F42">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F10:F27 F42:F52 F34:F35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F34:F36 F43:F53 F10:F27">
       <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G49:G1048576 H46 G47 H48 G1:G24 G26:G45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G50:G1048576 H47 G48 H49 G26:G46 G1:G24">
       <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576">
@@ -5895,36 +6397,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.1796875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" customWidth="1"/>
-    <col min="14" max="15" width="10.453125" customWidth="1"/>
-    <col min="16" max="16" width="101" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -5974,12 +6457,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>35</v>
@@ -5987,58 +6470,60 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="E2" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
+      <c r="E3" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6046,27 +6531,25 @@
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6074,11 +6557,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="5"/>
@@ -6090,7 +6575,225 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+      <formula1>"BASE,SETUP,MAIN,SUB,SKIP,SNIPPET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E5">
+      <formula1>"打开,检查,输入,点击,双击,上传文件,执行,移动到,刷新,#检查"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G1:G5">
+      <formula1>"菜单#,按钮#,子表按钮#,单选按钮#,复选按钮#,对话框按钮#,输入框#,查询输入框#,文本输入,弹出选择项#,弹出选择项值#,下拉选择项#,下拉选择项值#,左侧树#,提示#,列表字段值#,列表条目统计#,列表数据#,模板导入,附件导入,页签#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F2:F5">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段,弹出选择页面"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1">
+      <formula1>"通用,日期控件,附件控件,审批控件,卡片页,登录页,权限配置页,用例片段"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="33.21875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="101" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6116,7 +6819,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
@@ -6137,7 +6840,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -6145,13 +6848,11 @@
         <v>18</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+        <v>282</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D9" s="9">
         <v>3</v>
       </c>
@@ -6165,154 +6866,154 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="32" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="37" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="38" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="39" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="41" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="42" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="44" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="45" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="47" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="48" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -6322,240 +7023,240 @@
       <c r="G59" s="10"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="14"/>
     </row>
-    <row r="61" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="14"/>
     </row>
-    <row r="62" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="14"/>
     </row>
-    <row r="63" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="14"/>
     </row>
-    <row r="64" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="14"/>
     </row>
-    <row r="66" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D66" s="11"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H68" s="12"/>
     </row>
-    <row r="69" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H72" s="12"/>
     </row>
-    <row r="73" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="75" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="76" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H78" s="12"/>
     </row>
-    <row r="79" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="79" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="80" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="81" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="82" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="83" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="85" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="86" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="87" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="88" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="89" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="90" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="91" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="92" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="93" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="94" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="95" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="8:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="96" spans="8:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="97" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="98" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="99" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="100" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="101" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="102" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="4:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="103" spans="4:8" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="104" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="105" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="106" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="107" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="108" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="12"/>
     </row>
-    <row r="109" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="109" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="110" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="D113" s="10"/>
@@ -6564,7 +7265,7 @@
       <c r="G113" s="10"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="D114" s="10"/>
@@ -6573,7 +7274,7 @@
       <c r="G114" s="10"/>
       <c r="H114" s="14"/>
     </row>
-    <row r="115" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="D115" s="10"/>
@@ -6582,7 +7283,7 @@
       <c r="G115" s="10"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -6592,56 +7293,56 @@
       <c r="G116" s="10"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -6650,45 +7351,45 @@
       <c r="G125" s="10"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="12"/>
     </row>
-    <row r="128" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
     </row>
-    <row r="129" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="129" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="12"/>
     </row>
-    <row r="130" spans="4:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="130" spans="4:8" s="11" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="131" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D131" s="11"/>
       <c r="E131" s="10"/>
       <c r="G131" s="10"/>
     </row>
-    <row r="132" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="132" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D132" s="11"/>
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="4:8" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="133" spans="4:8" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="D133" s="11"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
@@ -6728,7 +7429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -6738,29 +7439,29 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" customWidth="1"/>
-    <col min="13" max="13" width="11.90625" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -6810,7 +7511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -6828,7 +7529,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>25</v>
@@ -6846,7 +7547,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6863,7 +7564,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -6874,7 +7575,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" sp